--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.573</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.479</v>
+        <v>16.797</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2274079752.97</v>
+        <v>-0.443</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1263501.722</v>
+        <v>31.831</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.967</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.964</v>
+        <v>8.584</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1538262.428876922</v>
+        <v>17.72715803789703</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1221512.783931258</v>
+        <v>17.73263952972311</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1149758.204679736</v>
+        <v>17.73267190165022</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1382365.327706363</v>
+        <v>17.72005853458743</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-138585.4280110482</v>
+        <v>17.74493381027314</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-539974.0834476163</v>
+        <v>17.75731433983608</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>87458.88704935795</v>
+        <v>17.79161937639604</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>360981.4542926356</v>
+        <v>17.80217781199299</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-276153.7352905447</v>
+        <v>17.77255822552555</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1238651.209267739</v>
+        <v>17.82308908879481</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-727635.3410255951</v>
+        <v>17.75655924343513</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-248455.0386322442</v>
+        <v>17.7850142282048</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8153.186177320669</v>
+        <v>17.79522444873885</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-888108.8740740995</v>
+        <v>17.75981998874295</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1151225.161379514</v>
+        <v>17.81967623596482</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-651267.5233040418</v>
+        <v>17.76065771324618</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-904740.128309087</v>
+        <v>17.76799061291531</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-629633.1384217413</v>
+        <v>17.77443293195443</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1774257.520963157</v>
+        <v>17.74868723172685</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1661085.655385345</v>
+        <v>17.80740221471408</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>90517.95456982437</v>
+        <v>17.77316815093436</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>156099.9115735231</v>
+        <v>17.77690140551023</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-360499.4450659812</v>
+        <v>17.7491515490296</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-270879.2954270329</v>
+        <v>17.75950715507614</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35779.91093475174</v>
+        <v>17.81392705115107</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>115031.1576368814</v>
+        <v>17.82026026194623</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-317357.1644449163</v>
+        <v>17.77373660146607</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1264780.788473189</v>
+        <v>17.8936947420823</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1535049.039950432</v>
+        <v>17.91574933191816</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>951624.8855878649</v>
+        <v>17.86658796730763</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1267676.074674723</v>
+        <v>17.87181719450435</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1437610.470398709</v>
+        <v>17.98792270697012</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1746616.534664706</v>
+        <v>18.01809625842159</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1168564.913581708</v>
+        <v>17.94712202762838</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1117018.312963116</v>
+        <v>17.8820193102395</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1370712.98917889</v>
+        <v>17.90405417460059</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>776273.2642623035</v>
+        <v>17.85055840939549</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1339265.81744144</v>
+        <v>17.87312994904475</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1401881.481249252</v>
+        <v>17.98400515357248</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1713764.950606269</v>
+        <v>18.01530703071876</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1051882.87088938</v>
+        <v>17.9384438198249</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1009520.124230184</v>
+        <v>17.83678864316741</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1309286.592872041</v>
+        <v>17.85142974497938</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>613323.91589736</v>
+        <v>17.81387770184627</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2100527.468102641</v>
+        <v>17.85889593024351</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1798191.850295088</v>
+        <v>17.92746038078463</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2162406.549221918</v>
+        <v>17.94896931802757</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1222750.947782112</v>
+        <v>17.88634658936537</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1650795.338279284</v>
+        <v>17.80634287619161</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>599680.7278226723</v>
+        <v>17.81550871744082</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1018887.126474322</v>
+        <v>17.83061824537037</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-102386.6641646846</v>
+        <v>17.77636883561996</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>85273.84560631293</v>
+        <v>17.78427179293547</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1932295.71938474</v>
+        <v>17.84122929242586</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1388952.282314826</v>
+        <v>17.88144535538396</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1924493.77730952</v>
+        <v>17.90885275618983</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>695402.0527892592</v>
+        <v>17.83312019433086</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1120303.154173525</v>
+        <v>17.86412536270124</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1724587.766925725</v>
+        <v>17.83361833382077</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1135407.008094975</v>
+        <v>17.86660963445273</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1651956.148322029</v>
+        <v>17.89275262940648</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>191664.4540243993</v>
+        <v>17.81215228134812</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1089659.102926298</v>
+        <v>17.85358705342545</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2919430.504889367</v>
+        <v>17.8306798683346</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1604964.732922044</v>
+        <v>17.84141740794471</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2294632.259975021</v>
+        <v>17.861465474052</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>330234.7636488575</v>
+        <v>17.79821096730295</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1462919.067830278</v>
+        <v>17.83651237219743</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>201796.2757539807</v>
+        <v>17.82095322406753</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>370310.0979560827</v>
+        <v>17.83989377601327</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-159406.1268079014</v>
+        <v>17.77867777416661</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>546815.4920246875</v>
+        <v>17.80374985118101</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>386132.6766435532</v>
+        <v>17.86383403025512</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>547027.4275968779</v>
+        <v>17.88747006049772</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-20653.62953193054</v>
+        <v>17.80170884981135</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>956835.3006078822</v>
+        <v>17.9458189447699</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1235903.577159439</v>
+        <v>17.98527038453732</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>619234.4177834211</v>
+        <v>17.8990927849531</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1277481.643154336</v>
+        <v>17.9116457929271</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1098337.052190981</v>
+        <v>18.0361802784034</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1402702.260116144</v>
+        <v>18.08665826034961</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>722582.4717851579</v>
+        <v>17.97230816098699</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>900730.7014556176</v>
+        <v>17.92516894078326</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1166070.316300591</v>
+        <v>17.96358441346989</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>543232.261848712</v>
+        <v>17.87410668167824</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1293820.386317068</v>
+        <v>17.90502987051978</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1106979.634464582</v>
+        <v>18.0231446614946</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1419400.378613043</v>
+        <v>18.07380645908952</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>683780.2694766042</v>
+        <v>17.95467836407867</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>954805.3596103255</v>
+        <v>17.87237085607961</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1270014.159058397</v>
+        <v>17.90098833635055</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>621191.8775167387</v>
+        <v>17.83422312741299</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1809006.254779241</v>
+        <v>17.89308394464622</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1452600.25381186</v>
+        <v>17.96770906861938</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1837961.056321275</v>
+        <v>18.00561721411744</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>942691.7447892418</v>
+        <v>17.90815583559784</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>461046.1906286394</v>
+        <v>17.7789529493659</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-9658.373385998675</v>
+        <v>17.79690708953749</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>292846.5459424388</v>
+        <v>17.80716537800818</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-555279.9118297355</v>
+        <v>17.76290755327226</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>106213.2269670088</v>
+        <v>17.7835422535635</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1477892.289440265</v>
+        <v>17.82046846164971</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1305038.263888401</v>
+        <v>17.87102706088695</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1757574.269801589</v>
+        <v>17.89338927785984</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>713530.4322069315</v>
+        <v>17.82763491220691</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1205568.268528482</v>
+        <v>17.87028217721791</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1390373.64932122</v>
+        <v>17.81713608022999</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1108242.624375585</v>
+        <v>17.86055295303909</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1547961.202928557</v>
+        <v>17.88192855537249</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>216490.2773103269</v>
+        <v>17.81067003776118</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1251181.947917926</v>
+        <v>17.86462037728424</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2533506.954192839</v>
+        <v>17.81380382594336</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1657579.390600481</v>
+        <v>17.83316892295349</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2273679.996040646</v>
+        <v>17.84924060684292</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>421484.806662932</v>
+        <v>17.79400672911334</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1607222.043851614</v>
+        <v>17.84543330950963</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>221013.0539156611</v>
+        <v>17.83181902897849</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>396351.729829029</v>
+        <v>17.84749094702317</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-155154.7899471118</v>
+        <v>17.79373965198592</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>482165.9832369824</v>
+        <v>17.79587885243069</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>397191.5854435007</v>
+        <v>17.86870172027588</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>540278.806156907</v>
+        <v>17.88945261166612</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5419.605477890182</v>
+        <v>17.81099304393484</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1005701.369944926</v>
+        <v>17.96471666578791</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1290938.627034231</v>
+        <v>18.0009062529542</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>645577.5647661844</v>
+        <v>17.92159226109115</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1269053.625211851</v>
+        <v>17.91218523661033</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1149725.138374235</v>
+        <v>18.05104228986882</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1438303.052337032</v>
+        <v>18.0986649797851</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>801833.1532742822</v>
+        <v>17.99098666971897</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>991285.7266863026</v>
+        <v>17.94905088232532</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1273475.533312291</v>
+        <v>17.98450148413936</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>596158.9208923136</v>
+        <v>17.90114648392129</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1337437.163370991</v>
+        <v>17.91182010173018</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1191950.953841283</v>
+        <v>18.04451306990694</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1499263.276030642</v>
+        <v>18.09261997210771</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>787175.0486235622</v>
+        <v>17.97939840936965</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1072005.256841513</v>
+        <v>17.89246825686893</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1442700.852465633</v>
+        <v>17.91869954635995</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>655272.7988338453</v>
+        <v>17.85719980337983</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1959751.474794171</v>
+        <v>17.89820879759404</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1635982.701687605</v>
+        <v>17.98547318951576</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2047039.427368981</v>
+        <v>18.02139363107045</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1105448.620127387</v>
+        <v>17.92894964397846</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1204190.864443881</v>
+        <v>17.72975042222422</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-54056.30518464177</v>
+        <v>17.74430086409135</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>186510.6867564516</v>
+        <v>17.74437192645708</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>800066.814219872</v>
+        <v>17.74075350486499</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-407642.9257080822</v>
+        <v>17.73699775628414</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-312769.3794854899</v>
+        <v>17.76393847474642</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1027821.918149139</v>
+        <v>17.80870047750355</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1451252.60568725</v>
+        <v>17.81900714775781</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1444500.250490524</v>
+        <v>17.79891947661012</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1333511.301558239</v>
+        <v>17.81626440579774</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-426924.0061461876</v>
+        <v>17.76437574991915</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>835832.0532898315</v>
+        <v>17.80317420318723</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1262195.480944497</v>
+        <v>17.81310267413773</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1037838.470529938</v>
+        <v>17.78689900028985</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1236817.939680869</v>
+        <v>17.81369675917862</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-139772.783354121</v>
+        <v>17.76389693771994</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>668816.1745766529</v>
+        <v>17.77944373127797</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1187167.126638806</v>
+        <v>17.7858819303538</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1130925.974408266</v>
+        <v>17.76806438580954</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1216675.748854922</v>
+        <v>17.79811314562486</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-175635.1292321018</v>
+        <v>17.76863997423592</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-85141.60750598034</v>
+        <v>17.77073391811708</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-521786.9524320686</v>
+        <v>17.75447169971936</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-352916.316012323</v>
+        <v>17.75274124429357</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-42601.74925243208</v>
+        <v>17.81063055506564</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40207.96303606156</v>
+        <v>17.81512163571018</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-261585.7968085282</v>
+        <v>17.77967292933287</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1224884.863811401</v>
+        <v>17.89089689022058</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1504992.806116662</v>
+        <v>17.91070629685759</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>915067.6556002646</v>
+        <v>17.87373841815887</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1325858.846940096</v>
+        <v>17.863793613472</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1424315.759287727</v>
+        <v>17.98374033494755</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1703542.639279382</v>
+        <v>18.01136393294254</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1166055.660109892</v>
+        <v>17.95211995277442</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1098324.058882741</v>
+        <v>17.88001091800711</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1360213.81392341</v>
+        <v>17.89979645640452</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>767182.6101081</v>
+        <v>17.85808497169893</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1321608.918941217</v>
+        <v>17.86557072565881</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1361290.039464641</v>
+        <v>17.98024274884624</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1632776.19224833</v>
+        <v>18.00897065396503</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1029211.497996426</v>
+        <v>17.94346192005201</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>648533.8263236104</v>
+        <v>17.83019139666235</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>961427.4038499942</v>
+        <v>17.84328285810742</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>346610.8947199041</v>
+        <v>17.81593378657139</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1600726.190966103</v>
+        <v>17.84930072649682</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1400587.491261592</v>
+        <v>17.92057041806276</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1725614.951322375</v>
+        <v>17.94029114180903</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>958960.2216292379</v>
+        <v>17.88757216190847</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>283133.6298515216</v>
+        <v>17.76196369858506</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-672657.7978047157</v>
+        <v>17.76641159808744</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-320178.7951509092</v>
+        <v>17.77362188462339</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1845185.010077349</v>
+        <v>17.73696179902889</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>256732.5566129381</v>
+        <v>17.78661268320074</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1683428.940768422</v>
+        <v>17.80285761794185</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>849351.6201612643</v>
+        <v>17.83733834102346</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1342406.449179615</v>
+        <v>17.85564393267365</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-837063.7862198959</v>
+        <v>17.79934810695933</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1462851.091987347</v>
+        <v>17.87091246038665</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1836348.836347902</v>
+        <v>17.80387384869321</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>753562.0791051373</v>
+        <v>17.83301963324262</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1252640.14259823</v>
+        <v>17.85089569524903</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1335434.25439742</v>
+        <v>17.78929022894985</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1483317.295233484</v>
+        <v>17.86929632425698</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3350459.05439249</v>
+        <v>17.80178326878804</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>804713.8477198846</v>
+        <v>17.80972695076105</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1512752.91983496</v>
+        <v>17.82288009812711</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1859509.991702945</v>
+        <v>17.77509866090395</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2291766.791922139</v>
+        <v>17.85400425770446</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>579019.4035497708</v>
+        <v>17.82997031440959</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>805249.2464880572</v>
+        <v>17.84334758037022</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>133711.3399039477</v>
+        <v>17.79491822531875</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>366803.5842871501</v>
+        <v>17.78436084530374</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>492314.5182007052</v>
+        <v>17.84677762509478</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>650025.1004460846</v>
+        <v>17.86204130263203</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>117762.4750937397</v>
+        <v>17.79483134607149</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1529092.527301991</v>
+        <v>17.95873924292689</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1906888.74335474</v>
+        <v>17.99106855557511</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1114115.331915907</v>
+        <v>17.91890960091225</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1431799.220916805</v>
+        <v>17.89306143278504</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1502726.597697489</v>
+        <v>18.01746208254524</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1846295.8342277</v>
+        <v>18.05708538227744</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1149568.415651687</v>
+        <v>17.96325850023764</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1466840.23577253</v>
+        <v>17.94891503547254</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1848424.655857211</v>
+        <v>17.98112306130548</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>998788.9905214737</v>
+        <v>17.9048858822268</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1454660.162881196</v>
+        <v>17.89542767456379</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1458513.122105541</v>
+        <v>18.01475576564426</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1813160.321920541</v>
+        <v>18.0554050631625</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1019616.167178125</v>
+        <v>17.95603656584949</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1741705.79950593</v>
+        <v>17.89831305900049</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2300370.636585417</v>
+        <v>17.9219633590075</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1244471.052528167</v>
+        <v>17.86520031963107</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2546480.534803584</v>
+        <v>17.88688420256619</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2130855.072694384</v>
+        <v>17.96362048323908</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2632263.197254455</v>
+        <v>17.99344089017467</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1485591.563156557</v>
+        <v>17.91184034460156</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>673199.5492191494</v>
+        <v>17.78840891483343</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-209536.7849456088</v>
+        <v>17.77221878397125</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-3788.215422754488</v>
+        <v>17.78916791581054</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-902253.8933320149</v>
+        <v>17.7032067135601</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>344903.9569544698</v>
+        <v>17.82899428112498</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>754382.161889437</v>
+        <v>17.8357587423787</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>178035.9512046084</v>
+        <v>17.85696338362075</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>395787.4934209312</v>
+        <v>17.88903467479962</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-748985.0241578971</v>
+        <v>17.77392994891785</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>768206.0586071757</v>
+        <v>17.93082183721591</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>836396.2079223589</v>
+        <v>17.8313605777741</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>198365.8144864317</v>
+        <v>17.84513379767575</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>413877.7624616079</v>
+        <v>17.87611235147387</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-944595.5233558293</v>
+        <v>17.75486081241194</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>784895.5551314021</v>
+        <v>17.922541670497</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1761146.682504024</v>
+        <v>17.82961083012592</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>365347.3278883141</v>
+        <v>17.81895588405169</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>699629.7033764666</v>
+        <v>17.84292290737327</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-1165135.693240452</v>
+        <v>17.74581369364608</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1216671.887200149</v>
+        <v>17.90263626839015</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>345079.4892671236</v>
+        <v>17.88977282897944</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>491372.9066196186</v>
+        <v>17.92237821250241</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>129990.5588001435</v>
+        <v>17.82357647219286</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>340033.6882743334</v>
+        <v>17.82348160694328</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>276276.4311891033</v>
+        <v>17.90234422944345</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>377182.6089861917</v>
+        <v>17.93861819307751</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>57471.44299472808</v>
+        <v>17.81483197008981</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>695368.8627220226</v>
+        <v>18.04991859069794</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>893401.6114672481</v>
+        <v>18.10879285287203</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>477529.2623548638</v>
+        <v>17.97610378517211</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>729096.0075169272</v>
+        <v>17.95686489249502</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>671978.3344063237</v>
+        <v>18.11699715864041</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>845119.6361766772</v>
+        <v>18.1871851676594</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>476574.5719287576</v>
+        <v>18.02583592857291</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>695073.5025254505</v>
+        <v>18.02947911849281</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>900577.7519395337</v>
+        <v>18.08742776248123</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>455534.4959584049</v>
+        <v>17.9501983672555</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>797904.8296838246</v>
+        <v>17.95529936909618</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>726601.0045236544</v>
+        <v>18.10822092497604</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>912400.0669546335</v>
+        <v>18.17907687612136</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>502722.0401620848</v>
+        <v>18.01122546279595</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>890735.7943837476</v>
+        <v>17.96192798360283</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1171020.682898884</v>
+        <v>18.00666930831309</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>640608.5887948101</v>
+        <v>17.90033778740145</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1212055.079927446</v>
+        <v>17.9491956859647</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>987811.1266609867</v>
+        <v>18.0467507642902</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1240720.772285078</v>
+        <v>18.10107102474558</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>671862.1680001292</v>
+        <v>17.96160500386762</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-860778.4223982908</v>
+        <v>17.70333601317246</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-571613.6408246226</v>
+        <v>17.71546686618109</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-553343.1302958904</v>
+        <v>17.71275649262336</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-695188.8037196061</v>
+        <v>17.69694411783701</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-170922.76487762</v>
+        <v>17.74765363252214</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-525830.1194818052</v>
+        <v>17.72751039404523</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-138913.7864833543</v>
+        <v>17.77475365566686</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-50804.63202979949</v>
+        <v>17.78538084250437</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-340397.6313969055</v>
+        <v>17.74770440048516</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>409880.5699331074</v>
+        <v>17.84043575399202</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-675388.9637597838</v>
+        <v>17.72068708982068</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-321576.1151522352</v>
+        <v>17.75828238615718</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-250923.0471321153</v>
+        <v>17.76802558725987</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-657031.4079159417</v>
+        <v>17.72268607435594</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>373965.08421913</v>
+        <v>17.83053236956125</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-802364.2759581528</v>
+        <v>17.73542802546207</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-557014.4640981869</v>
+        <v>17.74573340379019</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-467907.9949840953</v>
+        <v>17.75134202558665</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-1021443.454108557</v>
+        <v>17.71798223794825</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>475196.6050991225</v>
+        <v>17.81799676410912</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-26254.55309528072</v>
+        <v>17.78874877080377</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29849.12367354177</v>
+        <v>17.79634869420615</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-207338.4291839996</v>
+        <v>17.75310041285726</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-105067.9028201413</v>
+        <v>17.76254553278261</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>32616.40187454256</v>
+        <v>17.84380465035071</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>83273.72767281365</v>
+        <v>17.85817503792278</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-128571.8214767182</v>
+        <v>17.78936976503178</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>381793.5484650054</v>
+        <v>17.93378628491241</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>504552.8578492874</v>
+        <v>17.96575511484814</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>212784.1763032031</v>
+        <v>17.89413317910675</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>548741.1310334377</v>
+        <v>17.91285214208206</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>569578.5148904007</v>
+        <v>18.07457725358694</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>708550.2463370026</v>
+        <v>18.12127536019974</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>439610.3433633375</v>
+        <v>18.02001521445565</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>321710.2192602161</v>
+        <v>17.91090968607313</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>436045.3003746164</v>
+        <v>17.94216972625213</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>142094.0167423734</v>
+        <v>17.86517067756462</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>614265.9277207582</v>
+        <v>17.91386180318013</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>596994.193352118</v>
+        <v>18.06737769876279</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>742962.7633602349</v>
+        <v>18.11491767158001</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>436176.9435936822</v>
+        <v>18.00605280801058</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>275934.9514954512</v>
+        <v>17.85563505544869</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>419722.429410974</v>
+        <v>17.87698172772012</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>86638.03996293434</v>
+        <v>17.82157069811351</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>979267.3987947536</v>
+        <v>17.89665116909958</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>857977.0954501472</v>
+        <v>17.99389000619577</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1053707.702613995</v>
+        <v>18.02777381158027</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>598808.4254065716</v>
+        <v>17.93792184918981</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1632072.671387597</v>
+        <v>17.7052978207317</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1210065.833067787</v>
+        <v>17.69879926780512</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1176992.161208593</v>
+        <v>17.694682955427</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1159779.574956706</v>
+        <v>17.67822288817558</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-819895.6749081002</v>
+        <v>17.6831671594417</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1098886.062965494</v>
+        <v>17.73313175039159</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-514237.8208633469</v>
+        <v>17.75693528927767</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-364513.8844670404</v>
+        <v>17.76386035604587</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-716976.1008794889</v>
+        <v>17.72767803323768</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-245292.9586426403</v>
+        <v>17.74933886318755</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1242131.057429805</v>
+        <v>17.73283330969755</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-744021.0973675844</v>
+        <v>17.75028031564005</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-606779.6681674002</v>
+        <v>17.75687051086917</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1135145.234110541</v>
+        <v>17.71410612053109</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-340689.903067594</v>
+        <v>17.74606945252551</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1684354.387505796</v>
+        <v>17.74164268367164</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-1510466.404360966</v>
+        <v>17.73803506423968</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1378566.129295886</v>
+        <v>17.74148384937464</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-1930879.299049889</v>
+        <v>17.71033027530116</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-624119.494945642</v>
+        <v>17.74883793344216</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-381299.2584163453</v>
+        <v>17.69797177968302</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-406852.423904929</v>
+        <v>17.69367460709431</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-671832.4844234724</v>
+        <v>17.66835914727909</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-325975.8800369074</v>
+        <v>17.69494717661873</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-266371.8252805138</v>
+        <v>17.73246035501685</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-291546.6806561108</v>
+        <v>17.72904269036894</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-610490.6995315474</v>
+        <v>17.68127309933577</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19347.32154547777</v>
+        <v>17.80749418637826</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>94278.24756935261</v>
+        <v>17.82232997569147</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-261276.5078113053</v>
+        <v>17.77305916883833</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>502398.5263827348</v>
+        <v>17.79278894900211</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>436433.6920963274</v>
+        <v>17.89399563712688</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>544922.1612934177</v>
+        <v>17.91573441442336</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>90379.30192865706</v>
+        <v>17.84058622163817</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-131472.3953732019</v>
+        <v>17.79500297310543</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-76999.25436549319</v>
+        <v>17.80997920652045</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-440590.0147569432</v>
+        <v>17.75548549982549</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>494817.8058203501</v>
+        <v>17.79428043993738</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>345293.9698193253</v>
+        <v>17.88992810912602</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>439457.7053580339</v>
+        <v>17.91313457841236</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-73378.61943863939</v>
+        <v>17.83114050711894</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-588322.6503019299</v>
+        <v>17.76492818269735</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-516118.6107580958</v>
+        <v>17.77368439082074</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-860284.0039265006</v>
+        <v>17.73661351608246</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>778930.5954453348</v>
+        <v>17.80043462672043</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>422233.4720527345</v>
+        <v>17.85462517170679</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>523371.6222749975</v>
+        <v>17.86924650745637</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-154047.5834220829</v>
+        <v>17.80298172845939</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1421097.830196228</v>
+        <v>17.82879999361172</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>395989.1143080817</v>
+        <v>17.83565241517348</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>643945.3393132478</v>
+        <v>17.85293051827603</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>57322.15324518592</v>
+        <v>17.78474835957913</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-54331.34679573657</v>
+        <v>17.76902976220353</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1698079.015479566</v>
+        <v>17.87450914587689</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1185928.777691998</v>
+        <v>17.9187475921028</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1525839.440817629</v>
+        <v>17.95084143596595</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>733232.2946072855</v>
+        <v>17.85723140036696</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>591572.9415098062</v>
+        <v>17.85920117220288</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1580417.85945383</v>
+        <v>17.86620728303029</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1050563.779670898</v>
+        <v>17.90261641401277</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1382863.715237121</v>
+        <v>17.93364986200681</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>366752.3476173665</v>
+        <v>17.83397942051324</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>583549.3537160886</v>
+        <v>17.85190335709873</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2479741.954225076</v>
+        <v>17.85409973102861</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1195251.889973221</v>
+        <v>17.86368559699547</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1618969.020665611</v>
+        <v>17.88755415101012</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>151321.3494289558</v>
+        <v>17.80798264109334</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>766573.3405011244</v>
+        <v>17.83765603505807</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>42030.2695091248</v>
+        <v>17.81063243694129</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>170414.580004303</v>
+        <v>17.8348913964198</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-175691.7479877432</v>
+        <v>17.75864259297541</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>365104.3483985009</v>
+        <v>17.80152642053448</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>285060.6493606999</v>
+        <v>17.86630620960493</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>378662.0094954234</v>
+        <v>17.8954648311703</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>47409.24467473746</v>
+        <v>17.79365335369325</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>558072.3733430827</v>
+        <v>17.95403594369229</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>753034.1321046941</v>
+        <v>18.00301684804385</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>365226.3192607847</v>
+        <v>17.89719481018046</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>824983.3003131496</v>
+        <v>17.92552079898907</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>732472.8288251075</v>
+        <v>18.06569258979453</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>919393.8268860813</v>
+        <v>18.12691182774249</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>542579.4447133745</v>
+        <v>17.99176804537977</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>522353.2222704131</v>
+        <v>17.93595540872836</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>717214.026473049</v>
+        <v>17.98426034191736</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>306610.604213485</v>
+        <v>17.87385265326343</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>889162.6822143261</v>
+        <v>17.92398780801153</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>768974.655966972</v>
+        <v>18.05786958933932</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>968492.7956810348</v>
+        <v>18.11991004289515</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>544748.5646571828</v>
+        <v>17.97830213420854</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>464556.8341523933</v>
+        <v>17.87993336597146</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>721347.6935737875</v>
+        <v>17.9164345179172</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>228452.6033360122</v>
+        <v>17.83187059771848</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1310560.919837166</v>
+        <v>17.91580850391321</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1053169.836270445</v>
+        <v>17.9996379193191</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1316912.385223817</v>
+        <v>18.04656882991061</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>721341.3684594055</v>
+        <v>17.92880838999661</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1483227.854006479</v>
+        <v>17.6970694736473</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1023650.271212752</v>
+        <v>17.70384870606258</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-1020416.095829533</v>
+        <v>17.69911807312879</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1178220.93957546</v>
+        <v>17.68985633503788</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-676134.8844008403</v>
+        <v>17.70265297377327</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-702370.2476619923</v>
+        <v>17.72651262619579</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-296330.0286630173</v>
+        <v>17.76388329556671</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-188564.3007087484</v>
+        <v>17.77050778641869</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-498901.0066303604</v>
+        <v>17.74202933900957</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>363931.9835333167</v>
+        <v>17.79266850294052</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-902686.4288429888</v>
+        <v>17.71980175242815</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-560619.6601976228</v>
+        <v>17.74861019698664</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-482891.6865027486</v>
+        <v>17.7542012594506</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-902735.0622115178</v>
+        <v>17.71948144266258</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>240353.3474606528</v>
+        <v>17.77920195967052</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1434392.54016819</v>
+        <v>17.72645860449187</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-1026941.62687215</v>
+        <v>17.73171553295549</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-954155.6572138211</v>
+        <v>17.73366174166199</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1394437.269265658</v>
+        <v>17.71008916173196</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-148040.0342195394</v>
+        <v>17.75601151139854</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-423103.7785185111</v>
+        <v>17.72003101507038</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-399489.3223090766</v>
+        <v>17.71743189395619</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-586909.7047488528</v>
+        <v>17.68966407802965</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-474348.0802507052</v>
+        <v>17.7295330192056</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-266272.3496505158</v>
+        <v>17.78385753770948</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-256219.2831473787</v>
+        <v>17.78371649462872</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-421850.4900411884</v>
+        <v>17.73507412896032</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>278975.390935667</v>
+        <v>17.8547562821304</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>393640.8208281363</v>
+        <v>17.87231496468627</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>92604.32656010399</v>
+        <v>17.82010599223643</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>642308.0848550489</v>
+        <v>17.86799929226905</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>646359.6923323865</v>
+        <v>17.99125969153604</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>767499.9420400545</v>
+        <v>18.01780600099961</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>450289.503748649</v>
+        <v>17.94093965926574</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>121276.0349067838</v>
+        <v>17.8295589170547</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>208985.0019944415</v>
+        <v>17.84622043972629</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-73279.7953396637</v>
+        <v>17.78986307810543</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>631894.4738225486</v>
+        <v>17.8610256547001</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>594161.2748224697</v>
+        <v>17.97629916882849</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>701897.5160756359</v>
+        <v>18.00328932598378</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>347944.4068317505</v>
+        <v>17.92040705721069</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-363731.9182175233</v>
+        <v>17.77020049437665</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-293391.5168909619</v>
+        <v>17.77917871684715</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-481931.9931638259</v>
+        <v>17.74193785330045</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>784034.2215448573</v>
+        <v>17.82994184413775</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>612024.0046905566</v>
+        <v>17.89690571983276</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>718244.2679421649</v>
+        <v>17.91344034467435</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>303179.551578104</v>
+        <v>17.84780287538086</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-2088721.452167279</v>
+        <v>17.68150992041703</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-1617854.822738511</v>
+        <v>17.67708387888584</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-1612704.508122401</v>
+        <v>17.68240907986918</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1666058.314114241</v>
+        <v>17.64315312778817</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-48278.41815447894</v>
+        <v>17.75344582119897</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-1488056.720292538</v>
+        <v>17.71218003186483</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-892044.9577257802</v>
+        <v>17.73809784519576</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-809805.605915851</v>
+        <v>17.75487922250648</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-1120523.269979198</v>
+        <v>17.69385605075921</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>724652.5871498593</v>
+        <v>17.83610861514091</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-1400474.712198725</v>
+        <v>17.71326284271742</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-934177.0646634754</v>
+        <v>17.7326179722037</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-875793.6340106193</v>
+        <v>17.74848097840498</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-1403704.899462905</v>
+        <v>17.68167587758171</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>778135.0716240471</v>
+        <v>17.83175129765586</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1442526.496745367</v>
+        <v>17.73143246432615</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1076629.255582141</v>
+        <v>17.73072070761563</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-949686.9187448855</v>
+        <v>17.74232782409265</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1569100.219130944</v>
+        <v>17.69119033133917</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>989523.6057959602</v>
+        <v>17.82172033333256</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>90436.92795366011</v>
+        <v>17.7983894585836</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>217490.1108399694</v>
+        <v>17.81235446478463</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-172695.3454027847</v>
+        <v>17.76214514678855</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>151654.5802802705</v>
+        <v>17.77107934864456</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>153383.1394837559</v>
+        <v>17.84220435532587</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>262197.4012743728</v>
+        <v>17.86101479330915</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-141008.3935939295</v>
+        <v>17.78583934019554</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>646493.1685537386</v>
+        <v>17.92721580133777</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>863539.1745473159</v>
+        <v>17.96141237457249</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>382893.1692320881</v>
+        <v>17.88520188835811</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>921176.7386256534</v>
+        <v>17.88427784458814</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>880153.880507832</v>
+        <v>18.02199781986034</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1113626.354646479</v>
+        <v>18.06748160077488</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>605067.5427290888</v>
+        <v>17.9626601195216</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>657830.3482595088</v>
+        <v>17.91259327771275</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>874315.0898617819</v>
+        <v>17.94601057663478</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>367197.4757659326</v>
+        <v>17.8655466961528</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1052293.670717898</v>
+        <v>17.88493908394613</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>984050.4644859239</v>
+        <v>18.01629842647587</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1235690.336719632</v>
+        <v>18.06223735590247</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>662090.6553261284</v>
+        <v>17.95168064457209</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>699160.9178149026</v>
+        <v>17.8652952229994</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>988161.7305711361</v>
+        <v>17.88999872029068</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>433948.5185798339</v>
+        <v>17.8314097478819</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1519076.281408345</v>
+        <v>17.88011526176875</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1322050.348561143</v>
+        <v>17.96587057643536</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1670281.049409839</v>
+        <v>18.00010293848625</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>924398.4322337456</v>
+        <v>17.91026337855407</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1490973.751352199</v>
+        <v>17.72048830972708</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-880575.2034290994</v>
+        <v>17.72934737209161</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-867614.6017276132</v>
+        <v>17.72638625732949</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-988996.885456643</v>
+        <v>17.71751862157114</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-1047512.681323438</v>
+        <v>17.69089817304232</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-742644.2028176485</v>
+        <v>17.7398220307187</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-77464.50854998191</v>
+        <v>17.77627474089036</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>61173.55121419481</v>
+        <v>17.78276840059756</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-276054.9513829075</v>
+        <v>17.75710467190477</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-82273.59278590848</v>
+        <v>17.74780720773196</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-857115.4270482978</v>
+        <v>17.73576127869412</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-277574.0484403814</v>
+        <v>17.76482954197791</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-160173.1969590989</v>
+        <v>17.77041745449349</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-681698.0006742371</v>
+        <v>17.73874700298768</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-173897.1440708807</v>
+        <v>17.74008887066526</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1358047.641446741</v>
+        <v>17.74286174128023</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-733046.5227425862</v>
+        <v>17.75026990889257</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-572417.0869067356</v>
+        <v>17.75345574852734</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1179133.375089022</v>
+        <v>17.73106622394125</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-553588.9631315208</v>
+        <v>17.73721209607313</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-697078.396435593</v>
+        <v>17.70204304682416</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-702540.8493745767</v>
+        <v>17.69759090199353</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-863064.7162051186</v>
+        <v>17.68362733545736</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-400307.258380544</v>
+        <v>17.72426769925736</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-191865.8424172956</v>
+        <v>17.76763536159641</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-145705.6160095721</v>
+        <v>17.76905316059005</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-398295.2205352284</v>
+        <v>17.72967950949024</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-28601.00035283171</v>
+        <v>17.79668344017957</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>55530.25307451623</v>
+        <v>17.80886829916716</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-211675.8322906869</v>
+        <v>17.77486922897761</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>399811.2980969452</v>
+        <v>17.8155014330635</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>544294.7643371923</v>
+        <v>17.91717442884215</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>698051.7952562344</v>
+        <v>17.94129308328834</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>300043.1669898773</v>
+        <v>17.87809587266955</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-134162.0668447916</v>
+        <v>17.77913578142339</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-71350.72903484855</v>
+        <v>17.79069244339625</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-337265.0794756989</v>
+        <v>17.75215511134749</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>425205.5933053613</v>
+        <v>17.81250145068837</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>554966.7216338243</v>
+        <v>17.9078182280313</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>709468.6397454933</v>
+        <v>17.93243537624085</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>247089.0453860672</v>
+        <v>17.86320981839852</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-604957.3397458708</v>
+        <v>17.74601967291597</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-536891.3539350606</v>
+        <v>17.75263730590436</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-762552.2153943443</v>
+        <v>17.72824193022629</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>517365.8188763469</v>
+        <v>17.80787627901027</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>563678.0024073175</v>
+        <v>17.86317222320007</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>772031.4094293356</v>
+        <v>17.87994245164341</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>210441.0873073646</v>
+        <v>17.82407821527429</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-2201859.08605967</v>
+        <v>17.68169177458687</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-1375573.856891565</v>
+        <v>17.68414552223431</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1419156.524458862</v>
+        <v>17.67663773523057</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1210912.346852966</v>
+        <v>17.68307686825788</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1308971.011380988</v>
+        <v>17.64731339222669</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1792465.178306436</v>
+        <v>17.68753346968593</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-932038.6484794889</v>
+        <v>17.71514331887906</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-913778.8700741454</v>
+        <v>17.71644321812579</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-889248.9824287712</v>
+        <v>17.70674583584731</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-781505.6285196613</v>
+        <v>17.6837535410797</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1836309.943771051</v>
+        <v>17.68366137187603</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1038500.559359848</v>
+        <v>17.70370110394127</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1042268.17323843</v>
+        <v>17.70411914737564</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1134998.141123447</v>
+        <v>17.68791370605411</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-906266.4028802057</v>
+        <v>17.67402941850192</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2382890.0605092</v>
+        <v>17.70740376426921</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-1413795.527162208</v>
+        <v>17.70866726267969</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-1374200.051047709</v>
+        <v>17.70765907737839</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1390892.378435143</v>
+        <v>17.69884888268829</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1319865.439035495</v>
+        <v>17.69255922150207</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-843833.5578894736</v>
+        <v>17.65024844329084</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-868199.1165373588</v>
+        <v>17.64070300367139</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-865405.0273592889</v>
+        <v>17.64347574468867</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-631423.4836661725</v>
+        <v>17.68969788847319</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-355207.1814555079</v>
+        <v>17.72802984505165</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-348145.1114435168</v>
+        <v>17.72339147208419</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-441322.5506017164</v>
+        <v>17.70176644924768</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-526254.2762725815</v>
+        <v>17.72092611389979</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-495333.6866690885</v>
+        <v>17.72730086626997</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-577694.0770667644</v>
+        <v>17.71070328978727</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-96945.40083373366</v>
+        <v>17.75968205207643</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>152260.0820369475</v>
+        <v>17.85320503727081</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>231226.0851253812</v>
+        <v>17.87053881005495</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24657.99751399647</v>
+        <v>17.82580539006123</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-644585.1607643728</v>
+        <v>17.70084421186101</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-637124.4046379708</v>
+        <v>17.70658900695597</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-695196.7563303586</v>
+        <v>17.68498207634966</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-85751.22458909338</v>
+        <v>17.75408625480644</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>152950.6204998532</v>
+        <v>17.84069070009529</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>225520.8195328906</v>
+        <v>17.85854502996209</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-16556.61742918102</v>
+        <v>17.80729778697562</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-1031025.997280544</v>
+        <v>17.69285532200921</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1015489.336752345</v>
+        <v>17.6947796354353</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-972765.3486834572</v>
+        <v>17.68544742789638</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-87113.69528330582</v>
+        <v>17.77121224338376</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>103645.6725961585</v>
+        <v>17.82115440525768</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>218637.3105791403</v>
+        <v>17.83239604526691</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-60496.67400082619</v>
+        <v>17.79246473695449</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-651197.5619275944</v>
+        <v>17.75216336311998</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-351851.3098285084</v>
+        <v>17.77042396751127</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-208192.9553973915</v>
+        <v>17.77213743865659</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-316168.5935838732</v>
+        <v>17.76233369189642</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1071609.501650994</v>
+        <v>17.69507037326959</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>760865.6131933853</v>
+        <v>17.79665877948671</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1221701.779472504</v>
+        <v>17.85093823985353</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1555306.406522936</v>
+        <v>17.86473959112881</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1093550.336132685</v>
+        <v>17.83598721088762</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>66362.82722876861</v>
+        <v>17.78280970962118</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1020699.043570794</v>
+        <v>17.79761794861151</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1316947.764096716</v>
+        <v>17.84542773435808</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1649913.420534111</v>
+        <v>17.85872261132581</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1002008.236659609</v>
+        <v>17.82330983054634</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>142388.1429496842</v>
+        <v>17.78401190928006</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>703975.4703361311</v>
+        <v>17.78650079121138</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>584578.9388894516</v>
+        <v>17.80588255185559</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>903494.6254384284</v>
+        <v>17.81460389504703</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>242186.7501826787</v>
+        <v>17.78963805824856</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>148620.1684523893</v>
+        <v>17.77017924912492</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-627321.3211900446</v>
+        <v>17.72199426687089</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-614741.489462532</v>
+        <v>17.72423564590888</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-779204.9791457126</v>
+        <v>17.70658844668401</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-406220.4717289627</v>
+        <v>17.73216455856799</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-239973.685575159</v>
+        <v>17.78827652342399</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-202815.7093879022</v>
+        <v>17.79364528300752</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-454400.8663703862</v>
+        <v>17.75181548866084</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>366855.8027198846</v>
+        <v>17.85922667131758</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>528243.6698275546</v>
+        <v>17.88199836850027</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>257861.7784834176</v>
+        <v>17.84131444210295</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>742342.4012320369</v>
+        <v>17.86054256581323</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>869964.8898118954</v>
+        <v>17.98828514808126</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1078761.654743548</v>
+        <v>18.02050134726508</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>693196.2506806428</v>
+        <v>17.95187901691347</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>379315.7722446626</v>
+        <v>17.85192163252047</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>527899.9459012132</v>
+        <v>17.8746552991273</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>249152.5453652009</v>
+        <v>17.82868961281097</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>873168.4768291822</v>
+        <v>17.86636539243641</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>918015.5294478942</v>
+        <v>17.98912551990929</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1128326.260024955</v>
+        <v>18.02260171497305</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>678623.4095779634</v>
+        <v>17.94700558805874</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29858.47470632417</v>
+        <v>17.79921625207238</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>193861.8390559556</v>
+        <v>17.81394182676316</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-65868.77163300042</v>
+        <v>17.78393255522728</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1214245.457589191</v>
+        <v>17.84543659727577</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>949437.9863875069</v>
+        <v>17.918469101348</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1171876.623183875</v>
+        <v>17.94115134696104</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>548305.3508752404</v>
+        <v>17.88011389852448</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1354461.615453162</v>
+        <v>17.79572250278614</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>781715.005213739</v>
+        <v>17.81226216681303</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1098569.005808793</v>
+        <v>17.8229136861792</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27902.33945272188</v>
+        <v>17.78191585792266</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-122724.92275141</v>
+        <v>17.76110700643899</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1879985.391603952</v>
+        <v>17.82965751268485</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1654068.31067827</v>
+        <v>17.87581117873105</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2102544.937376354</v>
+        <v>17.89771911838792</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1051566.408378081</v>
+        <v>17.83713764276489</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>863104.2716247895</v>
+        <v>17.83853836238234</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1694171.476706974</v>
+        <v>17.82329047035022</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1411549.089775363</v>
+        <v>17.86228543699017</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1839568.070153688</v>
+        <v>17.88301054242858</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>587553.3998000121</v>
+        <v>17.81761207594639</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>855873.8164357229</v>
+        <v>17.82935124116155</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>2662164.399277694</v>
+        <v>17.82156812482634</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1942236.911714044</v>
+        <v>17.83843465543995</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2507730.32685967</v>
+        <v>17.85392600125774</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>758572.5615714227</v>
+        <v>17.80345863469029</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1024347.748870564</v>
+        <v>17.81505959745238</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-3486.344325954145</v>
+        <v>17.78688234959827</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>118622.6732080263</v>
+        <v>17.79912870001294</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-297077.1077162959</v>
+        <v>17.75027476808321</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>286965.8757180974</v>
+        <v>17.77878543133404</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>226584.0464768563</v>
+        <v>17.83143272100344</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>324593.8246918322</v>
+        <v>17.84714597822216</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-113697.2654438304</v>
+        <v>17.77508663952505</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>696675.3070182253</v>
+        <v>17.90568519658707</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>927275.1893473129</v>
+        <v>17.93680638643932</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>431247.5638118222</v>
+        <v>17.86479230626646</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1084714.544663053</v>
+        <v>17.88484329836185</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>971216.6455785447</v>
+        <v>17.99804607068715</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1210197.237712871</v>
+        <v>18.03850187371416</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>652785.12867826</v>
+        <v>17.93975862382605</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>659206.9794292167</v>
+        <v>17.88703258374586</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>873613.6591853754</v>
+        <v>17.91718868261448</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>366514.2950548443</v>
+        <v>17.84194539811848</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1071020.677565282</v>
+        <v>17.87911874795216</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>948343.1102497241</v>
+        <v>17.98618193408728</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1190371.570365187</v>
+        <v>18.02682268709462</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>573649.636184064</v>
+        <v>17.92343333445961</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>594173.3579827069</v>
+        <v>17.84063935824433</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>843340.01224463</v>
+        <v>17.86231595006996</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>332704.3502253476</v>
+        <v>17.80750155132357</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1554524.233507255</v>
+        <v>17.86749672963981</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1248542.716724248</v>
+        <v>17.93396813021539</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1536928.975171393</v>
+        <v>17.96350135755781</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>782240.4343861177</v>
+        <v>17.87955844550673</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2158338.518729975</v>
+        <v>17.77982039994054</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>449196.4894994533</v>
+        <v>17.78260250736818</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>835595.9474712946</v>
+        <v>17.79042731650217</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-142829.4482371853</v>
+        <v>17.75712379904133</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-53745.4028273909</v>
+        <v>17.75669646342696</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2698741.661460498</v>
+        <v>17.81679239838359</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1835411.611009898</v>
+        <v>17.8489395480103</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2414143.192918764</v>
+        <v>17.86791397704107</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>998381.1022393745</v>
+        <v>17.81613553160941</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1174028.492644287</v>
+        <v>17.83289692398771</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>2524992.392079473</v>
+        <v>17.81487266461329</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1537832.137306894</v>
+        <v>17.84166941445908</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2106158.458012718</v>
+        <v>17.86017153264034</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>304582.7625752063</v>
+        <v>17.8031902178282</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1121249.969683852</v>
+        <v>17.83001401937262</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>4052560.139333594</v>
+        <v>17.80943767044617</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1508533.65167074</v>
+        <v>17.81551810631194</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2196685.558032562</v>
+        <v>17.82906861331274</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-247609.7897237024</v>
+        <v>17.78494422383454</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1722832.566540682</v>
+        <v>17.81795214511822</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13743.19074050838</v>
+        <v>17.78335772589543</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>164502.8159356886</v>
+        <v>17.79456284490152</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-470274.1197252377</v>
+        <v>17.75188000940084</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>332491.369213436</v>
+        <v>17.77066831797818</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>270817.1369850154</v>
+        <v>17.81740839513208</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>391377.4215384467</v>
+        <v>17.83091865669729</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-213656.3244826222</v>
+        <v>17.76947111448926</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1114586.02585179</v>
+        <v>17.90187059540918</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1462262.000353338</v>
+        <v>17.93176945477394</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>762147.0599382488</v>
+        <v>17.86694007552726</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1411880.387148631</v>
+        <v>17.87303754820703</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1350330.042086402</v>
+        <v>17.97949889631449</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1699593.839875976</v>
+        <v>18.01710643316837</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>970089.6740439689</v>
+        <v>17.93058644442991</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>993068.9037615872</v>
+        <v>17.89136668510231</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1335015.216043782</v>
+        <v>17.92116883445694</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>592789.7450373066</v>
+        <v>17.85235108416095</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1474538.19857933</v>
+        <v>17.87367443545457</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1314942.358559185</v>
+        <v>17.97556018207661</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1674469.977018987</v>
+        <v>18.01420882211728</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>846969.4101583294</v>
+        <v>17.92224236185611</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>891814.8595390322</v>
+        <v>17.8471142068978</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1324270.635639079</v>
+        <v>17.86857141080912</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>440010.0747542594</v>
+        <v>17.81773856531666</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2404230.685713014</v>
+        <v>17.86466700396161</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1836457.821207559</v>
+        <v>17.92688979142588</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2277626.232124026</v>
+        <v>17.95486651210972</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1125846.812094081</v>
+        <v>17.87931537108338</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3351045.798378475</v>
+        <v>17.78117742973583</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>314406.7085137075</v>
+        <v>17.78013200450143</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>774632.6980788916</v>
+        <v>17.78309823907427</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-748017.4606503559</v>
+        <v>17.76604871999298</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2302548.408612608</v>
+        <v>17.78038599088426</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>5018077.929190347</v>
+        <v>17.81151170169132</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3119600.382538878</v>
+        <v>17.83189086836002</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3994381.287305425</v>
+        <v>17.84271934756857</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1504141.532853961</v>
+        <v>17.81254548413116</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3937882.58792148</v>
+        <v>17.84022888320807</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>5792623.087987159</v>
+        <v>17.81328366286106</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3339668.27346248</v>
+        <v>17.83023336088225</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4280185.856088415</v>
+        <v>17.84083796759838</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1079925.719972264</v>
+        <v>17.80651018085237</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4248410.664921441</v>
+        <v>17.84114754439953</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>8281399.389709381</v>
+        <v>17.80713689433778</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>3090247.889131366</v>
+        <v>17.80944090178302</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4312660.584022984</v>
+        <v>17.81701495835751</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>142458.6543829797</v>
+        <v>17.79088457480174</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5962679.49347329</v>
+        <v>17.82887775378844</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>466917.7571707658</v>
+        <v>17.78917527263865</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>620353.7762512156</v>
+        <v>17.79376672667363</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-270270.4636321702</v>
+        <v>17.76965180861632</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2368314.993083078</v>
+        <v>17.78864519023204</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>882362.1709871374</v>
+        <v>17.81274307044488</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1013323.837962762</v>
+        <v>17.81832958843205</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>175908.1636043365</v>
+        <v>17.78094759056643</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2130853.322714194</v>
+        <v>17.87908624896131</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2581186.504867999</v>
+        <v>17.89697010286229</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1617015.799708194</v>
+        <v>17.85699161799882</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4005433.065928794</v>
+        <v>17.87002660502163</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2712176.024558664</v>
+        <v>17.93744868811135</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3188301.613662584</v>
+        <v>17.96018753863289</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2141264.786746277</v>
+        <v>17.90487687023435</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2171219.986244433</v>
+        <v>17.87517051515897</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2622617.860736561</v>
+        <v>17.89313597642926</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1574419.725499173</v>
+        <v>17.84988108925481</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4400496.818001575</v>
+        <v>17.87408880743486</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2810670.607859123</v>
+        <v>17.9389545879779</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3300133.29368207</v>
+        <v>17.96261778754126</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2067334.912084925</v>
+        <v>17.90292464262385</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2261151.361946151</v>
+        <v>17.84141551808575</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>2945697.150587365</v>
+        <v>17.85406150063304</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>1545006.629514114</v>
+        <v>17.82278468280409</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>6437612.492340404</v>
+        <v>17.8618842870706</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3709013.97437752</v>
+        <v>17.89927926582231</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4367104.870124346</v>
+        <v>17.91606111292932</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>2560590.727841265</v>
+        <v>17.86701537927473</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-154775.4450848273</v>
+        <v>17.76610356503894</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-203013.9002358101</v>
+        <v>17.77604689442665</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>108369.2874585794</v>
+        <v>17.78431094805925</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-838662.8639726903</v>
+        <v>17.74754820644236</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-525415.9191278293</v>
+        <v>17.73739137727573</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1850235.716695986</v>
+        <v>17.81457924403048</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1796111.056628099</v>
+        <v>17.85491827228392</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2359656.848701424</v>
+        <v>17.87471051213578</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1096468.23110938</v>
+        <v>17.81775719417158</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>993743.9816515596</v>
+        <v>17.82633382914296</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1717845.095263615</v>
+        <v>17.81200517637229</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1529044.19675659</v>
+        <v>17.84621766895072</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2065290.252954445</v>
+        <v>17.86516955246669</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>474614.8667036224</v>
+        <v>17.80323880248251</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>1011748.154403323</v>
+        <v>17.8214413806266</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1610300.678009781</v>
+        <v>17.79691508565991</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1364786.424179114</v>
+        <v>17.80860704481413</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1938783.68226745</v>
+        <v>17.82204994395889</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-34948.14827218552</v>
+        <v>17.77522664582024</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>777472.5016685489</v>
+        <v>17.79395146095469</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-302795.4117121228</v>
+        <v>17.75876725715611</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-189527.0297685493</v>
+        <v>17.76929359522653</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-688512.7405827165</v>
+        <v>17.72510027954704</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-69581.50378259002</v>
+        <v>17.75051910319779</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26069.26697510057</v>
+        <v>17.79545969745266</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>115865.7155682968</v>
+        <v>17.80758845159508</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-350441.9265069384</v>
+        <v>17.74479906864556</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>826178.7883192099</v>
+        <v>17.88927453322876</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1123350.158369461</v>
+        <v>17.91888604323785</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>479276.7643744512</v>
+        <v>17.85060326937048</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1250686.313835921</v>
+        <v>17.8683412321738</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1202612.508844152</v>
+        <v>17.97315435648361</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1506440.709372292</v>
+        <v>18.00988940014607</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>848121.3381185712</v>
+        <v>17.91974547113422</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>757785.1179729655</v>
+        <v>17.87600363725752</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1038970.513031837</v>
+        <v>17.90504987791034</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>366540.3337686243</v>
+        <v>17.83307507003158</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1302463.491587254</v>
+        <v>17.86713534397029</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1193384.69248336</v>
+        <v>17.96675973544827</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1499177.235477648</v>
+        <v>18.00407543667965</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>759950.7167183036</v>
+        <v>17.90878541137238</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>248613.8668662193</v>
+        <v>17.81614735171457</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>522836.8658909294</v>
+        <v>17.83629196844364</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-157706.3964219433</v>
+        <v>17.78480507161238</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1621727.745702188</v>
+        <v>17.8406404924715</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1328601.384428796</v>
+        <v>17.89980892520874</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1647234.160142195</v>
+        <v>17.92588588252866</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>749084.676937092</v>
+        <v>17.84982415720465</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-1570240.424860039</v>
+        <v>17.72098917128656</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-1122391.151018739</v>
+        <v>17.72470583284053</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1087566.468415061</v>
+        <v>17.72320545418641</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1260270.427060648</v>
+        <v>17.71101383205657</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-689274.2624911383</v>
+        <v>17.7331227398122</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-530186.5298105149</v>
+        <v>17.74863323607601</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15401.62270387928</v>
+        <v>17.77814870055117</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>212364.2128340538</v>
+        <v>17.78651605241058</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-320517.2170094805</v>
+        <v>17.7576071281764</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>797300.9156609796</v>
+        <v>17.81122415214221</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-632595.1520697457</v>
+        <v>17.74637564895102</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-192820.6575884083</v>
+        <v>17.76991812906116</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-28282.41907126703</v>
+        <v>17.77775547299615</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-756999.233587809</v>
+        <v>17.74350329943299</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>592336.3308897035</v>
+        <v>17.80662627045058</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-549651.6874987868</v>
+        <v>17.7518892366557</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-511360.1264706862</v>
+        <v>17.75670240117483</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-348726.9397448123</v>
+        <v>17.76108123343872</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1238833.477867854</v>
+        <v>17.73663548686132</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1035726.269914745</v>
+        <v>17.79397161369824</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-427738.4793129174</v>
+        <v>17.7495459780997</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-355193.9659213072</v>
+        <v>17.7516313680137</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-741395.8594823554</v>
+        <v>17.72537421013804</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-557161.363261746</v>
+        <v>17.74234534353495</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-383243.1701056449</v>
+        <v>17.7814646779608</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-337383.8891843719</v>
+        <v>17.78586381219784</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-659676.715527475</v>
+        <v>17.74119052090916</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>706574.6027368051</v>
+        <v>17.86561945039178</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>941435.1897863738</v>
+        <v>17.88511792255224</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>400141.0944530438</v>
+        <v>17.83765959221605</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1163725.679071865</v>
+        <v>17.85927654442905</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1121135.48293298</v>
+        <v>17.95548091314513</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1375461.552927797</v>
+        <v>17.9826088537199</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>815089.3206800671</v>
+        <v>17.91364351810245</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>514616.1223444123</v>
+        <v>17.85297198419704</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>711512.2784305081</v>
+        <v>17.8721671006005</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>188452.3848833698</v>
+        <v>17.82082722421539</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1191628.811531327</v>
+        <v>17.86022989384148</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1075931.72698678</v>
+        <v>17.95148448301824</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1310100.724458925</v>
+        <v>17.9793966643067</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>680805.5536243892</v>
+        <v>17.90506595998862</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>457269.2927560091</v>
+        <v>17.81171942482132</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>652574.2037046209</v>
+        <v>17.82384337362977</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>66878.3863885936</v>
+        <v>17.78858642036609</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>1587512.571653629</v>
+        <v>17.84097619323518</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1135455.239414815</v>
+        <v>17.89439166517873</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1323227.884180173</v>
+        <v>17.91291591285069</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>511143.0293304341</v>
+        <v>17.85321839938261</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-2460637.095887889</v>
+        <v>17.74947095263622</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-1982953.844474986</v>
+        <v>17.74958301982155</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-1810601.564476217</v>
+        <v>17.75059854126248</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-2211706.973821218</v>
+        <v>17.73804575278569</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-867174.447201925</v>
+        <v>17.73470711586968</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>572987.0182446475</v>
+        <v>17.7797146828737</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1447651.840393583</v>
+        <v>17.80146979912563</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>2095115.224007252</v>
+        <v>17.81016264767382</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>552990.7616353948</v>
+        <v>17.78489731765338</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1260714.530556659</v>
+        <v>17.7944963402728</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>2070444.720459629</v>
+        <v>17.78380986581709</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2143254.378308442</v>
+        <v>17.80226856051038</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>2870695.490881039</v>
+        <v>17.81079511230777</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>642281.4808898728</v>
+        <v>17.7812780374261</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1698113.373966695</v>
+        <v>17.79836607666383</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>3066203.559095496</v>
+        <v>17.78113510512931</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1519661.344520224</v>
+        <v>17.78470165767191</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>2407187.312656876</v>
+        <v>17.79049214620936</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-243306.3113750626</v>
+        <v>17.76846374083111</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>2512343.210364781</v>
+        <v>17.79090094494635</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-784966.759009258</v>
+        <v>17.74211170363725</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-758733.6852148221</v>
+        <v>17.74404520572726</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-1514075.064709645</v>
+        <v>17.72384865410448</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-879915.3714024696</v>
+        <v>17.73676318829001</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-776476.7567758673</v>
+        <v>17.7589730565713</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-801368.4935541493</v>
+        <v>17.76170541313699</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-1412350.214634955</v>
+        <v>17.72854083553439</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1140592.356536231</v>
+        <v>17.83209808485552</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1491315.646548192</v>
+        <v>17.84707302762167</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>617224.8262598257</v>
+        <v>17.81135130711729</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1679366.299125566</v>
+        <v>17.81906068414898</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1658141.445741965</v>
+        <v>17.88487976033601</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2014795.296121827</v>
+        <v>17.90449026892195</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1100964.582818519</v>
+        <v>17.85372326521711</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1294828.435111766</v>
+        <v>17.83137133056536</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1648414.341652461</v>
+        <v>17.84649742499924</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>677997.010089215</v>
+        <v>17.80742578890667</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2179672.716537074</v>
+        <v>17.8265035839325</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1825023.873967437</v>
+        <v>17.89003379424287</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2194916.651973926</v>
+        <v>17.91064313894871</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>1078050.36553836</v>
+        <v>17.85539951189315</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>1096819.729485218</v>
+        <v>17.80249102518107</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1623164.036689511</v>
+        <v>17.8126842355798</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>365881.4731422011</v>
+        <v>17.78500410902449</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2945478.154068055</v>
+        <v>17.81905236698348</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1985242.95344153</v>
+        <v>17.85509811325809</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2433428.286923324</v>
+        <v>17.86924453547881</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>863912.8810271897</v>
+        <v>17.82404098004877</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1895130.318855212</v>
+        <v>17.79782372744333</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>635614.9176972903</v>
+        <v>17.81092584448881</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>911276.538858311</v>
+        <v>17.81981520063104</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>178506.4994707191</v>
+        <v>17.78344802193173</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>49205.48609775397</v>
+        <v>17.77350799560561</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>2166870.902705014</v>
+        <v>17.82981071346981</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1545884.801813507</v>
+        <v>17.87258846515475</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1938108.045462566</v>
+        <v>17.89274011108197</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>896411.1590257103</v>
+        <v>17.83729826752354</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>883183.1380843646</v>
+        <v>17.84299268982156</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>2167344.814578422</v>
+        <v>17.82649086064029</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1452311.618159279</v>
+        <v>17.86304770831648</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1814839.725877603</v>
+        <v>17.88246413677132</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>443077.3981086168</v>
+        <v>17.82150722814243</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>947156.9050663287</v>
+        <v>17.83994477974304</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>3310335.237855041</v>
+        <v>17.81936538486283</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1600833.481043428</v>
+        <v>17.83320636657015</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2054855.342903006</v>
+        <v>17.84780354608712</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>95562.91516085247</v>
+        <v>17.79987527698604</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1387601.482330242</v>
+        <v>17.82959984598354</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>140644.0382313992</v>
+        <v>17.80242024823782</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>282974.184096334</v>
+        <v>17.81495957032211</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-149196.6247319245</v>
+        <v>17.769657893776</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>275557.9586457838</v>
+        <v>17.77841827928981</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>283294.6963113616</v>
+        <v>17.82860511321078</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>385830.0318470663</v>
+        <v>17.84346938819209</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-79162.03183002585</v>
+        <v>17.77764761204192</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>804873.669482459</v>
+        <v>17.91267206475806</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1057589.904218854</v>
+        <v>17.94427463733903</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>551923.0592291523</v>
+        <v>17.87609605040688</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>1098627.986330791</v>
+        <v>17.88173563382476</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1028606.931547367</v>
+        <v>17.99181578696376</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1286929.340734852</v>
+        <v>18.03145377968567</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>723680.1148684911</v>
+        <v>17.93964215808382</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>796838.6163608894</v>
+        <v>17.90134740320795</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1041965.953211342</v>
+        <v>17.93256336369063</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>498354.631317219</v>
+        <v>17.86007235623108</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1254090.173340478</v>
+        <v>17.88455987483096</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1094754.289748721</v>
+        <v>17.98984535461854</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1361011.90028622</v>
+        <v>18.03031257227445</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>715102.0130860257</v>
+        <v>17.93260174166272</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>861043.9529753372</v>
+        <v>17.85899452474833</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>1198564.928863199</v>
+        <v>17.8819889413432</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>503783.9735146742</v>
+        <v>17.82758358043661</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1818644.84511421</v>
+        <v>17.87212644700905</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1429580.028747212</v>
+        <v>17.93673673119468</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>1764586.918859075</v>
+        <v>17.96657056009681</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>837049.5708868267</v>
+        <v>17.88526894488366</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-457820.6359770977</v>
+        <v>17.76315312684935</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-630621.1623599272</v>
+        <v>17.77146297462165</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-363219.6149441577</v>
+        <v>17.77982454877345</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-1135196.808676334</v>
+        <v>17.74241451297417</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-262859.3089555528</v>
+        <v>17.74253447162096</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1814120.084760454</v>
+        <v>17.81478461954653</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1636538.081442198</v>
+        <v>17.85392801529541</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>2179529.983646101</v>
+        <v>17.87416924225416</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>1033745.559149709</v>
+        <v>17.81608437128452</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>963052.3468323949</v>
+        <v>17.83208195370924</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>1879877.47925055</v>
+        <v>17.81403306472047</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1516941.734524842</v>
+        <v>17.84724347280891</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>2048232.989008196</v>
+        <v>17.86670325641224</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>571371.5552797444</v>
+        <v>17.80346112808954</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>993222.9929237163</v>
+        <v>17.82855757666822</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>1874699.869376305</v>
+        <v>17.79900001758609</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1157769.265149261</v>
+        <v>17.80985763095205</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>1717705.933260666</v>
+        <v>17.82366500194014</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-121679.3819038644</v>
+        <v>17.7757251123723</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>1141392.797878767</v>
+        <v>17.80296469587635</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-55012.74840248052</v>
+        <v>17.76687681193869</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>75744.52860184103</v>
+        <v>17.77785577932578</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-403533.1556394071</v>
+        <v>17.73365105709228</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>-127417.0934405887</v>
+        <v>17.74421424927913</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-72913.60491334162</v>
+        <v>17.78676783800294</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-4425.939294840842</v>
+        <v>17.79883204926689</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-457537.1377786296</v>
+        <v>17.73514489845242</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>881167.5730369115</v>
+        <v>17.89845242073461</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1186472.260250446</v>
+        <v>17.92902245874659</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>579927.1604256787</v>
+        <v>17.86017677148375</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>1196792.148808488</v>
+        <v>17.86371131590911</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1085024.866313809</v>
+        <v>17.96652468741663</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1367836.972768063</v>
+        <v>18.00374151133025</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>718887.5426230319</v>
+        <v>17.91206230786769</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>833023.6651262896</v>
+        <v>17.88658190316031</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1126282.005688048</v>
+        <v>17.91665878070251</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>490275.4898602708</v>
+        <v>17.84389550959482</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1243627.602130119</v>
+        <v>17.86396994462899</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1065770.090269987</v>
+        <v>17.9617614060135</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1348238.682346326</v>
+        <v>17.99965922562966</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>624122.9832183393</v>
+        <v>17.90260024433762</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>652218.9121693753</v>
+        <v>17.8284566526161</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>964396.7065133132</v>
+        <v>17.84939927283117</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>304533.2485810964</v>
+        <v>17.79729095914022</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>1405166.674611289</v>
+        <v>17.83891921307727</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1069779.486913901</v>
+        <v>17.89655706122804</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>1342327.093842477</v>
+        <v>17.92301588592014</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>487756.6484125616</v>
+        <v>17.84539928481609</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.797</v>
+        <v>16.479</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.443</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.831</v>
+        <v>15.932</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.903</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.584</v>
+        <v>4.964</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.72715803789703</v>
+        <v>11.90567270351996</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.73263952972311</v>
+        <v>11.040764551117</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.73267190165022</v>
+        <v>11.81988534121577</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.72005853458743</v>
+        <v>9.008272469763742</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.74493381027314</v>
+        <v>22.33154442712316</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.75731433983608</v>
+        <v>19.29516128985669</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.79161937639604</v>
+        <v>25.39701611272634</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.80217781199299</v>
+        <v>28.81513060541774</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17.77255822552555</v>
+        <v>20.78733322438597</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.82308908879481</v>
+        <v>44.59406276267676</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.75655924343513</v>
+        <v>17.86983399834919</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.7850142282048</v>
+        <v>21.34434876789901</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.79522444873885</v>
+        <v>24.40121304997846</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.75981998874295</v>
+        <v>13.52288458333718</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.81967623596482</v>
+        <v>42.28058397253527</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.76065771324618</v>
+        <v>20.15552463024332</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.76799061291531</v>
+        <v>16.54004606930399</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17.77443293195443</v>
+        <v>18.90090562002452</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.74868723172685</v>
+        <v>8.788142515135569</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.80740221471408</v>
+        <v>42.9894831695113</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.77316815093436</v>
+        <v>26.03950228947361</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.77690140551023</v>
+        <v>27.29697065394067</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.7491515490296</v>
+        <v>17.26001324854301</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.75950715507614</v>
+        <v>19.72737812060923</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17.81392705115107</v>
+        <v>25.11819338968965</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17.82026026194623</v>
+        <v>26.92199306763148</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.77373660146607</v>
+        <v>16.94300157238488</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.8936947420823</v>
+        <v>52.21425147673948</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17.91574933191816</v>
+        <v>58.17836633056996</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.86658796730763</v>
+        <v>45.70374149292297</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17.87181719450435</v>
+        <v>48.95365964804706</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>17.98792270697012</v>
+        <v>61.96212626345449</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18.01809625842159</v>
+        <v>70.05657869889525</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.94712202762838</v>
+        <v>55.49754560304943</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>17.8820193102395</v>
+        <v>47.80146028539802</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.90405417460059</v>
+        <v>53.13818085172651</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.85055840939549</v>
+        <v>40.94460808581495</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>17.87312994904475</v>
+        <v>49.12858285151168</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.98400515357248</v>
+        <v>59.30988524739443</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>18.01530703071876</v>
+        <v>67.09786785516981</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>17.9384438198249</v>
+        <v>51.0704818668222</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>17.83678864316741</v>
+        <v>39.60223340964275</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.85142974497938</v>
+        <v>44.14488158965612</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>17.81387770184627</v>
+        <v>33.77533597819065</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.85889593024351</v>
+        <v>52.35243145151126</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.92746038078463</v>
+        <v>56.65075925757769</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.94896931802757</v>
+        <v>63.2024445259944</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>17.88634658936537</v>
+        <v>46.71841707765627</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.80634287619161</v>
+        <v>41.55443156862988</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.81550871744082</v>
+        <v>32.74592871822848</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17.83061824537037</v>
+        <v>38.64722868542724</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.77636883561996</v>
+        <v>22.83524294829828</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.78427179293547</v>
+        <v>25.87746582657094</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>17.84122929242586</v>
+        <v>47.54298084176806</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>17.88144535538396</v>
+        <v>46.80724058590941</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>17.90885275618983</v>
+        <v>55.48387272064366</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17.83312019433086</v>
+        <v>35.78522749541037</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.86412536270124</v>
+        <v>48.09608191057373</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.83361833382077</v>
+        <v>44.07558603973508</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>17.86660963445273</v>
+        <v>41.83964789569215</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.89275262940648</v>
+        <v>49.81742402153102</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17.81215228134812</v>
+        <v>27.32052003185533</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>17.85358705342545</v>
+        <v>46.36371808904521</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.8306798683346</v>
+        <v>48.41517107435187</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.84141740794471</v>
+        <v>42.1607012548548</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>17.861465474052</v>
+        <v>49.83383769576093</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.79821096730295</v>
+        <v>28.0482334964472</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.83651237219743</v>
+        <v>45.63912896133445</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>17.82095322406753</v>
+        <v>29.32015334089811</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>17.83989377601327</v>
+        <v>33.50917727467427</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.77867777416661</v>
+        <v>20.26565718624577</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>17.80374985118101</v>
+        <v>36.28149071832324</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>17.86383403025512</v>
+        <v>35.69784779533538</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.88747006049772</v>
+        <v>40.44560711285033</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.80170884981135</v>
+        <v>23.68257936594345</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.9458189447699</v>
+        <v>51.6785963681666</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>17.98527038453732</v>
+        <v>59.66269794025641</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17.8990927849531</v>
+        <v>42.35735428353426</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17.9116457929271</v>
+        <v>56.50878641593403</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>18.0361802784034</v>
+        <v>61.60457314986445</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>18.08665826034961</v>
+        <v>71.9412299298111</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.97230816098699</v>
+        <v>49.31088875107191</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.92516894078326</v>
+        <v>48.86904938633815</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>17.96358441346989</v>
+        <v>56.10557028944562</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>17.87410668167824</v>
+        <v>39.40132163094503</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>17.90502987051978</v>
+        <v>55.39625169808139</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>18.0231446614946</v>
+        <v>60.14102084976889</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>18.07380645908952</v>
+        <v>70.25535029757623</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>17.95467836407867</v>
+        <v>46.86201236404791</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17.87237085607961</v>
+        <v>43.06271963390389</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.90098833635055</v>
+        <v>49.25554738391419</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>17.83422312741299</v>
+        <v>36.74077628517523</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.89308394464622</v>
+        <v>55.62123996231019</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.96770906861938</v>
+        <v>58.18091530542366</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>18.00561721411744</v>
+        <v>67.16818370605414</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>17.90815583559784</v>
+        <v>46.70777488568523</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.7789529493659</v>
+        <v>29.12191541698073</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.79690708953749</v>
+        <v>24.16807105779776</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>17.80716537800818</v>
+        <v>28.426527694558</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.76290755327226</v>
+        <v>16.33827324599891</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>17.7835422535635</v>
+        <v>26.26385504627796</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>17.82046846164971</v>
+        <v>42.07806471108886</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.87102706088695</v>
+        <v>45.44769874715656</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>17.89338927785984</v>
+        <v>52.77950867734624</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.82763491220691</v>
+        <v>36.08453130772973</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.87028217721791</v>
+        <v>49.90688323694996</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>17.81713608022999</v>
+        <v>40.24399777023759</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>17.86055295303909</v>
+        <v>41.42011109844903</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>17.88192855537249</v>
+        <v>48.211287590439</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>17.81067003776118</v>
+        <v>27.71124311536094</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>17.86462037728424</v>
+        <v>49.63370130900356</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.81380382594336</v>
+        <v>45.22790539004222</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.83316892295349</v>
+        <v>42.74608396655563</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17.84924060684292</v>
+        <v>49.6007259809013</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>17.79400672911334</v>
+        <v>29.08280718444717</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>17.84543330950963</v>
+        <v>47.74363316490791</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>17.83181902897849</v>
+        <v>29.79785625332035</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.84749094702317</v>
+        <v>34.15653674800897</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.79373965198592</v>
+        <v>20.37335280573346</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>17.79587885243069</v>
+        <v>34.86538430258658</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.86870172027588</v>
+        <v>36.02417936914625</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.88945261166612</v>
+        <v>40.2464655614189</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>17.81099304393484</v>
+        <v>24.46661706621985</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>17.96471666578791</v>
+        <v>53.07664728902653</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>18.0009062529542</v>
+        <v>61.23724246984251</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>17.92159226109115</v>
+        <v>43.12538474655897</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>17.91218523661033</v>
+        <v>56.29631799849086</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>18.05104228986882</v>
+        <v>63.34978250896188</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>18.0986649797851</v>
+        <v>73.15028129540602</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>17.99098666971897</v>
+        <v>52.05362030605669</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>17.94905088232532</v>
+        <v>51.33872709860204</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>17.98450148413936</v>
+        <v>59.03479779458882</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>17.90114648392129</v>
+        <v>40.87226995222902</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>17.91182010173018</v>
+        <v>56.444428747996</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>18.04451306990694</v>
+        <v>62.89188785808231</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.09261997210771</v>
+        <v>72.84083692183862</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>17.97939840936965</v>
+        <v>50.27308565641724</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.89246825686893</v>
+        <v>45.36531644320163</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>17.91869954635995</v>
+        <v>52.64827927738442</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.85719980337983</v>
+        <v>37.42311058388414</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.89820879759404</v>
+        <v>58.23092181888791</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>17.98547318951576</v>
+        <v>62.45770544155485</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.02139363107045</v>
+        <v>72.04424641179966</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.92894964397846</v>
+        <v>50.57584845662271</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.72975042222422</v>
+        <v>14.34284776209273</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.74430086409135</v>
+        <v>23.7017070255878</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>17.74437192645708</v>
+        <v>26.38256695122168</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.74075350486499</v>
+        <v>33.389825351268</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>17.73699775628414</v>
+        <v>18.34932931653728</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>17.76393847474642</v>
+        <v>21.3264218634501</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.80870047750355</v>
+        <v>37.4864576867303</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17.81900714775781</v>
+        <v>42.91719361189625</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>17.79891947661012</v>
+        <v>43.18350284377027</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>17.81626440579774</v>
+        <v>46.72287490878193</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17.76437574991915</v>
+        <v>20.42959187587001</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.80317420318723</v>
+        <v>34.52305933867422</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.81310267413773</v>
+        <v>39.73582790872599</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.78689900028985</v>
+        <v>37.23451936925916</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>17.81369675917862</v>
+        <v>44.12544770799228</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>17.76389693771994</v>
+        <v>23.39040406508069</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>17.77944373127797</v>
+        <v>30.19474511371168</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>17.7858819303538</v>
+        <v>34.76010838756568</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.76806438580954</v>
+        <v>34.45450455920161</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.79811314562486</v>
+        <v>38.35058152098615</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>17.76863997423592</v>
+        <v>20.84763418414389</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>17.77073391811708</v>
+        <v>22.62842578891018</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17.75447169971936</v>
+        <v>13.84021980153591</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.75274124429357</v>
+        <v>18.18438869343827</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.81063055506564</v>
+        <v>23.30865024244392</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>17.81512163571018</v>
+        <v>25.24305072523931</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.77967292933287</v>
+        <v>18.07686142197529</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.89089689022058</v>
+        <v>52.04527613029462</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>17.91070629685759</v>
+        <v>58.38921958676207</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>17.87373841815887</v>
+        <v>45.42325110281492</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>17.863793613472</v>
+        <v>50.76356798061362</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>17.98374033494755</v>
+        <v>62.59586622944993</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.01136393294254</v>
+        <v>70.10276588054731</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>17.95211995277442</v>
+        <v>56.24981345838909</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17.88001091800711</v>
+        <v>48.01630748333744</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>17.89979645640452</v>
+        <v>53.67042112681368</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.85808497169893</v>
+        <v>41.18258082017501</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.86557072565881</v>
+        <v>49.4460601616076</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17.98024274884624</v>
+        <v>59.1909608760154</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.00897065396503</v>
+        <v>66.14862105613662</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.94346192005201</v>
+        <v>51.18288231386262</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.83019139666235</v>
+        <v>34.39052481400025</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.84328285810742</v>
+        <v>39.25690027849775</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.81593378657139</v>
+        <v>29.79745720757796</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.84930072649682</v>
+        <v>46.24115161876986</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.92057041806276</v>
+        <v>50.16155832170805</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.94029114180903</v>
+        <v>56.16221148703484</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.88757216190847</v>
+        <v>42.34548759066742</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.76196369858506</v>
+        <v>26.58625917917922</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.76641159808744</v>
+        <v>17.00030518115233</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.77362188462339</v>
+        <v>20.82756919559503</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.73696179902889</v>
+        <v>3.887184937528652</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.78661268320074</v>
+        <v>27.95810644779664</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.80285761794185</v>
+        <v>39.92023340708721</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.83733834102346</v>
+        <v>34.91811932250193</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.85564393267365</v>
+        <v>41.07965061311828</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.79934810695933</v>
+        <v>13.64431312861666</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.87091246038665</v>
+        <v>48.26663366909861</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.80387384869321</v>
+        <v>40.54261368776034</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.83301963324262</v>
+        <v>33.28095110991941</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.85089569524903</v>
+        <v>39.22625511330244</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.78929022894985</v>
+        <v>8.092578206109486</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>17.86929632425698</v>
+        <v>47.46626190704305</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.80178326878804</v>
+        <v>45.64728222497756</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>17.80972695076105</v>
+        <v>31.2099050484515</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.82288009812711</v>
+        <v>37.28601676909769</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.77509866090395</v>
+        <v>8.042602928190242</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17.85400425770446</v>
+        <v>50.08394954405804</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>17.82997031440959</v>
+        <v>35.40602848285839</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>17.84334758037022</v>
+        <v>39.74375921841997</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>17.79491822531875</v>
+        <v>26.91652164406259</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.78436084530374</v>
+        <v>30.50122506664119</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>17.84677762509478</v>
+        <v>35.50915898106842</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>17.86204130263203</v>
+        <v>39.09873402625929</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.79483134607149</v>
+        <v>27.03520733243096</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>17.95873924292689</v>
+        <v>58.04692164415496</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>17.99106855557511</v>
+        <v>66.38389800584585</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>17.91890960091225</v>
+        <v>49.35778745705733</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17.89306143278504</v>
+        <v>52.14500753317064</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>18.01746208254524</v>
+        <v>63.66785134833942</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.05708538227744</v>
+        <v>72.66769039674274</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17.96325850023764</v>
+        <v>54.99045072309062</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.94891503547254</v>
+        <v>55.16031336760356</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.98112306130548</v>
+        <v>63.18732226204475</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>17.9048858822268</v>
+        <v>45.71461521391849</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>17.89542767456379</v>
+        <v>51.26753459401678</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.01475576564426</v>
+        <v>60.72402314623141</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.0554050631625</v>
+        <v>69.57985070820412</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.95603656584949</v>
+        <v>50.24940762936958</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.89831305900049</v>
+        <v>50.69774365897963</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>17.9219633590075</v>
+        <v>59.16372658527201</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.86520031963107</v>
+        <v>43.52190752881516</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.88688420256619</v>
+        <v>58.30725030007411</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.96362048323908</v>
+        <v>62.63487999723868</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.99344089017467</v>
+        <v>71.65447265185801</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.91184034460156</v>
+        <v>51.53659952213544</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.78840891483343</v>
+        <v>35.67134006664641</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.77221878397125</v>
+        <v>19.53739954722312</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17.78916791581054</v>
+        <v>24.21765209725011</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>17.7032067135601</v>
+        <v>3.388882715274054</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>17.82899428112498</v>
+        <v>34.58788782456338</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17.8357587423787</v>
+        <v>38.96431047867581</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>17.85696338362075</v>
+        <v>28.9647337877114</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.88903467479962</v>
+        <v>34.66548350413137</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>17.77392994891785</v>
+        <v>4.321723109420152</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>17.93082183721591</v>
+        <v>50.6662395680839</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.8313605777741</v>
+        <v>39.79847004156763</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.84513379767575</v>
+        <v>29.25427793109332</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>17.87611235147387</v>
+        <v>34.63269195577511</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.75486081241194</v>
+        <v>0.2809400284457624</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.922541670497</v>
+        <v>49.98009925178773</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.82961083012592</v>
+        <v>47.80715507745571</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>17.81895588405169</v>
+        <v>30.8722216625344</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.84292290737327</v>
+        <v>36.88201169556721</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>17.74581369364608</v>
+        <v>2.957881290194912</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>17.90263626839015</v>
+        <v>52.97598075592413</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>17.88977282897944</v>
+        <v>38.16486595517667</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.92237821250241</v>
+        <v>44.04131228115484</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>17.82357647219286</v>
+        <v>29.62442820120046</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>17.82348160694328</v>
+        <v>36.33904866188642</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>17.90234422944345</v>
+        <v>37.47678368033704</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.93861819307751</v>
+        <v>42.28824779726325</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>17.81483197008981</v>
+        <v>27.09578377684527</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.04991859069794</v>
+        <v>56.45047924743082</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.10879285287203</v>
+        <v>65.60562525875609</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>17.97610378517211</v>
+        <v>46.80017251624643</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.95686489249502</v>
+        <v>54.00406266341176</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.11699715864041</v>
+        <v>61.17982715581292</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.1871851676594</v>
+        <v>70.68146436918275</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.02583592857291</v>
+        <v>50.95465196196574</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.02947911849281</v>
+        <v>54.93500857992908</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.08742776248123</v>
+        <v>63.99152564071672</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.9501983672555</v>
+        <v>44.76098921427397</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.95529936909618</v>
+        <v>55.2879585435811</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.10822092497604</v>
+        <v>62.31380884774538</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.17907687612136</v>
+        <v>72.03352153819914</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>18.01122546279595</v>
+        <v>51.10297346286004</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>17.96192798360283</v>
+        <v>52.58183728136382</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.00666930831309</v>
+        <v>61.48005499762112</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.90033778740145</v>
+        <v>45.0284367212326</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.9491956859647</v>
+        <v>58.20989173815229</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.0467507642902</v>
+        <v>61.52949477111927</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.10107102474558</v>
+        <v>71.06048981329033</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.96160500386762</v>
+        <v>50.10513928952572</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.70333601317246</v>
+        <v>9.769213017038847</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.71546686618109</v>
+        <v>11.30107920748299</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.71275649262336</v>
+        <v>11.71668648820765</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>17.69694411783701</v>
+        <v>8.188808880375198</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>17.74765363252214</v>
+        <v>19.20713236213373</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17.72751039404523</v>
+        <v>14.08510161946074</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>17.77475365566686</v>
+        <v>20.66696878061457</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.78538084250437</v>
+        <v>22.97367224710992</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.74770440048516</v>
+        <v>15.22233569697694</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.84043575399202</v>
+        <v>38.36950486779402</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.72068708982068</v>
+        <v>11.79210136387007</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>17.75828238615718</v>
+        <v>16.27837106067419</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>17.76802558725987</v>
+        <v>18.04162110549262</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.72268607435594</v>
+        <v>7.594229716873514</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.83053236956125</v>
+        <v>36.5372109255559</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>17.73542802546207</v>
+        <v>13.59622827304716</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.74573340379019</v>
+        <v>14.28983171081736</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>17.75134202558665</v>
+        <v>15.89180420242295</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>17.71798223794825</v>
+        <v>5.590417417393098</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.81799676410912</v>
+        <v>35.50232143810445</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17.78874877080377</v>
+        <v>23.24878423091675</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>17.79634869420615</v>
+        <v>25.50240747103565</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>17.75310041285726</v>
+        <v>15.81617124141235</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>17.76254553278261</v>
+        <v>20.58462630769709</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>17.84380465035071</v>
+        <v>25.85845154874386</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>17.85817503792278</v>
+        <v>28.27392214389361</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>17.78936976503178</v>
+        <v>18.05577910734633</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.93378628491241</v>
+        <v>41.9537467334394</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>17.96575511484814</v>
+        <v>47.62896665935374</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>17.89413317910675</v>
+        <v>34.32773389425095</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.91285214208206</v>
+        <v>46.65707184024887</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.07457725358694</v>
+        <v>55.56033645194074</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.12127536019974</v>
+        <v>63.18681818459404</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.02001521445565</v>
+        <v>48.88748944719642</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.91090968607313</v>
+        <v>38.48098899442783</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.94216972625213</v>
+        <v>43.51970530180985</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>17.86517067756462</v>
+        <v>30.68461857073411</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>17.91386180318013</v>
+        <v>48.15682714538093</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.06737769876279</v>
+        <v>55.53368331411292</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>18.11491767158001</v>
+        <v>63.16974209585393</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>18.00605280801058</v>
+        <v>47.55548348508647</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.85563505544869</v>
+        <v>33.0637256159778</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>17.87698172772012</v>
+        <v>37.62855353139665</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>17.82157069811351</v>
+        <v>27.10648806584776</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.89665116909958</v>
+        <v>51.69785732628949</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>17.99389000619577</v>
+        <v>56.63665051157383</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.02777381158027</v>
+        <v>64.01283200072291</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.93792184918981</v>
+        <v>47.2996376378256</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>17.7052978207317</v>
+        <v>7.065078118818395</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17.69879926780512</v>
+        <v>7.085393161887321</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>17.694682955427</v>
+        <v>7.556015149906649</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.67822288817558</v>
+        <v>7.486562337319498</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>17.6831671594417</v>
+        <v>9.011026835518557</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.73313175039159</v>
+        <v>10.94536994249188</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.75693528927767</v>
+        <v>15.88242806166843</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.76386035604587</v>
+        <v>18.33442152516329</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.72767803323768</v>
+        <v>12.33855122147011</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.74933886318755</v>
+        <v>19.03817472313196</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.73283330969755</v>
+        <v>9.909764744494225</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.75028031564005</v>
+        <v>12.68883053487877</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.75687051086917</v>
+        <v>14.83135330921833</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.71410612053109</v>
+        <v>6.245275119507479</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.74606945252551</v>
+        <v>17.33214522125329</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>17.74164268367164</v>
+        <v>10.24303626128859</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>17.73803506423968</v>
+        <v>7.317200058842758</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.74148384937464</v>
+        <v>8.800567892833216</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.71033027530116</v>
+        <v>2.175521428314639</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>17.74883793344216</v>
+        <v>15.10350103592589</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>17.69797177968302</v>
+        <v>14.72271248354224</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.69367460709431</v>
+        <v>14.08062820980685</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.66835914727909</v>
+        <v>7.10078082463292</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.69494717661873</v>
+        <v>17.08634985794386</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.73246035501685</v>
+        <v>16.35844700156678</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.72904269036894</v>
+        <v>15.60754404150956</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.68127309933577</v>
+        <v>5.747350917506083</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.80749418637826</v>
+        <v>24.86318247474923</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.82232997569147</v>
+        <v>27.03012152451386</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.77305916883833</v>
+        <v>16.60383036343483</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.79278894900211</v>
+        <v>37.10603723200704</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.89399563712688</v>
+        <v>39.28566632002372</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.91573441442336</v>
+        <v>43.00991509744927</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.84058622163817</v>
+        <v>27.46521697928411</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.79500297310543</v>
+        <v>20.67933890454991</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.80997920652045</v>
+        <v>22.18102845166239</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.75548549982549</v>
+        <v>11.92634647692559</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>17.79428043993738</v>
+        <v>36.32356368138209</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.88992810912602</v>
+        <v>35.60300411210302</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.91313457841236</v>
+        <v>38.68442431118442</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>17.83114050711894</v>
+        <v>21.85657780892315</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.76492818269735</v>
+        <v>12.62030606148721</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.77368439082074</v>
+        <v>14.05421699480344</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.73661351608246</v>
+        <v>6.893926762349949</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.80043462672043</v>
+        <v>37.93448338867282</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.85462517170679</v>
+        <v>34.25746520874304</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.86924650745637</v>
+        <v>36.64167898793931</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.80298172845939</v>
+        <v>20.603123920874</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.82879999361172</v>
+        <v>44.66537711442911</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>17.83565241517348</v>
+        <v>31.94722657561188</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.85293051827603</v>
+        <v>36.73323796946196</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>17.78474835957913</v>
+        <v>25.43139874565567</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>17.76902976220353</v>
+        <v>22.92911724347147</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.87450914587689</v>
+        <v>52.30531025749375</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>17.9187475921028</v>
+        <v>50.64867878140521</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>17.95084143596595</v>
+        <v>58.19963186292219</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.85723140036696</v>
+        <v>40.90251549735854</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>17.85920117220288</v>
+        <v>41.52975700751273</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>17.86620728303029</v>
+        <v>49.14704418018746</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.90261641401277</v>
+        <v>46.55086735171074</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>17.93364986200681</v>
+        <v>53.5877350130462</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>17.83397942051324</v>
+        <v>32.21823883827021</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.85190335709873</v>
+        <v>40.50195206365729</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>17.85409973102861</v>
+        <v>52.38444435637849</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.86368559699547</v>
+        <v>42.53756790752573</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>17.88755415101012</v>
+        <v>49.00137058771061</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.80798264109334</v>
+        <v>26.65637933947571</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>17.83765603505807</v>
+        <v>39.63265542853613</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.81063243694129</v>
+        <v>25.73612719196217</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.8348913964198</v>
+        <v>30.11203526548818</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.75864259297541</v>
+        <v>18.20110293377441</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.80152642053448</v>
+        <v>35.26910053292577</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.86630620960493</v>
+        <v>35.83694408537228</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.8954648311703</v>
+        <v>39.6240539399817</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.79365335369325</v>
+        <v>26.2580925030054</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>17.95403594369229</v>
+        <v>46.19540317648845</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.00301684804385</v>
+        <v>53.84333383442787</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.89719481018046</v>
+        <v>38.9033694895306</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.92552079898907</v>
+        <v>52.81982645582228</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>18.06569258979453</v>
+        <v>58.41118877666375</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.12691182774249</v>
+        <v>67.11525337255519</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.99176804537977</v>
+        <v>50.04998232094451</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.93595540872836</v>
+        <v>43.83655731965084</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>17.98426034191736</v>
+        <v>51.12326155013448</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.87385265326343</v>
+        <v>35.98738324462719</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.92398780801153</v>
+        <v>53.60179571797003</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.05786958933932</v>
+        <v>58.43737689596322</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.11991004289515</v>
+        <v>67.29380383968416</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.97830213420854</v>
+        <v>48.94479586642247</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.87993336597146</v>
+        <v>36.8180767141091</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>17.9164345179172</v>
+        <v>43.73557647930433</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.83187059771848</v>
+        <v>30.57505812156416</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>17.91580850391321</v>
+        <v>55.4123778599222</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.9996379193191</v>
+        <v>57.98091897764735</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.04656882991061</v>
+        <v>66.41464130055272</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>17.92880838999661</v>
+        <v>47.80939109806756</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.6970694736473</v>
+        <v>5.219617239792107</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.70384870606258</v>
+        <v>6.560448320257713</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.69911807312879</v>
+        <v>6.616508106434495</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.68985633503788</v>
+        <v>3.492139649191476</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>17.70265297377327</v>
+        <v>8.941300730744354</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.72651262619579</v>
+        <v>13.90299346512724</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.76388329556671</v>
+        <v>18.39233635858089</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>17.77050778641869</v>
+        <v>20.54217966618925</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.74202933900957</v>
+        <v>14.16159996190077</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.79266850294052</v>
+        <v>33.82047123570098</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>17.71980175242815</v>
+        <v>11.56140505060966</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.74861019698664</v>
+        <v>13.64270226318726</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.7542012594506</v>
+        <v>15.12084246891092</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.71948144266258</v>
+        <v>6.809717611240917</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.77920195967052</v>
+        <v>30.2951921409867</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.72645860449187</v>
+        <v>9.717563201212105</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.73171553295549</v>
+        <v>10.23557048627375</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>17.73366174166199</v>
+        <v>11.23269386085231</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.71008916173196</v>
+        <v>4.837199849372105</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.75601151139854</v>
+        <v>21.64553189082422</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>17.72003101507038</v>
+        <v>11.3529614011005</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.71743189395619</v>
+        <v>12.07577005505747</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>17.68966407802965</v>
+        <v>5.99684196793779</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.7295330192056</v>
+        <v>11.51002965935478</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.78385753770948</v>
+        <v>14.62871689122333</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.78371649462872</v>
+        <v>14.99398643017781</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.73507412896032</v>
+        <v>8.683921879463774</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.8547562821304</v>
+        <v>34.13116821892439</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.87231496468627</v>
+        <v>38.17056177820311</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.82010599223643</v>
+        <v>27.62788075085028</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.86799929226905</v>
+        <v>44.24156810998655</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>17.99125969153604</v>
+        <v>51.33220266095902</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.01780600099961</v>
+        <v>56.39792796779784</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>17.94093965926574</v>
+        <v>43.49180508387155</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>17.8295589170547</v>
+        <v>28.37615198755994</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.84622043972629</v>
+        <v>31.32152162202667</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>17.78986307810543</v>
+        <v>21.79584725496805</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.8610256547001</v>
+        <v>43.00159593619293</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>17.97629916882849</v>
+        <v>47.98820482534236</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.00328932598378</v>
+        <v>52.28284848357504</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>17.92040705721069</v>
+        <v>38.43756221239305</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.77020049437665</v>
+        <v>15.5046505128347</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.77917871684715</v>
+        <v>17.20627447076168</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.74193785330045</v>
+        <v>12.42314129361356</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.82994184413775</v>
+        <v>41.01657831128814</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>17.89690571983276</v>
+        <v>41.87873501665715</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>17.91344034467435</v>
+        <v>44.92898637810976</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>17.84780287538086</v>
+        <v>33.17570345969936</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.68150992041703</v>
+        <v>0.3433276779942176</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.67708387888584</v>
+        <v>-0.6980681158642739</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.68240907986918</v>
+        <v>-0.6184759775316557</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.64315312778817</v>
+        <v>-1.933467410581326</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.75344582119897</v>
+        <v>23.32590292497069</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.71218003186483</v>
+        <v>4.65788112684298</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.73809784519576</v>
+        <v>8.438164927395196</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>17.75487922250648</v>
+        <v>9.900861899800827</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.69385605075921</v>
+        <v>3.994832252401174</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>17.83610861514091</v>
+        <v>41.19833208626906</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>17.71326284271742</v>
+        <v>6.678388846936677</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>17.7326179722037</v>
+        <v>8.465392908796211</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>17.74848097840498</v>
+        <v>9.455258979105462</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.68167587758171</v>
+        <v>0.05138251598768306</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>17.83175129765586</v>
+        <v>41.59734838320273</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.73143246432615</v>
+        <v>11.22567266940007</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.73072070761563</v>
+        <v>11.15437726031111</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.74232782409265</v>
+        <v>12.70482187635995</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.69119033133917</v>
+        <v>4.774370710111491</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.82172033333256</v>
+        <v>40.1462537891375</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.7983894585836</v>
+        <v>26.77168311964287</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>17.81235446478463</v>
+        <v>30.23888785516872</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>17.76214514678855</v>
+        <v>19.50117467148383</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>17.77107934864456</v>
+        <v>27.95051607081285</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.84220435532587</v>
+        <v>29.27227028808732</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>17.86101479330915</v>
+        <v>32.79719028448316</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.78583934019554</v>
+        <v>19.64874705881717</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.92721580133777</v>
+        <v>44.60829377074295</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>17.96141237457249</v>
+        <v>51.42514799651164</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.88520188835811</v>
+        <v>36.55836561634106</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>17.88427784458814</v>
+        <v>49.79714911246651</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.02199781986034</v>
+        <v>57.1175578658625</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>18.06748160077488</v>
+        <v>65.82192901062572</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.9626601195216</v>
+        <v>47.29143214880569</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.91259327771275</v>
+        <v>43.99875252942535</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.94601057663478</v>
+        <v>50.48019459690836</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.8655466961528</v>
+        <v>35.50676231626471</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>17.88493908394613</v>
+        <v>52.06470737259479</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.01629842647587</v>
+        <v>59.27637980537378</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>18.06223735590247</v>
+        <v>68.2195874524335</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>17.95168064457209</v>
+        <v>48.28224610363804</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.8652952229994</v>
+        <v>39.38326598916626</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.88999872029068</v>
+        <v>45.61639846465417</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>17.8314097478819</v>
+        <v>33.84147825851736</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.88011526176875</v>
+        <v>53.1734792158381</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.96587057643536</v>
+        <v>58.15111444100426</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.00010293848625</v>
+        <v>67.0665765078753</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.91026337855407</v>
+        <v>48.42118311938771</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.72048830972708</v>
+        <v>8.723901680269261</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.72934737209161</v>
+        <v>11.9079016589121</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.72638625732949</v>
+        <v>12.09035211444412</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.71751862157114</v>
+        <v>10.11639634331869</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.69089817304232</v>
+        <v>4.974436520433059</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.7398220307187</v>
+        <v>15.37261995512697</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>17.77627474089036</v>
+        <v>23.04893395710703</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>17.78276840059756</v>
+        <v>25.29509313560131</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.75710467190477</v>
+        <v>19.74624363734302</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.74780720773196</v>
+        <v>22.55659152301239</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.73576127869412</v>
+        <v>14.47772301630332</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.76482954197791</v>
+        <v>20.01704543402705</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.77041745449349</v>
+        <v>21.83022764102624</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.73874700298768</v>
+        <v>13.57503947366681</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.74008887066526</v>
+        <v>20.78338779354973</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.74286174128023</v>
+        <v>13.08833163530835</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.75026990889257</v>
+        <v>16.14834216677768</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.75345574852734</v>
+        <v>17.93548093907993</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.73106622394125</v>
+        <v>10.93533677591622</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.73721209607313</v>
+        <v>16.23052115083805</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>17.70204304682416</v>
+        <v>6.975354166196301</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.69759090199353</v>
+        <v>6.83956503151548</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.68362733545736</v>
+        <v>2.440452979990244</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.72426769925736</v>
+        <v>15.53536861330764</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.76763536159641</v>
+        <v>18.64199085704954</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.76905316059005</v>
+        <v>20.00410891079167</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17.72967950949024</v>
+        <v>12.32667188352427</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.79668344017957</v>
+        <v>23.48541147120458</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.80886829916716</v>
+        <v>25.89239402418958</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.77486922897761</v>
+        <v>18.13229170790951</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.8155014330635</v>
+        <v>34.38291642799098</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.91717442884215</v>
+        <v>42.78854286124745</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.94129308328834</v>
+        <v>48.01034093385954</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.87809587266955</v>
+        <v>34.68752069028785</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.77913578142339</v>
+        <v>20.64475594769607</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.79069244339625</v>
+        <v>22.35778910815878</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.75215511134749</v>
+        <v>14.9303629587006</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>17.81250145068837</v>
+        <v>34.52212589723782</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.9078182280313</v>
+        <v>42.27011898302045</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>17.93243537624085</v>
+        <v>47.27197410745789</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>17.86320981839852</v>
+        <v>32.45523299088325</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.74601967291597</v>
+        <v>12.41845543532229</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>17.75263730590436</v>
+        <v>13.75573068429718</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>17.72824193022629</v>
+        <v>9.036828776127226</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.80787627901027</v>
+        <v>33.26052689648996</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.86317222320007</v>
+        <v>37.4497386817448</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.87994245164341</v>
+        <v>42.30889399515243</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.82407821527429</v>
+        <v>29.30513423150371</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.68169177458687</v>
+        <v>-0.9545308260059215</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.68414552223431</v>
+        <v>3.046103179746666</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.67663773523057</v>
+        <v>2.372583605804031</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>17.68307686825788</v>
+        <v>5.234273857930852</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>17.64731339222669</v>
+        <v>-2.212102871041459</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.68753346968593</v>
+        <v>0.6389067157762156</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.71514331887906</v>
+        <v>7.726843046892441</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>17.71644321812579</v>
+        <v>8.051608770387059</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.70674583584731</v>
+        <v>8.18660030770253</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.6837535410797</v>
+        <v>6.083819407759904</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.68366137187603</v>
+        <v>1.193182072228801</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.70370110394127</v>
+        <v>6.696632721509236</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>17.70411914737564</v>
+        <v>6.632754441272336</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.68791370605411</v>
+        <v>4.693975653084994</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.67402941850192</v>
+        <v>4.16269579888008</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>17.70740376426921</v>
+        <v>2.699985293200928</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>17.70866726267969</v>
+        <v>7.036305673566318</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>17.70765907737839</v>
+        <v>7.519915746384886</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>17.69884888268829</v>
+        <v>6.992423021614027</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.69255922150207</v>
+        <v>3.172951930440593</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.65024844329084</v>
+        <v>1.27600501706527</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.64070300367139</v>
+        <v>0.6110836163689619</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.64347574468867</v>
+        <v>0.2374437329069963</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.68969788847319</v>
+        <v>9.120428279331026</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.72802984505165</v>
+        <v>12.79703843197378</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.72339147208419</v>
+        <v>13.02580653085723</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.70176644924768</v>
+        <v>9.7350770642378</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>17.72092611389979</v>
+        <v>7.775326776361947</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17.72730086626997</v>
+        <v>8.746462600478544</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.71070328978727</v>
+        <v>5.81409226922969</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.75968205207643</v>
+        <v>21.62075336478844</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.85320503727081</v>
+        <v>29.98006425237761</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>17.87053881005495</v>
+        <v>32.92409181381126</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.82580539006123</v>
+        <v>25.24027069112839</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.70084421186101</v>
+        <v>5.005100565540708</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.70658900695597</v>
+        <v>5.228471775238525</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.68498207634966</v>
+        <v>3.09331189585907</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.75408625480644</v>
+        <v>22.0414993304503</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>17.84069070009529</v>
+        <v>29.73933381091739</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.85854502996209</v>
+        <v>32.31845751329375</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17.80729778697562</v>
+        <v>23.7038706150727</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.69285532200921</v>
+        <v>2.066816439101565</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>17.6947796354353</v>
+        <v>2.401909141351574</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.68544742789638</v>
+        <v>2.92370058230027</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.77121224338376</v>
+        <v>22.64834704419822</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>17.82115440525768</v>
+        <v>26.95730917285801</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.83239604526691</v>
+        <v>29.90134479047036</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.79246473695449</v>
+        <v>22.72539235501738</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>17.75216336311998</v>
+        <v>17.42573656937378</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.77042396751127</v>
+        <v>19.29736124312616</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.77213743865659</v>
+        <v>21.3415485545857</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.76233369189642</v>
+        <v>19.71940058812761</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.69507037326959</v>
+        <v>4.315998261269836</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.79665877948671</v>
+        <v>33.55361605977316</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.85093823985353</v>
+        <v>44.31149996222967</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>17.86473959112881</v>
+        <v>49.77486396806375</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.83598721088762</v>
+        <v>42.55393746839216</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.78280970962118</v>
+        <v>25.72845993035909</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>17.79761794861151</v>
+        <v>36.13238008281051</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.84542773435808</v>
+        <v>44.8633185785114</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.85872261132581</v>
+        <v>50.06135904010938</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.82330983054634</v>
+        <v>40.24466576081184</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.78401190928006</v>
+        <v>27.21765073541654</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.78650079121138</v>
+        <v>30.18102315657373</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>17.80588255185559</v>
+        <v>30.87835541955943</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>17.81460389504703</v>
+        <v>34.46492315755997</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.78963805824856</v>
+        <v>27.0796466220844</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.77017924912492</v>
+        <v>26.49491743541581</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.72199426687089</v>
+        <v>8.540820945701494</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>17.72423564590888</v>
+        <v>8.856919243662915</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>17.70658844668401</v>
+        <v>4.351395708005825</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.73216455856799</v>
+        <v>15.30964027140554</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.78827652342399</v>
+        <v>17.14583747309139</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.79364528300752</v>
+        <v>18.25416695075787</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.75181548866084</v>
+        <v>10.49180946484729</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.85922667131758</v>
+        <v>34.91283403972882</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>17.88199836850027</v>
+        <v>39.58003475312145</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>17.84131444210295</v>
+        <v>31.90285920591715</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>17.86054256581323</v>
+        <v>43.22036354507321</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>17.98828514808126</v>
+        <v>54.16815148197244</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.02050134726508</v>
+        <v>61.33583577397339</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.95187901691347</v>
+        <v>48.55323505358301</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.85192163252047</v>
+        <v>34.76050327126077</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.8746552991273</v>
+        <v>38.8566008400575</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.82868961281097</v>
+        <v>31.30305348544055</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>17.86636539243641</v>
+        <v>45.51420033267028</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>17.98912551990929</v>
+        <v>54.3447816360346</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.02260171497305</v>
+        <v>61.2270036461981</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.94700558805874</v>
+        <v>46.93391772016198</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>17.79921625207238</v>
+        <v>24.89685844718606</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>17.81394182676316</v>
+        <v>28.15382604522242</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.78393255522728</v>
+        <v>22.97086901134161</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>17.84543659727577</v>
+        <v>45.55207216205316</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>17.918469101348</v>
+        <v>46.68569594827208</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>17.94115134696104</v>
+        <v>51.92942703995266</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>17.88011389852448</v>
+        <v>37.47567674725796</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>17.79572250278614</v>
+        <v>37.7601855913859</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>17.81226216681303</v>
+        <v>34.76607060634674</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.8229136861792</v>
+        <v>39.00666016579857</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.78191585792266</v>
+        <v>24.68458791848481</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>17.76110700643899</v>
+        <v>22.15096490646938</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>17.82965751268485</v>
+        <v>45.79940526863262</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>17.87581117873105</v>
+        <v>49.78161698320467</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.89771911838792</v>
+        <v>56.68950246539911</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.83713764276489</v>
+        <v>40.80982034314631</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>17.83853836238234</v>
+        <v>41.73037750888389</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>17.82329047035022</v>
+        <v>42.76950998833352</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.86228543699017</v>
+        <v>45.02992252519573</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>17.88301054242858</v>
+        <v>51.31456370975341</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>17.81761207594639</v>
+        <v>33.09545337177462</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>17.82935124116155</v>
+        <v>40.77675262554632</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>17.82156812482634</v>
+        <v>45.20672874466874</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>17.83843465543995</v>
+        <v>44.84800641276417</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>17.85392600125774</v>
+        <v>50.82947673557162</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.80345863469029</v>
+        <v>32.48071490010611</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>17.81505959745238</v>
+        <v>38.50668361137291</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>17.78688234959827</v>
+        <v>24.22140889734372</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.79912870001294</v>
+        <v>27.10724928116399</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.75027476808321</v>
+        <v>17.14913240133114</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>17.77878543133404</v>
+        <v>30.27983779375938</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>17.83143272100344</v>
+        <v>30.66027366711433</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>17.84714597822216</v>
+        <v>33.40983544821709</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>17.77508663952505</v>
+        <v>21.05326365910906</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>17.90568519658707</v>
+        <v>43.25301984795404</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>17.93680638643932</v>
+        <v>49.5252490702067</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.86479230626646</v>
+        <v>36.25691771110019</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.88484329836185</v>
+        <v>50.30129855827408</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>17.99804607068715</v>
+        <v>55.66160022516506</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>18.03850187371416</v>
+        <v>63.37764927159345</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.93975862382605</v>
+        <v>45.78177375360856</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>17.88703258374586</v>
+        <v>41.3959003234998</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.91718868261448</v>
+        <v>46.95511307942735</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>17.84194539811848</v>
+        <v>33.98787609900934</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>17.87911874795216</v>
+        <v>48.77338342878649</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>17.98618193408728</v>
+        <v>53.49200855977072</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>18.02682268709462</v>
+        <v>60.94123074203013</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>17.92343333445961</v>
+        <v>42.29590395457058</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>17.84063935824433</v>
+        <v>35.40208619547847</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.86231595006996</v>
+        <v>40.05610191104638</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>17.80750155132357</v>
+        <v>30.63665387467265</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>17.86749672963981</v>
+        <v>49.88917441541888</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.93396813021539</v>
+        <v>51.98669065373015</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.96350135755781</v>
+        <v>58.38082848749691</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.87955844550673</v>
+        <v>41.9781556032994</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.77982039994054</v>
+        <v>40.60281478311025</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.78260250736818</v>
+        <v>28.87378913848644</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.79042731650217</v>
+        <v>32.80461650077304</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.75712379904133</v>
+        <v>22.82344785768838</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.75669646342696</v>
+        <v>23.58736502411901</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.81679239838359</v>
+        <v>47.75892023466644</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.8489395480103</v>
+        <v>45.79324110678031</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>17.86791397704107</v>
+        <v>52.56907756716814</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.81613553160941</v>
+        <v>36.2158844186295</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.83289692398771</v>
+        <v>42.32196903751733</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.81487266461329</v>
+        <v>45.2232178027931</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17.84166941445908</v>
+        <v>41.46764360276055</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.86017153264034</v>
+        <v>47.81065725218971</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.8031902178282</v>
+        <v>27.76826441740408</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>17.83001401937262</v>
+        <v>40.70771663615483</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.80943767044617</v>
+        <v>48.49079341615025</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>17.81551810631194</v>
+        <v>36.4329254710438</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>17.82906861331274</v>
+        <v>41.96572754721286</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.78494422383454</v>
+        <v>22.27544995546643</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.81795214511822</v>
+        <v>42.46116962703704</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.78335772589543</v>
+        <v>24.55082432550682</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.79456284490152</v>
+        <v>27.25908233183453</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>17.75188000940084</v>
+        <v>15.69496065146496</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.77066831797818</v>
+        <v>29.56705716404709</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>17.81740839513208</v>
+        <v>30.07884088624314</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>17.83091865669729</v>
+        <v>32.64970284184889</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.76947111448926</v>
+        <v>19.66099043624334</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>17.90187059540918</v>
+        <v>47.34782077548785</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>17.93176945477394</v>
+        <v>54.53598412620228</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.86694007552726</v>
+        <v>40.36133969759932</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>17.87303754820703</v>
+        <v>50.0253289228062</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>17.97949889631449</v>
+        <v>57.44379513708301</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.01710643316837</v>
+        <v>66.01548276272459</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>17.93058644442991</v>
+        <v>48.5653925137876</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>17.89136668510231</v>
+        <v>43.87587906450939</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.92116883445694</v>
+        <v>50.61515634338285</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.85235108416095</v>
+        <v>36.2094891200732</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.87367443545457</v>
+        <v>49.91131329933097</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.97556018207661</v>
+        <v>55.06701661865168</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>18.01420882211728</v>
+        <v>63.47820123245899</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>17.92224236185611</v>
+        <v>44.49619305991757</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>17.8471142068978</v>
+        <v>36.96576202245966</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.86857141080912</v>
+        <v>43.10564429626258</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>17.81773856531666</v>
+        <v>30.67016529572953</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.86466700396161</v>
+        <v>54.38199492370457</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>17.92688979142588</v>
+        <v>55.25454858221529</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.95486651210972</v>
+        <v>62.68974175597785</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>17.87931537108338</v>
+        <v>43.63976924720594</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>17.78117742973583</v>
+        <v>38.86048685944868</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>17.78013200450143</v>
+        <v>26.14405803285171</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.78309823907427</v>
+        <v>28.8371761708918</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.76604871999298</v>
+        <v>19.84365349675695</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>17.78038599088426</v>
+        <v>41.96596788251796</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>17.81151170169132</v>
+        <v>49.39096965496623</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>17.83189086836002</v>
+        <v>45.31399324398789</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>17.84271934756857</v>
+        <v>51.20543827213874</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>17.81254548413116</v>
+        <v>34.62722269227336</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>17.84022888320807</v>
+        <v>59.06791635251402</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.81328366286106</v>
+        <v>51.90964526739618</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.83023336088225</v>
+        <v>45.74487418884598</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>17.84083796759838</v>
+        <v>51.78299221342471</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.80651018085237</v>
+        <v>31.36940693925319</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>17.84114754439953</v>
+        <v>60.05635325662584</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>17.80713689433778</v>
+        <v>52.73483917128332</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>17.80944090178302</v>
+        <v>38.59619665329041</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.81701495835751</v>
+        <v>44.24967159286729</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>17.79088457480174</v>
+        <v>24.97566311308463</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>17.82887775378844</v>
+        <v>60.45191175743529</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.78917527263865</v>
+        <v>29.12895782832998</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>17.79376672667363</v>
+        <v>30.71446828817504</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.76965180861632</v>
+        <v>21.458116708964</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>17.78864519023204</v>
+        <v>45.86841797663097</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.81274307044488</v>
+        <v>35.1273411467788</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.81832958843205</v>
+        <v>36.73374778565543</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.78094759056643</v>
+        <v>26.50290762614178</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.87908624896131</v>
+        <v>49.6456638580095</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>17.89697010286229</v>
+        <v>55.00133631457307</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>17.85699161799882</v>
+        <v>43.90107983832768</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.87002660502163</v>
+        <v>66.27836688821529</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>17.93744868811135</v>
+        <v>62.5924534884556</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>17.96018753863289</v>
+        <v>69.31402911666245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>17.90487687023435</v>
+        <v>55.1085974145393</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>17.87517051515897</v>
+        <v>48.91888575258933</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>17.89313597642926</v>
+        <v>54.03631342515465</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.84988108925481</v>
+        <v>42.49305912933765</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>17.87408880743486</v>
+        <v>68.2630796019028</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>17.9389545879779</v>
+        <v>62.12841649931657</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.96261778754126</v>
+        <v>68.71531996907223</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.90292464262385</v>
+        <v>52.65500304022592</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.84141551808575</v>
+        <v>42.77068670981353</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.85406150063304</v>
+        <v>48.36127676475984</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.82278468280409</v>
+        <v>37.16239037418821</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.8618842870706</v>
+        <v>70.63111123410133</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>17.89927926582231</v>
+        <v>60.26111426308215</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.91606111292932</v>
+        <v>66.64096523068399</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.86701537927473</v>
+        <v>49.60061321943586</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.76610356503894</v>
+        <v>23.02384000549032</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.77604689442665</v>
+        <v>22.04173512350194</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>17.78431094805925</v>
+        <v>25.51176524970678</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.74754820644236</v>
+        <v>14.78007221419813</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.73739137727573</v>
+        <v>16.62894622579615</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.81457924403048</v>
+        <v>41.91933275971096</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.85491827228392</v>
+        <v>47.34019655840099</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.87471051213578</v>
+        <v>54.56798724188359</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.81775719417158</v>
+        <v>38.63476649611225</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.82633382914296</v>
+        <v>41.01072854666047</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>17.81200517637229</v>
+        <v>39.89452363788335</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.84621766895072</v>
+        <v>42.99835116592884</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>17.86516955246669</v>
+        <v>49.55455745908823</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>17.80323880248251</v>
+        <v>30.21730806466164</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.8214413806266</v>
+        <v>40.5184400656902</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>17.79691508565991</v>
+        <v>34.83213054182512</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>17.80860704481413</v>
+        <v>36.32448598635737</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>17.82204994395889</v>
+        <v>41.37995273324818</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.77522664582024</v>
+        <v>23.99049057632392</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>17.79395146095469</v>
+        <v>33.27999322846869</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.75876725715611</v>
+        <v>18.34528971593459</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.76929359522653</v>
+        <v>20.57426014169659</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>17.72510027954704</v>
+        <v>10.49677931713676</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.75051910319779</v>
+        <v>23.09741281130201</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.79545969745266</v>
+        <v>24.91277665797612</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>17.80758845159508</v>
+        <v>27.01038439880289</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>17.74479906864556</v>
+        <v>15.96167954364791</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>17.88927453322876</v>
+        <v>43.01529726623168</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>17.91888604323785</v>
+        <v>49.74569681493631</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.85060326937048</v>
+        <v>35.36535287390212</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>17.8683412321738</v>
+        <v>49.26337747057468</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>17.97315435648361</v>
+        <v>56.63546566396067</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>18.00988940014607</v>
+        <v>64.80376168405182</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>17.91974547113422</v>
+        <v>47.53945538479551</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>17.87600363725752</v>
+        <v>40.66418379436767</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.90504987791034</v>
+        <v>46.73488395712062</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>17.83307507003158</v>
+        <v>32.36807423335662</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>17.86713534397029</v>
+        <v>49.08183961881885</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>17.96675973544827</v>
+        <v>54.88787456850979</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.00407543667965</v>
+        <v>62.72474056684439</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.90878541137238</v>
+        <v>44.15080171189044</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>17.81614735171457</v>
+        <v>28.17064425955748</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.83629196844364</v>
+        <v>32.43558342770745</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.78480507161238</v>
+        <v>21.80448998978695</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.8406404924715</v>
+        <v>46.52896684133061</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.89980892520874</v>
+        <v>48.83255165948633</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>17.92588588252866</v>
+        <v>54.71514623719988</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.84982415720465</v>
+        <v>38.39695691985248</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>17.72098917128656</v>
+        <v>11.48461191940528</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>17.72470583284053</v>
+        <v>11.95977799791777</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.72320545418641</v>
+        <v>12.34278835764618</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.71101383205657</v>
+        <v>10.17930473737111</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>17.7331227398122</v>
+        <v>14.36699259509237</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.74863323607601</v>
+        <v>19.32248794781587</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.77814870055117</v>
+        <v>24.49902169154239</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>17.78651605241058</v>
+        <v>26.99215425670166</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.7576071281764</v>
+        <v>20.1697045437706</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.81122415214221</v>
+        <v>37.53292021155742</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.74637564895102</v>
+        <v>18.6380694437488</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>17.76991812906116</v>
+        <v>21.97745386368312</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>17.77775547299615</v>
+        <v>23.96282000843024</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.74350329943299</v>
+        <v>14.99590594847123</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>17.80662627045058</v>
+        <v>33.67278276628476</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>17.7518892366557</v>
+        <v>20.7576537504081</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>17.75670240117483</v>
+        <v>19.85924976521807</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>17.76108123343872</v>
+        <v>21.27291273256247</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.73663548686132</v>
+        <v>13.33066988409909</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.79397161369824</v>
+        <v>36.10521591267399</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.7495459780997</v>
+        <v>15.99661840850411</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.7516313680137</v>
+        <v>17.40553554259252</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.72537421013804</v>
+        <v>9.630648629417482</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>17.74234534353495</v>
+        <v>14.76908148420295</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>17.7814646779608</v>
+        <v>15.4684454492646</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.78586381219784</v>
+        <v>16.52569528400586</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.74119052090916</v>
+        <v>8.80576719064277</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>17.86561945039178</v>
+        <v>40.09728980728558</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>17.88511792255224</v>
+        <v>45.3469270186168</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>17.83765959221605</v>
+        <v>33.4182115585219</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>17.85927654442905</v>
+        <v>47.22434717502841</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>17.95548091314513</v>
+        <v>54.05097750959941</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.9826088537199</v>
+        <v>60.79904684465421</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.91364351810245</v>
+        <v>46.3425769970598</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>17.85297198419704</v>
+        <v>35.26901190861452</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.8721671006005</v>
+        <v>39.46436512160486</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.82082722421539</v>
+        <v>28.39577888533955</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>17.86022989384148</v>
+        <v>46.67699367412396</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.95148448301824</v>
+        <v>51.51733212507175</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>17.9793966643067</v>
+        <v>57.4401747887505</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>17.90506595998862</v>
+        <v>41.85140611510869</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>17.81171942482132</v>
+        <v>31.32285911289557</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.82384337362977</v>
+        <v>34.32069184944601</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>17.78858642036609</v>
+        <v>25.35010186371726</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.84097619323518</v>
+        <v>45.77566562212863</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>17.89439166517873</v>
+        <v>44.99266084739582</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>17.91291591285069</v>
+        <v>48.41399950011991</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.85321839938261</v>
+        <v>33.79469461298003</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.74947095263622</v>
+        <v>13.65487920719966</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.74958301982155</v>
+        <v>12.74295221280562</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>17.75059854126248</v>
+        <v>13.74782357212377</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.73804575278569</v>
+        <v>11.16360142757279</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.73470711586968</v>
+        <v>17.67682053988925</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.7797146828737</v>
+        <v>27.15829789717574</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>17.80146979912563</v>
+        <v>34.01816336990644</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>17.81016264767382</v>
+        <v>38.36273456467706</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>17.78489731765338</v>
+        <v>28.08554278297981</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.7944963402728</v>
+        <v>35.39309820212495</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>17.78380986581709</v>
+        <v>34.13511766625869</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>17.80226856051038</v>
+        <v>38.01359393752726</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>17.81079511230777</v>
+        <v>42.66668649806096</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>17.7812780374261</v>
+        <v>28.4908475335878</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>17.79836607666383</v>
+        <v>38.54226876680832</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>17.78113510512931</v>
+        <v>34.7922683539545</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>17.78470165767191</v>
+        <v>31.30677305025225</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>17.79049214620936</v>
+        <v>35.39643922487366</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.76846374083111</v>
+        <v>23.16176522106542</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>17.79090094494635</v>
+        <v>39.47917533126453</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>17.74211170363725</v>
+        <v>16.22243620779881</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.74404520572726</v>
+        <v>16.49252100624356</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>17.72384865410448</v>
+        <v>8.418889673300681</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>17.73676318829001</v>
+        <v>16.32154112290947</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>17.7589730565713</v>
+        <v>14.81445783439876</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>17.76170541313699</v>
+        <v>14.51024630724822</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.72854083553439</v>
+        <v>6.714388942668279</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>17.83209808485552</v>
+        <v>37.81920235825829</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>17.84707302762167</v>
+        <v>41.97499468652411</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>17.81135130711729</v>
+        <v>31.75702710545675</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.81906068414898</v>
+        <v>41.83840643279819</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>17.88487976033601</v>
+        <v>47.62681508781674</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.90449026892195</v>
+        <v>52.64337096514878</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>17.85372326521711</v>
+        <v>40.08476619813828</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>17.83137133056536</v>
+        <v>38.9296996136255</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>17.84649742499924</v>
+        <v>42.9235916464439</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>17.80742578890667</v>
+        <v>32.10822497866391</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>17.8265035839325</v>
+        <v>45.99845369133181</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>17.89003379424287</v>
+        <v>48.77435898499612</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>17.91064313894871</v>
+        <v>53.73395991290263</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>17.85539951189315</v>
+        <v>39.03412622813272</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>17.80249102518107</v>
+        <v>33.22900150802268</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>17.8126842355798</v>
+        <v>37.51186512809512</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>17.78500410902449</v>
+        <v>27.33806639912853</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>17.81905236698348</v>
+        <v>45.42320870518332</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.85509811325809</v>
+        <v>43.479677182928</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.86924453547881</v>
+        <v>47.80871582256903</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>17.82404098004877</v>
+        <v>32.80766265456406</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.79782372744333</v>
+        <v>41.97940321253934</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>17.81092584448881</v>
+        <v>32.29020944411399</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>17.81981520063104</v>
+        <v>35.75373994695717</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>17.78344802193173</v>
+        <v>26.58962241351443</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.77350799560561</v>
+        <v>25.11437345405554</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>17.82981071346981</v>
+        <v>47.56348166110649</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>17.87258846515475</v>
+        <v>46.65817303109044</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>17.89274011108197</v>
+        <v>52.32988683899681</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.83729826752354</v>
+        <v>37.51342972086942</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>17.84299268982156</v>
+        <v>41.04459731605762</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.82649086064029</v>
+        <v>46.48123986360706</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>17.86304770831648</v>
+        <v>44.32352876306879</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.88246413677132</v>
+        <v>49.3208217116412</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>17.82150722814243</v>
+        <v>30.52801203644976</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.83994477974304</v>
+        <v>41.41813084363095</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.81936538486283</v>
+        <v>48.70543736478708</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>17.83320636657015</v>
+        <v>40.20066181523548</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>17.84780354608712</v>
+        <v>44.70916967839959</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>17.79987527698604</v>
+        <v>25.27116280129457</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>17.82959984598354</v>
+        <v>42.3659089912235</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>17.80242024823782</v>
+        <v>27.42431905387618</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>17.81495957032211</v>
+        <v>30.58221001354455</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>17.769657893776</v>
+        <v>20.93053170803706</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>17.77841827928981</v>
+        <v>29.69114471137447</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>17.82860511321078</v>
+        <v>31.76492852691851</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>17.84346938819209</v>
+        <v>34.4654230385584</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>17.77764761204192</v>
+        <v>22.17910182656251</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>17.91267206475806</v>
+        <v>44.85633080696611</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>17.94427463733903</v>
+        <v>51.30947914736645</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>17.87609605040688</v>
+        <v>38.66565644995871</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>17.88173563382476</v>
+        <v>49.02349140857187</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>17.99181578696376</v>
+        <v>55.48230139268462</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>18.03145377968567</v>
+        <v>63.31245163159154</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>17.93964215808382</v>
+        <v>46.6573491609854</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>17.90134740320795</v>
+        <v>43.70018065613501</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>17.93256336369063</v>
+        <v>49.66699323475481</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.86007235623108</v>
+        <v>36.66564951454554</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>17.88455987483096</v>
+        <v>51.20264700891532</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>17.98984535461854</v>
+        <v>55.93641488371065</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>18.03031257227445</v>
+        <v>63.62988349788193</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.93260174166272</v>
+        <v>45.36002478767394</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>17.85899452474833</v>
+        <v>39.40262856851271</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>17.8819889413432</v>
+        <v>45.32116545825974</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>17.82758358043661</v>
+        <v>33.30623589790632</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>17.87212644700905</v>
+        <v>52.40455258977109</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>17.93673673119468</v>
+        <v>54.06103738763934</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>17.96657056009681</v>
+        <v>61.03431309591435</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>17.88526894488366</v>
+        <v>42.05922165881989</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>17.76315312684935</v>
+        <v>20.3840531806033</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>17.77146297462165</v>
+        <v>17.0298465522169</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>17.77982454877345</v>
+        <v>20.11433830095906</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>17.74241451297417</v>
+        <v>10.96009044258117</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>17.74253447162096</v>
+        <v>20.3294920528286</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>17.81478461954653</v>
+        <v>42.18168103537593</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>17.85392801529541</v>
+        <v>46.03026998890503</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>17.87416924225416</v>
+        <v>53.23887650666357</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>17.81608437128452</v>
+        <v>38.28918879602386</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>17.83208195370924</v>
+        <v>41.06299769382052</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>17.81403306472047</v>
+        <v>41.96385600587308</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>17.84724347280891</v>
+        <v>43.50131913627609</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>17.86670325641224</v>
+        <v>50.2249332153998</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>17.80346112808954</v>
+        <v>31.67264595175331</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>17.82855757666822</v>
+        <v>40.78021901605247</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>17.79900001758609</v>
+        <v>36.99091188071536</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>17.80985763095205</v>
+        <v>34.8590785494232</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>17.82366500194014</v>
+        <v>39.96379896266762</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>17.7757251123723</v>
+        <v>23.1737172418782</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>17.80296469587635</v>
+        <v>37.94393520722069</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>17.76687681193869</v>
+        <v>23.18330802778527</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>17.77785577932578</v>
+        <v>25.84674907944554</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>17.73365105709228</v>
+        <v>15.92758365412048</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>17.74421424927913</v>
+        <v>22.01698252504616</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>17.78676783800294</v>
+        <v>22.54077736047224</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>17.79883204926689</v>
+        <v>24.1967726287097</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>17.73514489845242</v>
+        <v>13.03003122048848</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>17.89845242073461</v>
+        <v>44.96112840402076</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>17.92902245874659</v>
+        <v>52.11842416375909</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>17.86017677148375</v>
+        <v>38.15808253854041</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.86371131590911</v>
+        <v>49.02610107976367</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>17.96652468741663</v>
+        <v>54.49798162054556</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>18.00374151133025</v>
+        <v>62.36813135259757</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>17.91206230786769</v>
+        <v>44.69011717666037</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>17.88658190316031</v>
+        <v>42.91977419317709</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>17.91665878070251</v>
+        <v>49.47334518381115</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>17.84389550959482</v>
+        <v>35.46893416990979</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>17.86396994462899</v>
+        <v>48.79291465218498</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>17.9617614060135</v>
+        <v>52.5760017864976</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>17.99965922562966</v>
+        <v>60.06920148996369</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>17.90260024433762</v>
+        <v>41.17556314554349</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>17.8284566526161</v>
+        <v>34.80385690404315</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>17.84939927283117</v>
+        <v>39.82951089176427</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>17.79729095914022</v>
+        <v>29.29995622948153</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>17.83891921307727</v>
+        <v>44.23699106428581</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>17.89655706122804</v>
+        <v>44.74737026027609</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>17.92301588592014</v>
+        <v>49.95574778595444</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>17.84539928481609</v>
+        <v>33.8024795634676</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.90567270351996</v>
+        <v>11.90567270351984</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.040764551117</v>
+        <v>11.04076455111687</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11.81988534121577</v>
+        <v>11.81988534121575</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.008272469763742</v>
+        <v>9.008272469763615</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.33154442712316</v>
+        <v>22.33154442712319</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.29516128985669</v>
+        <v>19.29516128985677</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.39701611272634</v>
+        <v>25.39701611272642</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.81513060541774</v>
+        <v>28.81513060541802</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20.78733322438597</v>
+        <v>20.78733322438585</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>44.59406276267676</v>
+        <v>44.59406276267678</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.86983399834919</v>
+        <v>17.86983399834929</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.34434876789901</v>
+        <v>21.3443487678989</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.40121304997846</v>
+        <v>24.40121304997851</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.52288458333718</v>
+        <v>13.52288458333708</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.15552463024332</v>
+        <v>20.15552463024303</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.54004606930399</v>
+        <v>16.54004606930401</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.90090562002452</v>
+        <v>18.9009056200246</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.788142515135569</v>
+        <v>8.78814251513532</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42.9894831695113</v>
+        <v>42.98948316951135</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.03950228947361</v>
+        <v>26.03950228947348</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.29697065394067</v>
+        <v>27.29697065394061</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.26001324854301</v>
+        <v>17.26001324854312</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.72737812060923</v>
+        <v>19.72737812060909</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.11819338968965</v>
+        <v>25.11819338968954</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.92199306763148</v>
+        <v>26.92199306763139</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.94300157238488</v>
+        <v>16.9430015723849</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>52.21425147673948</v>
+        <v>52.21425147673941</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58.17836633056996</v>
+        <v>58.17836633056974</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>45.70374149292297</v>
+        <v>45.70374149292283</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>48.95365964804706</v>
+        <v>48.95365964804711</v>
       </c>
     </row>
     <row r="33">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70.05657869889525</v>
+        <v>70.05657869889511</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.49754560304943</v>
+        <v>55.49754560304963</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.80146028539802</v>
+        <v>47.80146028539823</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.13818085172651</v>
+        <v>53.13818085172657</v>
       </c>
     </row>
     <row r="38">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.12858285151168</v>
+        <v>49.12858285151162</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.30988524739443</v>
+        <v>59.30988524739433</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67.09786785516981</v>
+        <v>67.0978678551696</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.0704818668222</v>
+        <v>51.07048186682204</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>39.60223340964275</v>
+        <v>39.60223340964284</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>44.14488158965612</v>
+        <v>44.14488158965594</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.77533597819065</v>
+        <v>33.77533597819067</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.35243145151126</v>
+        <v>52.35243145151127</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>56.65075925757769</v>
+        <v>56.6507592575776</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>63.2024445259944</v>
+        <v>63.20244452599406</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>46.71841707765627</v>
+        <v>46.71841707765591</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41.55443156862988</v>
+        <v>41.55443156862989</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.74592871822848</v>
+        <v>32.74592871822833</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.64722868542724</v>
+        <v>38.64722868542713</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.83524294829828</v>
+        <v>22.83524294829827</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.87746582657094</v>
+        <v>25.87746582657091</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.54298084176806</v>
+        <v>47.54298084176817</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.80724058590941</v>
+        <v>46.80724058590948</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.48387272064366</v>
+        <v>55.48387272064362</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.78522749541037</v>
+        <v>35.78522749541047</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>48.09608191057373</v>
+        <v>48.09608191057374</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.07558603973508</v>
+        <v>44.07558603973501</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.83964789569215</v>
+        <v>41.83964789569218</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49.81742402153102</v>
+        <v>49.817424021531</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.32052003185533</v>
+        <v>27.32052003185527</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.36371808904521</v>
+        <v>46.36371808904522</v>
       </c>
     </row>
     <row r="65">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.1607012548548</v>
+        <v>42.16070125485454</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>49.83383769576093</v>
+        <v>49.83383769576076</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.0482334964472</v>
+        <v>28.04823349644721</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.63912896133445</v>
+        <v>45.63912896133438</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.32015334089811</v>
+        <v>29.32015334089807</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.50917727467427</v>
+        <v>33.50917727467413</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.26565718624577</v>
+        <v>20.26565718624565</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.28149071832324</v>
+        <v>36.28149071832323</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.69784779533538</v>
+        <v>35.69784779533537</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.44560711285033</v>
+        <v>40.44560711285019</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.68257936594345</v>
+        <v>23.6825793659435</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>51.6785963681666</v>
+        <v>51.67859636816667</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>59.66269794025641</v>
+        <v>59.66269794025614</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.35735428353426</v>
+        <v>42.35735428353439</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>56.50878641593403</v>
+        <v>56.508786415934</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>61.60457314986445</v>
+        <v>61.60457314986446</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>71.9412299298111</v>
+        <v>71.941229929811</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>49.31088875107191</v>
+        <v>49.31088875107203</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.86904938633815</v>
+        <v>48.86904938633808</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.10557028944562</v>
+        <v>56.10557028944552</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39.40132163094503</v>
+        <v>39.40132163094499</v>
       </c>
     </row>
     <row r="87">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.14102084976889</v>
+        <v>60.14102084976894</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>70.25535029757623</v>
+        <v>70.25535029757633</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.86201236404791</v>
+        <v>46.86201236404802</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.06271963390389</v>
+        <v>43.06271963390398</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49.25554738391419</v>
+        <v>49.25554738391425</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.74077628517523</v>
+        <v>36.74077628517522</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>55.62123996231019</v>
+        <v>55.62123996231016</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>58.18091530542366</v>
+        <v>58.1809153054236</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>67.16818370605414</v>
+        <v>67.16818370605395</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.70777488568523</v>
+        <v>46.70777488568524</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.12191541698073</v>
+        <v>29.1219154169807</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.16807105779776</v>
+        <v>24.16807105779764</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.426527694558</v>
+        <v>28.42652769455792</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>16.33827324599891</v>
+        <v>16.33827324599875</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.26385504627796</v>
+        <v>26.26385504627795</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.07806471108886</v>
+        <v>42.07806471108907</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>45.44769874715656</v>
+        <v>45.44769874715643</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>52.77950867734624</v>
+        <v>52.77950867734626</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.08453130772973</v>
+        <v>36.08453130772962</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>49.90688323694996</v>
+        <v>49.90688323695008</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.24399777023759</v>
+        <v>40.24399777023758</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.42011109844903</v>
+        <v>41.42011109844908</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.211287590439</v>
+        <v>48.21128759043901</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.71124311536094</v>
+        <v>27.71124311536088</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.63370130900356</v>
+        <v>49.63370130900336</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.22790539004222</v>
+        <v>45.22790539004209</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.74608396655563</v>
+        <v>42.74608396655543</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.6007259809013</v>
+        <v>49.60072598090125</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.08280718444717</v>
+        <v>29.08280718444713</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.74363316490791</v>
+        <v>47.74363316490796</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.79785625332035</v>
+        <v>29.7978562533203</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.15653674800897</v>
+        <v>34.15653674800888</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.37335280573346</v>
+        <v>20.37335280573335</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.86538430258658</v>
+        <v>34.86538430258652</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.02417936914625</v>
+        <v>36.02417936914639</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.2464655614189</v>
+        <v>40.2464655614187</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.46661706621985</v>
+        <v>24.4666170662197</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>53.07664728902653</v>
+        <v>53.07664728902672</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>61.23724246984251</v>
+        <v>61.23724246984246</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.12538474655897</v>
+        <v>43.12538474655912</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>56.29631799849086</v>
+        <v>56.29631799849079</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>63.34978250896188</v>
+        <v>63.34978250896174</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.15028129540602</v>
+        <v>73.15028129540576</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.05362030605669</v>
+        <v>52.05362030605679</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.33872709860204</v>
+        <v>51.33872709860199</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.03479779458882</v>
+        <v>59.03479779458885</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.87226995222902</v>
+        <v>40.87226995222883</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>56.444428747996</v>
+        <v>56.44442874799607</v>
       </c>
     </row>
     <row r="136">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>72.84083692183862</v>
+        <v>72.84083692183859</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>50.27308565641724</v>
+        <v>50.27308565641748</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.36531644320163</v>
+        <v>45.36531644320154</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.64827927738442</v>
+        <v>52.64827927738443</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>37.42311058388414</v>
+        <v>37.42311058388411</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>58.23092181888791</v>
+        <v>58.23092181888781</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>62.45770544155485</v>
+        <v>62.45770544155491</v>
       </c>
     </row>
     <row r="144">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>50.57584845662271</v>
+        <v>50.57584845662264</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.34284776209273</v>
+        <v>14.34284776209274</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23.7017070255878</v>
+        <v>23.70170702558768</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.38256695122168</v>
+        <v>26.38256695122165</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.389825351268</v>
+        <v>33.38982535126807</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.34932931653728</v>
+        <v>18.34932931653705</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.3264218634501</v>
+        <v>21.32642186345019</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>37.4864576867303</v>
+        <v>37.48645768673043</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.91719361189625</v>
+        <v>42.91719361189613</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.18350284377027</v>
+        <v>43.18350284377032</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>46.72287490878193</v>
+        <v>46.72287490878195</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.42959187587001</v>
+        <v>20.42959187587002</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.52305933867422</v>
+        <v>34.52305933867426</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>39.73582790872599</v>
+        <v>39.73582790872616</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.23451936925916</v>
+        <v>37.23451936925906</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.12544770799228</v>
+        <v>44.12544770799234</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.39040406508069</v>
+        <v>23.39040406508077</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.19474511371168</v>
+        <v>30.19474511371197</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.76010838756568</v>
+        <v>34.76010838756598</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.45450455920161</v>
+        <v>34.45450455920138</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.35058152098615</v>
+        <v>38.35058152098591</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.84763418414389</v>
+        <v>20.84763418414396</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.62842578891018</v>
+        <v>22.62842578891016</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.84021980153591</v>
+        <v>13.84021980153569</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>18.18438869343827</v>
+        <v>18.18438869343835</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.30865024244392</v>
+        <v>23.30865024244386</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.24305072523931</v>
+        <v>25.24305072523947</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>18.07686142197529</v>
+        <v>18.07686142197513</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>52.04527613029462</v>
+        <v>52.04527613029467</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.38921958676207</v>
+        <v>58.38921958676191</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.42325110281492</v>
+        <v>45.42325110281483</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.76356798061362</v>
+        <v>50.76356798061364</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.59586622944993</v>
+        <v>62.59586622944988</v>
       </c>
     </row>
     <row r="178">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.24981345838909</v>
+        <v>56.24981345838933</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.01630748333744</v>
+        <v>48.0163074833372</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.67042112681368</v>
+        <v>53.67042112681363</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.18258082017501</v>
+        <v>41.18258082017481</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.4460601616076</v>
+        <v>49.44606016160758</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>59.1909608760154</v>
+        <v>59.19096087601547</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>66.14862105613662</v>
+        <v>66.14862105613661</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.18288231386262</v>
+        <v>51.18288231386261</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.39052481400025</v>
+        <v>34.39052481400019</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>39.25690027849775</v>
+        <v>39.25690027849805</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.79745720757796</v>
+        <v>29.79745720757789</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.24115161876986</v>
+        <v>46.24115161876985</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>50.16155832170805</v>
+        <v>50.16155832170829</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.16221148703484</v>
+        <v>56.16221148703508</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.34548759066742</v>
+        <v>42.34548759066731</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.58625917917922</v>
+        <v>26.58625917917928</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.00030518115233</v>
+        <v>17.0003051811521</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.82756919559503</v>
+        <v>20.82756919559487</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3.887184937528652</v>
+        <v>3.887184937528762</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.95810644779664</v>
+        <v>27.95810644779662</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.92023340708721</v>
+        <v>39.92023340708727</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.91811932250193</v>
+        <v>34.91811932250194</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.07965061311828</v>
+        <v>41.07965061311824</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.64431312861666</v>
+        <v>13.64431312861661</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>48.26663366909861</v>
+        <v>48.26663366909864</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>40.54261368776034</v>
+        <v>40.5426136877603</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.28095110991941</v>
+        <v>33.28095110991924</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.22625511330244</v>
+        <v>39.22625511330238</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8.092578206109486</v>
+        <v>8.092578206109494</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.46626190704305</v>
+        <v>47.46626190704314</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.64728222497756</v>
+        <v>45.64728222497763</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.2099050484515</v>
+        <v>31.20990504845147</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.28601676909769</v>
+        <v>37.28601676909766</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>8.042602928190242</v>
+        <v>8.042602928190163</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.08394954405804</v>
+        <v>50.08394954405786</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.40602848285839</v>
+        <v>35.40602848285816</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.74375921841997</v>
+        <v>39.74375921841976</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.91652164406259</v>
+        <v>26.91652164406269</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.50122506664119</v>
+        <v>30.50122506664107</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.50915898106842</v>
+        <v>35.5091589810683</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.09873402625929</v>
+        <v>39.09873402625944</v>
       </c>
     </row>
     <row r="220">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>58.04692164415496</v>
+        <v>58.04692164415516</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66.38389800584585</v>
+        <v>66.38389800584599</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.35778745705733</v>
+        <v>49.35778745705716</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.14500753317064</v>
+        <v>52.14500753317078</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.66785134833942</v>
+        <v>63.66785134833962</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>72.66769039674274</v>
+        <v>72.6676903967426</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>54.99045072309062</v>
+        <v>54.99045072309056</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>55.16031336760356</v>
+        <v>55.16031336760359</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>63.18732226204475</v>
+        <v>63.18732226204465</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.71461521391849</v>
+        <v>45.7146152139186</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>51.26753459401678</v>
+        <v>51.26753459401656</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>60.72402314623141</v>
+        <v>60.7240231462313</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>69.57985070820412</v>
+        <v>69.57985070820411</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>50.24940762936958</v>
+        <v>50.24940762936962</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.69774365897963</v>
+        <v>50.69774365897976</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.16372658527201</v>
+        <v>59.16372658527212</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.52190752881516</v>
+        <v>43.52190752881504</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>58.30725030007411</v>
+        <v>58.30725030007402</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.63487999723868</v>
+        <v>62.63487999723871</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>71.65447265185801</v>
+        <v>71.65447265185807</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>51.53659952213544</v>
+        <v>51.53659952213538</v>
       </c>
     </row>
     <row r="242">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>19.53739954722312</v>
+        <v>19.53739954722318</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.21765209725011</v>
+        <v>24.21765209725009</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.388882715274054</v>
+        <v>3.388882715274057</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.58788782456338</v>
+        <v>34.58788782456337</v>
       </c>
     </row>
     <row r="247">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.9647337877114</v>
+        <v>28.96473378771163</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.66548350413137</v>
+        <v>34.66548350413139</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>4.321723109420152</v>
+        <v>4.321723109420045</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>50.6662395680839</v>
+        <v>50.66623956808387</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.79847004156763</v>
+        <v>39.79847004156755</v>
       </c>
     </row>
     <row r="253">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.63269195577511</v>
+        <v>34.63269195577505</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.2809400284457624</v>
+        <v>0.2809400284458405</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.98009925178773</v>
+        <v>49.98009925178758</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>47.80715507745571</v>
+        <v>47.80715507745568</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.8722216625344</v>
+        <v>30.87222166253439</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.88201169556721</v>
+        <v>36.88201169556713</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2.957881290194912</v>
+        <v>2.957881290194972</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.97598075592413</v>
+        <v>52.9759807559241</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.16486595517667</v>
+        <v>38.1648659551765</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>44.04131228115484</v>
+        <v>44.04131228115492</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.62442820120046</v>
+        <v>29.62442820120041</v>
       </c>
     </row>
     <row r="265">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.47678368033704</v>
+        <v>37.47678368033697</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.28824779726325</v>
+        <v>42.28824779726314</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.09578377684527</v>
+        <v>27.09578377684529</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>56.45047924743082</v>
+        <v>56.45047924743092</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>65.60562525875609</v>
+        <v>65.60562525875635</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>46.80017251624643</v>
+        <v>46.80017251624645</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54.00406266341176</v>
+        <v>54.0040626634119</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>61.17982715581292</v>
+        <v>61.17982715581297</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>70.68146436918275</v>
+        <v>70.68146436918259</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>50.95465196196574</v>
+        <v>50.95465196196579</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>54.93500857992908</v>
+        <v>54.93500857992912</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>63.99152564071672</v>
+        <v>63.99152564071675</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>44.76098921427397</v>
+        <v>44.76098921427389</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>55.2879585435811</v>
+        <v>55.28795854358097</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>62.31380884774538</v>
+        <v>62.31380884774526</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>72.03352153819914</v>
+        <v>72.0335215381991</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>51.10297346286004</v>
+        <v>51.10297346286006</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>52.58183728136382</v>
+        <v>52.58183728136373</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>61.48005499762112</v>
+        <v>61.48005499762125</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45.0284367212326</v>
+        <v>45.02843672123261</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>58.20989173815229</v>
+        <v>58.20989173815235</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>61.52949477111927</v>
+        <v>61.52949477111926</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>71.06048981329033</v>
+        <v>71.06048981329039</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>50.10513928952572</v>
+        <v>50.10513928952581</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9.769213017038847</v>
+        <v>9.76921301703887</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.30107920748299</v>
+        <v>11.3010792074829</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.71668648820765</v>
+        <v>11.71668648820773</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.188808880375198</v>
+        <v>8.188808880375113</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.20713236213373</v>
+        <v>19.20713236213367</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>14.08510161946074</v>
+        <v>14.08510161946062</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.66696878061457</v>
+        <v>20.66696878061463</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.97367224710992</v>
+        <v>22.97367224710986</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>15.22233569697694</v>
+        <v>15.22233569697714</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>38.36950486779402</v>
+        <v>38.36950486779418</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>11.79210136387007</v>
+        <v>11.79210136387008</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.27837106067419</v>
+        <v>16.27837106067421</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.04162110549262</v>
+        <v>18.04162110549276</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>7.594229716873514</v>
+        <v>7.594229716873546</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.5372109255559</v>
+        <v>36.53721092555591</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.59622827304716</v>
+        <v>13.59622827304719</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.28983171081736</v>
+        <v>14.2898317108173</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.89180420242295</v>
+        <v>15.89180420242299</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5.590417417393098</v>
+        <v>5.590417417393052</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.50232143810445</v>
+        <v>35.50232143810452</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.24878423091675</v>
+        <v>23.24878423091679</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.50240747103565</v>
+        <v>25.50240747103587</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>15.81617124141235</v>
+        <v>15.81617124141232</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.58462630769709</v>
+        <v>20.58462630769699</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.85845154874386</v>
+        <v>25.85845154874385</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.27392214389361</v>
+        <v>28.27392214389373</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>18.05577910734633</v>
+        <v>18.0557791073464</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>41.9537467334394</v>
+        <v>41.95374673343952</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>47.62896665935374</v>
+        <v>47.62896665935383</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.32773389425095</v>
+        <v>34.32773389425115</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.65707184024887</v>
+        <v>46.65707184024896</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.56033645194074</v>
+        <v>55.56033645194081</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>63.18681818459404</v>
+        <v>63.18681818459413</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.88748944719642</v>
+        <v>48.88748944719659</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.48098899442783</v>
+        <v>38.48098899442778</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.51970530180985</v>
+        <v>43.51970530180979</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.68461857073411</v>
+        <v>30.68461857073419</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>48.15682714538093</v>
+        <v>48.15682714538099</v>
       </c>
     </row>
     <row r="328">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>63.16974209585393</v>
+        <v>63.16974209585394</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.55548348508647</v>
+        <v>47.5554834850864</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.0637256159778</v>
+        <v>33.06372561597776</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.62855353139665</v>
+        <v>37.62855353139658</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.10648806584776</v>
+        <v>27.10648806584759</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.69785732628949</v>
+        <v>51.69785732628957</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>56.63665051157383</v>
+        <v>56.63665051157378</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.01283200072291</v>
+        <v>64.01283200072288</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>47.2996376378256</v>
+        <v>47.29963763782561</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.065078118818395</v>
+        <v>7.065078118818516</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.085393161887321</v>
+        <v>7.085393161887438</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>7.556015149906649</v>
+        <v>7.556015149906493</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.486562337319498</v>
+        <v>7.486562337319548</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9.011026835518557</v>
+        <v>9.011026835518638</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.94536994249188</v>
+        <v>10.94536994249194</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.88242806166843</v>
+        <v>15.88242806166848</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.33442152516329</v>
+        <v>18.33442152516326</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.33855122147011</v>
+        <v>12.33855122146998</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.03817472313196</v>
+        <v>19.03817472313185</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.909764744494225</v>
+        <v>9.909764744494062</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.68883053487877</v>
+        <v>12.68883053487887</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.83135330921833</v>
+        <v>14.83135330921839</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>6.245275119507479</v>
+        <v>6.245275119507305</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.33214522125329</v>
+        <v>17.33214522125326</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.24303626128859</v>
+        <v>10.2430362612885</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>7.317200058842758</v>
+        <v>7.317200058842651</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>8.800567892833216</v>
+        <v>8.800567892833163</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>2.175521428314639</v>
+        <v>2.175521428314568</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.10350103592589</v>
+        <v>15.10350103592585</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.72271248354224</v>
+        <v>14.72271248354233</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.08062820980685</v>
+        <v>14.08062820980668</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.10078082463292</v>
+        <v>7.100780824632906</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.08634985794386</v>
+        <v>17.08634985794381</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.35844700156678</v>
+        <v>16.35844700156665</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.60754404150956</v>
+        <v>15.60754404150932</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.747350917506083</v>
+        <v>5.747350917505987</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.86318247474923</v>
+        <v>24.86318247474915</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.03012152451386</v>
+        <v>27.03012152451385</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.60383036343483</v>
+        <v>16.60383036343461</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>37.10603723200704</v>
+        <v>37.10603723200705</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.28566632002372</v>
+        <v>39.28566632002366</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.00991509744927</v>
+        <v>43.00991509744937</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.46521697928411</v>
+        <v>27.46521697928415</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.67933890454991</v>
+        <v>20.67933890454976</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.18102845166239</v>
+        <v>22.18102845166237</v>
       </c>
     </row>
     <row r="374">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.32356368138209</v>
+        <v>36.32356368138204</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>35.60300411210302</v>
+        <v>35.60300411210309</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.68442431118442</v>
+        <v>38.6844243111844</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.85657780892315</v>
+        <v>21.85657780892305</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.62030606148721</v>
+        <v>12.62030606148714</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.05421699480344</v>
+        <v>14.05421699480329</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>6.893926762349949</v>
+        <v>6.893926762350027</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.93448338867282</v>
+        <v>37.93448338867274</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.25746520874304</v>
+        <v>34.25746520874289</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.64167898793931</v>
+        <v>36.64167898793918</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.603123920874</v>
+        <v>20.60312392087412</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.66537711442911</v>
+        <v>44.66537711442907</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.94722657561188</v>
+        <v>31.94722657561195</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.73323796946196</v>
+        <v>36.73323796946193</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.43139874565567</v>
+        <v>25.4313987456558</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.92911724347147</v>
+        <v>22.92911724347134</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>52.30531025749375</v>
+        <v>52.30531025749374</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>50.64867878140521</v>
+        <v>50.64867878140525</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>58.19963186292219</v>
+        <v>58.19963186292203</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.90251549735854</v>
+        <v>40.90251549735859</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.52975700751273</v>
+        <v>41.52975700751266</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.14704418018746</v>
+        <v>49.14704418018749</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.55086735171074</v>
+        <v>46.55086735171077</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.5877350130462</v>
+        <v>53.58773501304614</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.21823883827021</v>
+        <v>32.21823883827015</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>40.50195206365729</v>
+        <v>40.5019520636571</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.38444435637849</v>
+        <v>52.38444435637839</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.53756790752573</v>
+        <v>42.53756790752575</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>49.00137058771061</v>
+        <v>49.00137058771055</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.65637933947571</v>
+        <v>26.65637933947572</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.63265542853613</v>
+        <v>39.6326554285362</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.73612719196217</v>
+        <v>25.73612719196222</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.11203526548818</v>
+        <v>30.11203526548813</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.20110293377441</v>
+        <v>18.20110293377431</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.26910053292577</v>
+        <v>35.26910053292579</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.83694408537228</v>
+        <v>35.83694408537227</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>39.6240539399817</v>
+        <v>39.62405393998169</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.2580925030054</v>
+        <v>26.25809250300545</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.19540317648845</v>
+        <v>46.19540317648839</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.84333383442787</v>
+        <v>53.84333383442774</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.9033694895306</v>
+        <v>38.90336948953046</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>52.81982645582228</v>
+        <v>52.81982645582215</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>58.41118877666375</v>
+        <v>58.41118877666369</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>67.11525337255519</v>
+        <v>67.11525337255527</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>50.04998232094451</v>
+        <v>50.04998232094444</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.83655731965084</v>
+        <v>43.83655731965075</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>51.12326155013448</v>
+        <v>51.12326155013432</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.98738324462719</v>
+        <v>35.9873832446273</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>53.60179571797003</v>
+        <v>53.60179571796991</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>58.43737689596322</v>
+        <v>58.43737689596306</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>67.29380383968416</v>
+        <v>67.29380383968402</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>48.94479586642247</v>
+        <v>48.94479586642241</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.8180767141091</v>
+        <v>36.81807671410898</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>43.73557647930433</v>
+        <v>43.73557647930411</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.57505812156416</v>
+        <v>30.57505812156402</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.4123778599222</v>
+        <v>55.41237785992223</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>57.98091897764735</v>
+        <v>57.98091897764711</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>66.41464130055272</v>
+        <v>66.41464130055262</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.80939109806756</v>
+        <v>47.80939109806752</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.219617239792107</v>
+        <v>5.21961723979204</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>6.560448320257713</v>
+        <v>6.560448320257628</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.616508106434495</v>
+        <v>6.616508106434548</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.492139649191476</v>
+        <v>3.492139649191412</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.941300730744354</v>
+        <v>8.941300730744263</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.90299346512724</v>
+        <v>13.90299346512731</v>
       </c>
     </row>
     <row r="440">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.54217966618925</v>
+        <v>20.54217966618922</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.16159996190077</v>
+        <v>14.16159996190071</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>33.82047123570098</v>
+        <v>33.82047123570106</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>11.56140505060966</v>
+        <v>11.56140505060946</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.64270226318726</v>
+        <v>13.64270226318732</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.12084246891092</v>
+        <v>15.12084246891098</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>6.809717611240917</v>
+        <v>6.809717611240877</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.2951921409867</v>
+        <v>30.29519214098664</v>
       </c>
     </row>
     <row r="449">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.23557048627375</v>
+        <v>10.23557048627381</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.23269386085231</v>
+        <v>11.23269386085229</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.837199849372105</v>
+        <v>4.83719984937213</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.64553189082422</v>
+        <v>21.64553189082409</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.3529614011005</v>
+        <v>11.35296140110056</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.07577005505747</v>
+        <v>12.07577005505736</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.99684196793779</v>
+        <v>5.996841967937648</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.51002965935478</v>
+        <v>11.51002965935474</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.62871689122333</v>
+        <v>14.62871689122326</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.99398643017781</v>
+        <v>14.99398643017788</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8.683921879463774</v>
+        <v>8.683921879463657</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.13116821892439</v>
+        <v>34.13116821892437</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.17056177820311</v>
+        <v>38.17056177820323</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.62788075085028</v>
+        <v>27.62788075085021</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>44.24156810998655</v>
+        <v>44.24156810998657</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>51.33220266095902</v>
+        <v>51.33220266095907</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>56.39792796779784</v>
+        <v>56.39792796779794</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>43.49180508387155</v>
+        <v>43.49180508387151</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.37615198755994</v>
+        <v>28.37615198755976</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.32152162202667</v>
+        <v>31.32152162202669</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.79584725496805</v>
+        <v>21.79584725496785</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.00159593619293</v>
+        <v>43.00159593619284</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.98820482534236</v>
+        <v>47.98820482534225</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.28284848357504</v>
+        <v>52.28284848357503</v>
       </c>
     </row>
     <row r="474">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>15.5046505128347</v>
+        <v>15.50465051283451</v>
       </c>
     </row>
     <row r="476">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>12.42314129361356</v>
+        <v>12.42314129361345</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.01657831128814</v>
+        <v>41.01657831128802</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.87873501665715</v>
+        <v>41.87873501665693</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.92898637810976</v>
+        <v>44.92898637810974</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.17570345969936</v>
+        <v>33.17570345969931</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.3433276779942176</v>
+        <v>0.3433276779942247</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-0.6980681158642739</v>
+        <v>-0.6980681158641993</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-0.6184759775316557</v>
+        <v>-0.6184759775316486</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1.933467410581326</v>
+        <v>-1.933467410581436</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.32590292497069</v>
+        <v>23.32590292497071</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>4.65788112684298</v>
+        <v>4.657881126842785</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.438164927395196</v>
+        <v>8.438164927395176</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.900861899800827</v>
+        <v>9.900861899800727</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>3.994832252401174</v>
+        <v>3.994832252401164</v>
       </c>
     </row>
     <row r="491">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>6.678388846936677</v>
+        <v>6.678388846936745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.465392908796211</v>
+        <v>8.465392908796169</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.455258979105462</v>
+        <v>9.455258979105427</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.05138251598768306</v>
+        <v>0.05138251598753385</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.59734838320273</v>
+        <v>41.59734838320261</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.22567266940007</v>
+        <v>11.22567266940003</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.15437726031111</v>
+        <v>11.15437726031108</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.70482187635995</v>
+        <v>12.70482187635985</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.774370710111491</v>
+        <v>4.774370710111445</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.1462537891375</v>
+        <v>40.14625378913733</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.77168311964287</v>
+        <v>26.77168311964282</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.23888785516872</v>
+        <v>30.23888785516856</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.50117467148383</v>
+        <v>19.50117467148392</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.95051607081285</v>
+        <v>27.9505160708128</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.27227028808732</v>
+        <v>29.27227028808722</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.79719028448316</v>
+        <v>32.79719028448318</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.64874705881717</v>
+        <v>19.64874705881716</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.60829377074295</v>
+        <v>44.60829377074297</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.42514799651164</v>
+        <v>51.42514799651173</v>
       </c>
     </row>
     <row r="511">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>49.79714911246651</v>
+        <v>49.79714911246657</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>57.1175578658625</v>
+        <v>57.11755786586243</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>65.82192901062572</v>
+        <v>65.82192901062596</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>47.29143214880569</v>
+        <v>47.29143214880563</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>43.99875252942535</v>
+        <v>43.99875252942526</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>50.48019459690836</v>
+        <v>50.48019459690843</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.50676231626471</v>
+        <v>35.50676231626468</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>52.06470737259479</v>
+        <v>52.06470737259472</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>59.27637980537378</v>
+        <v>59.27637980537369</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>68.2195874524335</v>
+        <v>68.21958745243353</v>
       </c>
     </row>
     <row r="522">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.38326598916626</v>
+        <v>39.38326598916636</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>45.61639846465417</v>
+        <v>45.61639846465418</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.84147825851736</v>
+        <v>33.84147825851723</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.1734792158381</v>
+        <v>53.17347921583796</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.15111444100426</v>
+        <v>58.15111444100418</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>67.0665765078753</v>
+        <v>67.06657650787507</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.42118311938771</v>
+        <v>48.42118311938765</v>
       </c>
     </row>
     <row r="530">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>11.9079016589121</v>
+        <v>11.90790165891211</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.09035211444412</v>
+        <v>12.09035211444405</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.11639634331869</v>
+        <v>10.11639634331862</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>4.974436520433059</v>
+        <v>4.974436520433159</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.37261995512697</v>
+        <v>15.37261995512704</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.04893395710703</v>
+        <v>23.04893395710711</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.29509313560131</v>
+        <v>25.2950931356014</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.74624363734302</v>
+        <v>19.74624363734309</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.55659152301239</v>
+        <v>22.55659152301219</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.47772301630332</v>
+        <v>14.47772301630348</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.01704543402705</v>
+        <v>20.01704543402711</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.83022764102624</v>
+        <v>21.83022764102626</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.57503947366681</v>
+        <v>13.57503947366676</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.78338779354973</v>
+        <v>20.78338779354974</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.08833163530835</v>
+        <v>13.08833163530826</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.14834216677768</v>
+        <v>16.1483421667776</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.93548093907993</v>
+        <v>17.93548093907978</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.93533677591622</v>
+        <v>10.93533677591617</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.23052115083805</v>
+        <v>16.23052115083793</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.975354166196301</v>
+        <v>6.975354166196247</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.83956503151548</v>
+        <v>6.839565031515384</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.440452979990244</v>
+        <v>2.440452979990148</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.53536861330764</v>
+        <v>15.53536861330762</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.64199085704954</v>
+        <v>18.64199085704967</v>
       </c>
     </row>
     <row r="555">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.32667188352427</v>
+        <v>12.32667188352433</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.48541147120458</v>
+        <v>23.48541147120452</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.89239402418958</v>
+        <v>25.89239402418976</v>
       </c>
     </row>
     <row r="559">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.38291642799098</v>
+        <v>34.38291642799092</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.78854286124745</v>
+        <v>42.78854286124739</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>48.01034093385954</v>
+        <v>48.0103409338596</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.68752069028785</v>
+        <v>34.68752069028798</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.64475594769607</v>
+        <v>20.64475594769615</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.35778910815878</v>
+        <v>22.35778910815879</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.9303629587006</v>
+        <v>14.93036295870087</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.52212589723782</v>
+        <v>34.52212589723776</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.27011898302045</v>
+        <v>42.27011898302025</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>47.27197410745789</v>
+        <v>47.2719741074578</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.45523299088325</v>
+        <v>32.45523299088326</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.41845543532229</v>
+        <v>12.41845543532234</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.75573068429718</v>
+        <v>13.75573068429732</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>9.036828776127226</v>
+        <v>9.036828776126931</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.26052689648996</v>
+        <v>33.26052689648997</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.4497386817448</v>
+        <v>37.44973868174475</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.30889399515243</v>
+        <v>42.30889399515247</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.30513423150371</v>
+        <v>29.3051342315037</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-0.9545308260059215</v>
+        <v>-0.9545308260058079</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>3.046103179746666</v>
+        <v>3.046103179746545</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.372583605804031</v>
+        <v>2.372583605804007</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.234273857930852</v>
+        <v>5.234273857930766</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-2.212102871041459</v>
+        <v>-2.212102871041484</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.6389067157762156</v>
+        <v>0.6389067157761836</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.726843046892441</v>
+        <v>7.726843046892387</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>8.051608770387059</v>
+        <v>8.051608770387155</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.18660030770253</v>
+        <v>8.186600307702633</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>6.083819407759904</v>
+        <v>6.083819407760011</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.193182072228801</v>
+        <v>1.193182072228865</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.696632721509236</v>
+        <v>6.696632721509218</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>6.632754441272336</v>
+        <v>6.632754441272446</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.693975653084994</v>
+        <v>4.693975653085044</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>4.16269579888008</v>
+        <v>4.162695798880186</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>2.699985293200928</v>
+        <v>2.699985293200804</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.036305673566318</v>
+        <v>7.036305673566311</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>7.519915746384886</v>
+        <v>7.519915746384857</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>6.992423021614027</v>
+        <v>6.992423021613895</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>3.172951930440593</v>
+        <v>3.172951930440533</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1.27600501706527</v>
+        <v>1.276005017065241</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.6110836163689619</v>
+        <v>0.6110836163688518</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>0.2374437329069963</v>
+        <v>0.2374437329069252</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.120428279331026</v>
+        <v>9.120428279331058</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.79703843197378</v>
+        <v>12.79703843197381</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.02580653085723</v>
+        <v>13.02580653085722</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.7350770642378</v>
+        <v>9.735077064237922</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.775326776361947</v>
+        <v>7.775326776362142</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.746462600478544</v>
+        <v>8.746462600478507</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.81409226922969</v>
+        <v>5.814092269229583</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.62075336478844</v>
+        <v>21.62075336478851</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.98006425237761</v>
+        <v>29.98006425237767</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.92409181381126</v>
+        <v>32.92409181381134</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.24027069112839</v>
+        <v>25.24027069112847</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.005100565540708</v>
+        <v>5.005100565540648</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>5.228471775238525</v>
+        <v>5.228471775238457</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.09331189585907</v>
+        <v>3.093311895859344</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.0414993304503</v>
+        <v>22.04149933045027</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.73933381091739</v>
+        <v>29.73933381091742</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.31845751329375</v>
+        <v>32.31845751329383</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.7038706150727</v>
+        <v>23.70387061507277</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>2.066816439101565</v>
+        <v>2.066816439101515</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.401909141351574</v>
+        <v>2.401909141351474</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2.92370058230027</v>
+        <v>2.923700582300405</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.64834704419822</v>
+        <v>22.64834704419827</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.95730917285801</v>
+        <v>26.95730917285815</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.90134479047036</v>
+        <v>29.90134479047041</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.72539235501738</v>
+        <v>22.72539235501734</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>17.42573656937378</v>
+        <v>17.42573656937407</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.29736124312616</v>
+        <v>19.29736124312635</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.3415485545857</v>
+        <v>21.34154855458576</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.71940058812761</v>
+        <v>19.7194005881275</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>4.315998261269836</v>
+        <v>4.315998261269915</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.55361605977316</v>
+        <v>33.55361605977297</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>44.31149996222967</v>
+        <v>44.31149996222992</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>49.77486396806375</v>
+        <v>49.77486396806387</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.55393746839216</v>
+        <v>42.55393746839231</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.72845993035909</v>
+        <v>25.72845993035899</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.13238008281051</v>
+        <v>36.13238008281053</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.8633185785114</v>
+        <v>44.86331857851128</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>50.06135904010938</v>
+        <v>50.06135904010952</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.24466576081184</v>
+        <v>40.24466576081199</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.21765073541654</v>
+        <v>27.21765073541663</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.18102315657373</v>
+        <v>30.18102315657377</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.87835541955943</v>
+        <v>30.87835541955956</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.46492315755997</v>
+        <v>34.46492315756016</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.0796466220844</v>
+        <v>27.07964662208428</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.49491743541581</v>
+        <v>26.49491743541579</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.540820945701494</v>
+        <v>8.540820945701469</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.856919243662915</v>
+        <v>8.85691924366288</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>4.351395708005825</v>
+        <v>4.351395708005732</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.30964027140554</v>
+        <v>15.30964027140566</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.14583747309139</v>
+        <v>17.14583747309145</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.25416695075787</v>
+        <v>18.25416695075791</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>10.49180946484729</v>
+        <v>10.49180946484734</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.91283403972882</v>
+        <v>34.91283403972883</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.58003475312145</v>
+        <v>39.58003475312159</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.90285920591715</v>
+        <v>31.9028592059171</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.22036354507321</v>
+        <v>43.22036354507337</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.16815148197244</v>
+        <v>54.16815148197234</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.33583577397339</v>
+        <v>61.33583577397341</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.55323505358301</v>
+        <v>48.55323505358322</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.76050327126077</v>
+        <v>34.76050327126102</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.8566008400575</v>
+        <v>38.85660084005738</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.30305348544055</v>
+        <v>31.30305348544066</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.51420033267028</v>
+        <v>45.51420033267029</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>54.3447816360346</v>
+        <v>54.34478163603469</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>61.2270036461981</v>
+        <v>61.22700364619795</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>46.93391772016198</v>
+        <v>46.93391772016184</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.89685844718606</v>
+        <v>24.89685844718614</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.15382604522242</v>
+        <v>28.1538260452222</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.97086901134161</v>
+        <v>22.97086901134172</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>45.55207216205316</v>
+        <v>45.55207216205324</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.68569594827208</v>
+        <v>46.68569594827207</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.92942703995266</v>
+        <v>51.92942703995256</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.47567674725796</v>
+        <v>37.47567674725808</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>37.7601855913859</v>
+        <v>37.76018559138583</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.76607060634674</v>
+        <v>34.7660706063467</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>39.00666016579857</v>
+        <v>39.00666016579864</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.68458791848481</v>
+        <v>24.68458791848473</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.15096490646938</v>
+        <v>22.15096490646936</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.79940526863262</v>
+        <v>45.79940526863268</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.78161698320467</v>
+        <v>49.78161698320459</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>56.68950246539911</v>
+        <v>56.68950246539927</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.80982034314631</v>
+        <v>40.80982034314639</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>41.73037750888389</v>
+        <v>41.73037750888391</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.76950998833352</v>
+        <v>42.76950998833348</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>45.02992252519573</v>
+        <v>45.02992252519572</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>51.31456370975341</v>
+        <v>51.31456370975323</v>
       </c>
     </row>
     <row r="687">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.77675262554632</v>
+        <v>40.77675262554628</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>45.20672874466874</v>
+        <v>45.20672874466867</v>
       </c>
     </row>
     <row r="690">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.82947673557162</v>
+        <v>50.82947673557165</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.48071490010611</v>
+        <v>32.48071490010602</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.50668361137291</v>
+        <v>38.50668361137294</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.22140889734372</v>
+        <v>24.2214088973437</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.10724928116399</v>
+        <v>27.10724928116391</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.14913240133114</v>
+        <v>17.14913240133107</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.27983779375938</v>
+        <v>30.27983779375932</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.66027366711433</v>
+        <v>30.66027366711422</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.40983544821709</v>
+        <v>33.409835448217</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.05326365910906</v>
+        <v>21.05326365910902</v>
       </c>
     </row>
     <row r="701">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.5252490702067</v>
+        <v>49.52524907020681</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.25691771110019</v>
+        <v>36.25691771110009</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.30129855827408</v>
+        <v>50.301298558274</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.66160022516506</v>
+        <v>55.66160022516516</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>63.37764927159345</v>
+        <v>63.37764927159363</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>45.78177375360856</v>
+        <v>45.78177375360866</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.3959003234998</v>
+        <v>41.39590032349977</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.95511307942735</v>
+        <v>46.95511307942736</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.98787609900934</v>
+        <v>33.98787609900947</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.77338342878649</v>
+        <v>48.77338342878653</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.49200855977072</v>
+        <v>53.49200855977071</v>
       </c>
     </row>
     <row r="713">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.29590395457058</v>
+        <v>42.29590395457061</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.40208619547847</v>
+        <v>35.4020861954785</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.05610191104638</v>
+        <v>40.05610191104633</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.63665387467265</v>
+        <v>30.63665387467248</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.88917441541888</v>
+        <v>49.88917441541886</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>51.98669065373015</v>
+        <v>51.98669065372999</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>58.38082848749691</v>
+        <v>58.38082848749686</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>41.9781556032994</v>
+        <v>41.97815560329937</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>40.60281478311025</v>
+        <v>40.60281478311038</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.87378913848644</v>
+        <v>28.8737891384863</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.80461650077304</v>
+        <v>32.80461650077316</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.82344785768838</v>
+        <v>22.82344785768834</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.58736502411901</v>
+        <v>23.58736502411907</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.75892023466644</v>
+        <v>47.75892023466648</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>45.79324110678031</v>
+        <v>45.79324110678036</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>52.56907756716814</v>
+        <v>52.56907756716799</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.2158844186295</v>
+        <v>36.21588441862962</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.32196903751733</v>
+        <v>42.32196903751755</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>45.2232178027931</v>
+        <v>45.22321780279312</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.46764360276055</v>
+        <v>41.46764360276062</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>47.81065725218971</v>
+        <v>47.81065725218962</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.76826441740408</v>
+        <v>27.76826441740376</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.70771663615483</v>
+        <v>40.70771663615468</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>48.49079341615025</v>
+        <v>48.49079341615014</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.4329254710438</v>
+        <v>36.43292547104366</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41.96572754721286</v>
+        <v>41.96572754721281</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.27544995546643</v>
+        <v>22.27544995546642</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.46116962703704</v>
+        <v>42.46116962703721</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.55082432550682</v>
+        <v>24.55082432550656</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.25908233183453</v>
+        <v>27.25908233183439</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>15.69496065146496</v>
+        <v>15.69496065146501</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.56705716404709</v>
+        <v>29.56705716404728</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.07884088624314</v>
+        <v>30.07884088624289</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.64970284184889</v>
+        <v>32.64970284184896</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.66099043624334</v>
+        <v>19.66099043624332</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.34782077548785</v>
+        <v>47.34782077548771</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.53598412620228</v>
+        <v>54.53598412620216</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.36133969759932</v>
+        <v>40.36133969759913</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.0253289228062</v>
+        <v>50.02532892280629</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.44379513708301</v>
+        <v>57.44379513708328</v>
       </c>
     </row>
     <row r="754">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.5653925137876</v>
+        <v>48.56539251378755</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.87587906450939</v>
+        <v>43.87587906450928</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.61515634338285</v>
+        <v>50.61515634338315</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.2094891200732</v>
+        <v>36.20948912007314</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>49.91131329933097</v>
+        <v>49.9113132993311</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>55.06701661865168</v>
+        <v>55.06701661865156</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>63.47820123245899</v>
+        <v>63.47820123245886</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.49619305991757</v>
+        <v>44.49619305991759</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.96576202245966</v>
+        <v>36.96576202245954</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>43.10564429626258</v>
+        <v>43.10564429626243</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.67016529572953</v>
+        <v>30.67016529572944</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.38199492370457</v>
+        <v>54.38199492370462</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.25454858221529</v>
+        <v>55.25454858221526</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>62.68974175597785</v>
+        <v>62.68974175597778</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>43.63976924720594</v>
+        <v>43.63976924720563</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.86048685944868</v>
+        <v>38.86048685944856</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.14405803285171</v>
+        <v>26.14405803285177</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.8371761708918</v>
+        <v>28.83717617089187</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.84365349675695</v>
+        <v>19.84365349675697</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.96596788251796</v>
+        <v>41.96596788251789</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.39096965496623</v>
+        <v>49.39096965496636</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.31399324398789</v>
+        <v>45.31399324398799</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.20543827213874</v>
+        <v>51.20543827213876</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.62722269227336</v>
+        <v>34.62722269227337</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>59.06791635251402</v>
+        <v>59.06791635251427</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>51.90964526739618</v>
+        <v>51.90964526739623</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.74487418884598</v>
+        <v>45.74487418884608</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.78299221342471</v>
+        <v>51.78299221342488</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.36940693925319</v>
+        <v>31.36940693925325</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>60.05635325662584</v>
+        <v>60.05635325662587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>52.73483917128332</v>
+        <v>52.73483917128314</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.59619665329041</v>
+        <v>38.59619665329033</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.24967159286729</v>
+        <v>44.24967159286726</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.97566311308463</v>
+        <v>24.97566311308477</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.45191175743529</v>
+        <v>60.45191175743523</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.12895782832998</v>
+        <v>29.12895782832979</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.71446828817504</v>
+        <v>30.7144682881748</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.458116708964</v>
+        <v>21.4581167089642</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.86841797663097</v>
+        <v>45.86841797663099</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.1273411467788</v>
+        <v>35.12734114677873</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.73374778565543</v>
+        <v>36.7337477856554</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.50290762614178</v>
+        <v>26.5029076261416</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.6456638580095</v>
+        <v>49.64566385800934</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>55.00133631457307</v>
+        <v>55.00133631457297</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.90107983832768</v>
+        <v>43.90107983832773</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>66.27836688821529</v>
+        <v>66.27836688821544</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>62.5924534884556</v>
+        <v>62.5924534884555</v>
       </c>
     </row>
     <row r="802">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>55.1085974145393</v>
+        <v>55.10859741453925</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>48.91888575258933</v>
+        <v>48.91888575258942</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.03631342515465</v>
+        <v>54.03631342515463</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.49305912933765</v>
+        <v>42.49305912933755</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.2630796019028</v>
+        <v>68.26307960190283</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.12841649931657</v>
+        <v>62.12841649931658</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>68.71531996907223</v>
+        <v>68.7153199690721</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>52.65500304022592</v>
+        <v>52.65500304022589</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.77068670981353</v>
+        <v>42.770686709814</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>48.36127676475984</v>
+        <v>48.36127676475991</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>37.16239037418821</v>
+        <v>37.16239037418816</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>70.63111123410133</v>
+        <v>70.63111123410118</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>60.26111426308215</v>
+        <v>60.26111426308231</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>66.64096523068399</v>
+        <v>66.64096523068383</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>49.60061321943586</v>
+        <v>49.60061321943579</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.02384000549032</v>
+        <v>23.02384000549045</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.04173512350194</v>
+        <v>22.04173512350195</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.51176524970678</v>
+        <v>25.51176524970675</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.78007221419813</v>
+        <v>14.78007221419822</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.62894622579615</v>
+        <v>16.62894622579627</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.91933275971096</v>
+        <v>41.91933275971108</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.34019655840099</v>
+        <v>47.34019655840104</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>54.56798724188359</v>
+        <v>54.56798724188362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.63476649611225</v>
+        <v>38.63476649611234</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>41.01072854666047</v>
+        <v>41.01072854666073</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>39.89452363788335</v>
+        <v>39.89452363788325</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.99835116592884</v>
+        <v>42.99835116592875</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.55455745908823</v>
+        <v>49.55455745908821</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.21730806466164</v>
+        <v>30.21730806466176</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.5184400656902</v>
+        <v>40.51844006569026</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.83213054182512</v>
+        <v>34.83213054182515</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.32448598635737</v>
+        <v>36.32448598635746</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.37995273324818</v>
+        <v>41.37995273324827</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>23.99049057632392</v>
+        <v>23.99049057632401</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.27999322846869</v>
+        <v>33.27999322846875</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.34528971593459</v>
+        <v>18.34528971593445</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.57426014169659</v>
+        <v>20.57426014169636</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.49677931713676</v>
+        <v>10.4967793171367</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.09741281130201</v>
+        <v>23.09741281130209</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.91277665797612</v>
+        <v>24.9127766579761</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.01038439880289</v>
+        <v>27.01038439880294</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>15.96167954364791</v>
+        <v>15.9616795436479</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.01529726623168</v>
+        <v>43.01529726623156</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.74569681493631</v>
+        <v>49.74569681493603</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.36535287390212</v>
+        <v>35.36535287390206</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.26337747057468</v>
+        <v>49.26337747057463</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>56.63546566396067</v>
+        <v>56.63546566396047</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.80376168405182</v>
+        <v>64.80376168405198</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.53945538479551</v>
+        <v>47.53945538479535</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.66418379436767</v>
+        <v>40.66418379436762</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.73488395712062</v>
+        <v>46.73488395712073</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.36807423335662</v>
+        <v>32.36807423335671</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>49.08183961881885</v>
+        <v>49.08183961881888</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.88787456850979</v>
+        <v>54.88787456850966</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.72474056684439</v>
+        <v>62.72474056684431</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.15080171189044</v>
+        <v>44.15080171189034</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.17064425955748</v>
+        <v>28.17064425955734</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>32.43558342770745</v>
+        <v>32.43558342770697</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.80448998978695</v>
+        <v>21.80448998978675</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>46.52896684133061</v>
+        <v>46.52896684133074</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>48.83255165948633</v>
+        <v>48.83255165948638</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.71514623719988</v>
+        <v>54.71514623719996</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.39695691985248</v>
+        <v>38.39695691985254</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>11.48461191940528</v>
+        <v>11.48461191940536</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>11.95977799791777</v>
+        <v>11.95977799791773</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.34278835764618</v>
+        <v>12.3427883576462</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.17930473737111</v>
+        <v>10.17930473737106</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>14.36699259509237</v>
+        <v>14.36699259509228</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.32248794781587</v>
+        <v>19.32248794781581</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.49902169154239</v>
+        <v>24.49902169154229</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.99215425670166</v>
+        <v>26.99215425670156</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.1697045437706</v>
+        <v>20.16970454377059</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>37.53292021155742</v>
+        <v>37.53292021155771</v>
       </c>
     </row>
     <row r="876">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.97745386368312</v>
+        <v>21.97745386368316</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.96282000843024</v>
+        <v>23.9628200084301</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>14.99590594847123</v>
+        <v>14.99590594847108</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.67278276628476</v>
+        <v>33.67278276628458</v>
       </c>
     </row>
     <row r="881">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.85924976521807</v>
+        <v>19.859249765218</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.27291273256247</v>
+        <v>21.27291273256253</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.33066988409909</v>
+        <v>13.33066988409901</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.10521591267399</v>
+        <v>36.10521591267415</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.99661840850411</v>
+        <v>15.9966184085041</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.40553554259252</v>
+        <v>17.4055355425925</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>9.630648629417482</v>
+        <v>9.63064862941749</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.76908148420295</v>
+        <v>14.76908148420293</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.4684454492646</v>
+        <v>15.46844544926478</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.52569528400586</v>
+        <v>16.52569528400585</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>8.80576719064277</v>
+        <v>8.805767190642786</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.09728980728558</v>
+        <v>40.09728980728566</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.3469270186168</v>
+        <v>45.34692701861678</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.4182115585219</v>
+        <v>33.41821155852173</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>47.22434717502841</v>
+        <v>47.22434717502854</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.05097750959941</v>
+        <v>54.05097750959949</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.79904684465421</v>
+        <v>60.79904684465438</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>46.3425769970598</v>
+        <v>46.34257699705984</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.26901190861452</v>
+        <v>35.26901190861453</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>39.46436512160486</v>
+        <v>39.46436512160474</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.39577888533955</v>
+        <v>28.39577888533961</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.67699367412396</v>
+        <v>46.67699367412385</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>51.51733212507175</v>
+        <v>51.51733212507192</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>57.4401747887505</v>
+        <v>57.44017478875051</v>
       </c>
     </row>
     <row r="906">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.32285911289557</v>
+        <v>31.32285911289548</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.32069184944601</v>
+        <v>34.32069184944589</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.35010186371726</v>
+        <v>25.35010186371716</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>45.77566562212863</v>
+        <v>45.77566562212851</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>44.99266084739582</v>
+        <v>44.99266084739595</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.41399950011991</v>
+        <v>48.41399950011989</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.79469461298003</v>
+        <v>33.7946946129802</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>13.65487920719966</v>
+        <v>13.65487920719961</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.74295221280562</v>
+        <v>12.7429522128055</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.74782357212377</v>
+        <v>13.74782357212404</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>11.16360142757279</v>
+        <v>11.1636014275726</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.67682053988925</v>
+        <v>17.67682053988926</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>27.15829789717574</v>
+        <v>27.15829789717564</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.01816336990644</v>
+        <v>34.01816336990634</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.36273456467706</v>
+        <v>38.36273456467697</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.08554278297981</v>
+        <v>28.08554278297968</v>
       </c>
     </row>
     <row r="923">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.13511766625869</v>
+        <v>34.13511766625881</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.01359393752726</v>
+        <v>38.0135939375272</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.66668649806096</v>
+        <v>42.66668649806081</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.4908475335878</v>
+        <v>28.49084753358779</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>38.54226876680832</v>
+        <v>38.54226876680835</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.7922683539545</v>
+        <v>34.79226835395465</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.30677305025225</v>
+        <v>31.30677305025218</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.39643922487366</v>
+        <v>35.39643922487362</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>23.16176522106542</v>
+        <v>23.16176522106536</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.47917533126453</v>
+        <v>39.47917533126427</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.22243620779881</v>
+        <v>16.22243620779857</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.49252100624356</v>
+        <v>16.49252100624335</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>8.418889673300681</v>
+        <v>8.41888967330056</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>16.32154112290947</v>
+        <v>16.32154112290936</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.81445783439876</v>
+        <v>14.81445783439859</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.51024630724822</v>
+        <v>14.510246307248</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>6.714388942668279</v>
+        <v>6.714388942668329</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>37.81920235825829</v>
+        <v>37.81920235825839</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.97499468652411</v>
+        <v>41.9749946865241</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>31.75702710545675</v>
+        <v>31.75702710545689</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>41.83840643279819</v>
+        <v>41.83840643279818</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.62681508781674</v>
+        <v>47.62681508781678</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.64337096514878</v>
+        <v>52.64337096514866</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>40.08476619813828</v>
+        <v>40.0847661981382</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.9296996136255</v>
+        <v>38.9296996136254</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.9235916464439</v>
+        <v>42.9235916464438</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>32.10822497866391</v>
+        <v>32.10822497866382</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.99845369133181</v>
+        <v>45.9984536913317</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>48.77435898499612</v>
+        <v>48.77435898499596</v>
       </c>
     </row>
     <row r="953">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.03412622813272</v>
+        <v>39.03412622813273</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.22900150802268</v>
+        <v>33.22900150802273</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.51186512809512</v>
+        <v>37.51186512809515</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>27.33806639912853</v>
+        <v>27.33806639912862</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>45.42320870518332</v>
+        <v>45.42320870518347</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.479677182928</v>
+        <v>43.47967718292807</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>47.80871582256903</v>
+        <v>47.80871582256904</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.80766265456406</v>
+        <v>32.80766265456421</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>41.97940321253934</v>
+        <v>41.97940321253928</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.29020944411399</v>
+        <v>32.29020944411388</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.75373994695717</v>
+        <v>35.75373994695711</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.58962241351443</v>
+        <v>26.58962241351442</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.11437345405554</v>
+        <v>25.11437345405552</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.56348166110649</v>
+        <v>47.56348166110646</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>46.65817303109044</v>
+        <v>46.65817303109048</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>52.32988683899681</v>
+        <v>52.3298868389968</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>37.51342972086942</v>
+        <v>37.51342972086954</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.04459731605762</v>
+        <v>41.04459731605772</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>46.48123986360706</v>
+        <v>46.48123986360694</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.32352876306879</v>
+        <v>44.32352876306876</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>49.3208217116412</v>
+        <v>49.32082171164108</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.52801203644976</v>
+        <v>30.52801203644968</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.41813084363095</v>
+        <v>41.41813084363103</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>48.70543736478708</v>
+        <v>48.70543736478706</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.20066181523548</v>
+        <v>40.2006618152354</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>44.70916967839959</v>
+        <v>44.70916967839939</v>
       </c>
     </row>
     <row r="980">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.3659089912235</v>
+        <v>42.36590899122339</v>
       </c>
     </row>
     <row r="982">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.58221001354455</v>
+        <v>30.58221001354462</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>20.93053170803706</v>
+        <v>20.93053170803697</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.69114471137447</v>
+        <v>29.69114471137444</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.76492852691851</v>
+        <v>31.76492852691844</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.4654230385584</v>
+        <v>34.46542303855836</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>22.17910182656251</v>
+        <v>22.17910182656258</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.85633080696611</v>
+        <v>44.85633080696606</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>51.30947914736645</v>
+        <v>51.30947914736659</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>38.66565644995871</v>
+        <v>38.66565644995865</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>49.02349140857187</v>
+        <v>49.02349140857172</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>55.48230139268462</v>
+        <v>55.4823013926846</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>63.31245163159154</v>
+        <v>63.31245163159144</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>46.6573491609854</v>
+        <v>46.65734916098532</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>43.70018065613501</v>
+        <v>43.70018065613476</v>
       </c>
     </row>
     <row r="997">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>36.66564951454554</v>
+        <v>36.66564951454547</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>51.20264700891532</v>
+        <v>51.20264700891526</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>55.93641488371065</v>
+        <v>55.93641488371063</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>63.62988349788193</v>
+        <v>63.62988349788191</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>45.36002478767394</v>
+        <v>45.36002478767415</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.40262856851271</v>
+        <v>39.40262856851277</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>45.32116545825974</v>
+        <v>45.32116545825954</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>33.30623589790632</v>
+        <v>33.30623589790616</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.40455258977109</v>
+        <v>52.40455258977094</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>54.06103738763934</v>
+        <v>54.06103738763935</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>61.03431309591435</v>
+        <v>61.03431309591429</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>42.05922165881989</v>
+        <v>42.05922165881979</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>20.3840531806033</v>
+        <v>20.38405318060313</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>17.0298465522169</v>
+        <v>17.02984655221676</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.11433830095906</v>
+        <v>20.11433830095903</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>10.96009044258117</v>
+        <v>10.96009044258118</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.3294920528286</v>
+        <v>20.32949205282847</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>42.18168103537593</v>
+        <v>42.18168103537603</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.03026998890503</v>
+        <v>46.03026998890497</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>53.23887650666357</v>
+        <v>53.23887650666354</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>38.28918879602386</v>
+        <v>38.28918879602378</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>41.06299769382052</v>
+        <v>41.06299769382077</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>41.96385600587308</v>
+        <v>41.96385600587298</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>43.50131913627609</v>
+        <v>43.50131913627603</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>50.2249332153998</v>
+        <v>50.22493321539974</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>31.67264595175331</v>
+        <v>31.6726459517533</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>40.78021901605247</v>
+        <v>40.78021901605258</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>36.99091188071536</v>
+        <v>36.99091188071521</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>34.8590785494232</v>
+        <v>34.85907854942313</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>39.96379896266762</v>
+        <v>39.96379896266744</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>23.1737172418782</v>
+        <v>23.1737172418781</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>37.94393520722069</v>
+        <v>37.94393520722065</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.18330802778527</v>
+        <v>23.18330802778536</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>25.84674907944554</v>
+        <v>25.84674907944571</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>15.92758365412048</v>
+        <v>15.92758365412051</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>22.01698252504616</v>
+        <v>22.01698252504598</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>22.54077736047224</v>
+        <v>22.54077736047221</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>24.1967726287097</v>
+        <v>24.19677262870975</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>13.03003122048848</v>
+        <v>13.03003122048853</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>44.96112840402076</v>
+        <v>44.96112840402061</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>52.11842416375909</v>
+        <v>52.11842416375934</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.15808253854041</v>
+        <v>38.1580825385404</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>49.02610107976367</v>
+        <v>49.02610107976362</v>
       </c>
     </row>
     <row r="1041">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>62.36813135259757</v>
+        <v>62.36813135259781</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>44.69011717666037</v>
+        <v>44.69011717666034</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.91977419317709</v>
+        <v>42.91977419317686</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>49.47334518381115</v>
+        <v>49.47334518381128</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>35.46893416990979</v>
+        <v>35.46893416990984</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>48.79291465218498</v>
+        <v>48.79291465218506</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.5760017864976</v>
+        <v>52.57600178649761</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>60.06920148996369</v>
+        <v>60.06920148996365</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>41.17556314554349</v>
+        <v>41.17556314554345</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.80385690404315</v>
+        <v>34.80385690404322</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>39.82951089176427</v>
+        <v>39.82951089176425</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.29995622948153</v>
+        <v>29.2999562294815</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>44.23699106428581</v>
+        <v>44.2369910642857</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>44.74737026027609</v>
+        <v>44.74737026027603</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>49.95574778595444</v>
+        <v>49.95574778595457</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>33.8024795634676</v>
+        <v>33.80247956346745</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.7</v>
+        <v>17.93</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.524</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.279</v>
+        <v>21.056</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.134</v>
+        <v>1.404</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.46106920692281</v>
+        <v>18.52336591720866</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.67301523590355</v>
+        <v>22.43302085406858</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.74343689191029</v>
+        <v>22.29073893192017</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.6898991810968</v>
+        <v>21.97319080537481</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.29993870350879</v>
+        <v>22.1197249131229</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.39537986088054</v>
+        <v>22.67342819525718</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.92299345806147</v>
+        <v>27.17808847639911</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.1882099272664</v>
+        <v>27.79998368514216</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.34829867869285</v>
+        <v>26.49742610968339</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.90810301674514</v>
+        <v>37.64400703083437</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.80990702752781</v>
+        <v>20.87547926065806</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.10023447455857</v>
+        <v>24.94728963245265</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.90367773244588</v>
+        <v>25.25353604569372</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.2969977191818</v>
+        <v>23.58816887936361</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.31068774455167</v>
+        <v>34.46908811777843</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.20432480606692</v>
+        <v>20.91837679640282</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.02882405668934</v>
+        <v>23.82635912219797</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.7852097763247</v>
+        <v>24.10990722920207</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.59747102390904</v>
+        <v>22.78457918967913</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37.75811177761985</v>
+        <v>33.9800928676861</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.84090221075075</v>
+        <v>27.83814372327812</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.26671280719995</v>
+        <v>27.91428496060499</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.12552499704454</v>
+        <v>25.44774062969039</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.0228773346936</v>
+        <v>20.69049540206225</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.97731095168092</v>
+        <v>26.97033114985781</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.38565146235601</v>
+        <v>27.06090305493439</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.7116691136988</v>
+        <v>24.75903303700436</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>47.45322441533595</v>
+        <v>41.56807348061214</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>51.48805304049155</v>
+        <v>44.27442232658371</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.75056651155239</v>
+        <v>40.63441134626177</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.00299559947936</v>
+        <v>40.56707637248676</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>56.81673103857848</v>
+        <v>46.7641394166891</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>62.03741542154718</v>
+        <v>50.0423511900886</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>54.34900806973251</v>
+        <v>45.73108818686553</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.26590363614842</v>
+        <v>38.37199441560912</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.09223040238611</v>
+        <v>40.01469545403929</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.14124682585101</v>
+        <v>37.02908205974604</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.67068544976136</v>
+        <v>39.43782233422336</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.99632416426161</v>
+        <v>43.54376470327455</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.85197900341427</v>
+        <v>46.45840964483767</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.95880128544742</v>
+        <v>42.31886765398905</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>38.28676929943894</v>
+        <v>35.509311032465</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.57725614613801</v>
+        <v>36.78952556126379</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.778487362607</v>
+        <v>34.54443808546041</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.58263088102616</v>
+        <v>40.49137384307075</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.42339004040099</v>
+        <v>43.90722891475964</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>57.1119630422573</v>
+        <v>46.79699837510808</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48.63911127767523</v>
+        <v>42.43792586937331</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>37.08037706871643</v>
+        <v>34.02603062360988</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.47488252255008</v>
+        <v>32.90369576417838</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.70716700489892</v>
+        <v>34.6135257696977</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.69203727103553</v>
+        <v>30.20742334557397</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.56495375057944</v>
+        <v>25.20731642919225</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.10748623450696</v>
+        <v>37.09760049125355</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.16307765325189</v>
+        <v>38.43150791226478</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.26267237767776</v>
+        <v>41.36384503348827</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.141981763133</v>
+        <v>36.79419705588554</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.39021856332914</v>
+        <v>39.39020878397127</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.02092548085012</v>
+        <v>35.55664076311781</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.71781510367606</v>
+        <v>36.02295574653593</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.87108841538807</v>
+        <v>38.29427949480186</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.39419348662398</v>
+        <v>33.05480924658692</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.37711218371033</v>
+        <v>36.36128837312469</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.95970743244084</v>
+        <v>37.79262859364748</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>40.73286868821162</v>
+        <v>37.29952598041282</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>45.19519052249131</v>
+        <v>39.74858383744464</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.87640316058751</v>
+        <v>34.66808644908545</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.96356461629056</v>
+        <v>36.28848561175938</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.58016573971665</v>
+        <v>30.2509937820736</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.49704877820708</v>
+        <v>31.18441504102974</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.20983098984561</v>
+        <v>28.18565084755266</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.0064472974</v>
+        <v>31.66170865072803</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.86998137407204</v>
+        <v>33.68320807731057</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.93275274718957</v>
+        <v>34.71907141037249</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.74584504978163</v>
+        <v>30.68979512686025</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>48.73056174990356</v>
+        <v>41.95675926718975</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>53.84301592016137</v>
+        <v>44.97535188314077</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.3055059999371</v>
+        <v>39.94795819801419</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50.47255278006391</v>
+        <v>43.52011604251096</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>55.78494886544954</v>
+        <v>46.15864810924705</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>62.30098225162104</v>
+        <v>50.02149803154457</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>50.41507457831817</v>
+        <v>43.735440061079</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.31890204350361</v>
+        <v>39.78799611142539</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.59044618688083</v>
+        <v>42.24615211226822</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.10689776999731</v>
+        <v>37.92794085182565</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>48.97192153598743</v>
+        <v>42.26679439384056</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.04890816519164</v>
+        <v>45.08458277710019</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>59.96729043354765</v>
+        <v>48.57321613315603</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.9097693047607</v>
+        <v>42.78988524298389</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.36207887600889</v>
+        <v>37.94399352087378</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>45.82985035317031</v>
+        <v>39.94400840713912</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.94299352180587</v>
+        <v>37.09225051707997</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.50451842686424</v>
+        <v>41.23749105200083</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>52.74263265475522</v>
+        <v>44.40990016610647</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>57.8132920646234</v>
+        <v>47.3549373378937</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.59831758516988</v>
+        <v>42.66332409747384</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.25400027599395</v>
+        <v>27.84462862782545</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.60545392792632</v>
+        <v>28.09673365319251</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.60224632355755</v>
+        <v>29.09609544545851</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.74351402405853</v>
+        <v>26.29837397102521</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.70667139301449</v>
+        <v>26.48365782784863</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.04554705248259</v>
+        <v>36.94480006201481</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>44.25828687383172</v>
+        <v>39.56786825760146</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>48.93623172743478</v>
+        <v>42.28099706894353</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>39.73613358111165</v>
+        <v>37.72687463619575</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.24429020964168</v>
+        <v>40.24129972180693</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.61072859242512</v>
+        <v>35.07903890584266</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.48465602741503</v>
+        <v>35.93403857025204</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.56557746273229</v>
+        <v>38.14371529343268</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.25299833298599</v>
+        <v>31.81418354116798</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.58080803438578</v>
+        <v>39.05189164361153</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.84245692354013</v>
+        <v>37.71055660868733</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.91376345460685</v>
+        <v>37.93048143906903</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.46644071692759</v>
+        <v>40.50123609557681</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.68634914020015</v>
+        <v>34.38110909193247</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.21413002414437</v>
+        <v>38.53075429946296</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.92402272529169</v>
+        <v>31.04650771066285</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.72540074961456</v>
+        <v>31.99060339464335</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.81874039242012</v>
+        <v>29.02706397004348</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.74159832438469</v>
+        <v>31.3691668031446</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.35730077798574</v>
+        <v>33.86147261641683</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.15230150822598</v>
+        <v>34.85137033439527</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.90092751672937</v>
+        <v>31.1683115296501</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.68084397784443</v>
+        <v>42.53690436459865</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>54.54119740283897</v>
+        <v>45.45248702685281</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.35918306785652</v>
+        <v>40.39995954445264</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.84576466694183</v>
+        <v>42.32334908283209</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>54.79986539460552</v>
+        <v>45.50730692162884</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.47155975661909</v>
+        <v>48.92495552026509</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.56432716706138</v>
+        <v>43.55508333116832</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.12738998447604</v>
+        <v>41.49142946280448</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.87315771957427</v>
+        <v>44.29544921086643</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.44909773921619</v>
+        <v>39.30310797869795</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.46710031376059</v>
+        <v>41.92038610737192</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.10352677185332</v>
+        <v>45.0834695511319</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>59.99159728371793</v>
+        <v>48.56283742696215</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>49.16447610875382</v>
+        <v>42.77169526005593</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.0502379177527</v>
+        <v>39.11474917959704</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>48.76796481095536</v>
+        <v>41.84293257417622</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>40.3724036908176</v>
+        <v>37.56573204104298</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.12385800033407</v>
+        <v>43.50285657855476</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.94387499802163</v>
+        <v>45.54836010067469</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.27104994992548</v>
+        <v>49.28329519167497</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>49.94381468810802</v>
+        <v>43.36053719788358</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.97140916739204</v>
+        <v>20.85522872942204</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.85678279389596</v>
+        <v>28.53002958558334</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.54137362762717</v>
+        <v>29.60318152478124</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.605055540889</v>
+        <v>32.45613855816825</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.01196544454847</v>
+        <v>18.30856716641745</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.15451343351673</v>
+        <v>25.27975773440058</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>34.76621494561692</v>
+        <v>32.73245935849625</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.65254430895996</v>
+        <v>34.45738395901767</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.31866314715303</v>
+        <v>35.40866536179369</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>43.52864438906089</v>
+        <v>39.887154151196</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.07716486618982</v>
+        <v>23.8015614928031</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.6504620823023</v>
+        <v>31.67527344047983</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.3038539599011</v>
+        <v>33.31500291107101</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.86719735991161</v>
+        <v>34.2174867520776</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.38839133650613</v>
+        <v>34.40516272687552</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.10349178550932</v>
+        <v>24.55748304566206</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.53224454210928</v>
+        <v>30.9980558905844</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.23886178071849</v>
+        <v>32.61113605363193</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.64448790766267</v>
+        <v>34.12756011803611</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.6498542424375</v>
+        <v>31.43932702134953</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.35575024430513</v>
+        <v>24.49104998333517</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.46069248762346</v>
+        <v>24.34966029280633</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17.17731596302918</v>
+        <v>22.90045909376612</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.78950035459058</v>
+        <v>20.73733293394903</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.77037133224356</v>
+        <v>25.91856504706455</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.31702157320281</v>
+        <v>26.1103738506341</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.39715926544946</v>
+        <v>25.34949634136872</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.9822155507437</v>
+        <v>42.44214111771301</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.28159394658542</v>
+        <v>45.26247266499235</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.44328202146354</v>
+        <v>40.69451858474778</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.14517797590044</v>
+        <v>43.09029862941673</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.84519917952947</v>
+        <v>46.92889961344459</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.00165661133008</v>
+        <v>50.25195667721988</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>53.30128474048531</v>
+        <v>45.07010220045525</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.04863800281076</v>
+        <v>38.25816206504643</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.07298391288004</v>
+        <v>39.99228872806982</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>39.37107457558056</v>
+        <v>36.64604744070998</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.46939655073474</v>
+        <v>38.52123307766144</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>52.90247217303565</v>
+        <v>43.97176576326891</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>56.89572582520658</v>
+        <v>46.32448318223821</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>49.21323493505265</v>
+        <v>42.29479185553667</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.76013824933258</v>
+        <v>32.64523670706183</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.84788188302917</v>
+        <v>33.78168278042685</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.72101016044259</v>
+        <v>31.84490128371961</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.84172232557038</v>
+        <v>37.31845660099908</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>47.05801434912427</v>
+        <v>40.4856233594184</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>50.3756848748758</v>
+        <v>42.5127813617301</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.31695972444776</v>
+        <v>39.36797380347346</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.40718291048849</v>
+        <v>25.13323361988485</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.47387998455011</v>
+        <v>24.95012778512843</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.01662804500123</v>
+        <v>25.68457846387366</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.67985173195659</v>
+        <v>23.33937987786492</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.40268541700616</v>
+        <v>26.92713702149507</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.72285925515028</v>
+        <v>35.23376899469209</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.14767047962352</v>
+        <v>32.56516047774881</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.1749964455381</v>
+        <v>34.07927115788538</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.54365514981518</v>
+        <v>24.88772599038303</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>46.29818296125035</v>
+        <v>41.10385087482548</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.45473723893069</v>
+        <v>34.30439281209832</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.04863449394173</v>
+        <v>33.47040738709425</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.77323583969969</v>
+        <v>34.76673243624119</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.63678184842652</v>
+        <v>25.26421618147222</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>44.90654099220808</v>
+        <v>40.23522469251658</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.68639174910273</v>
+        <v>37.94387134127179</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.28045389661729</v>
+        <v>34.62026736667502</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.63682115589602</v>
+        <v>36.23239421045044</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.41097901049616</v>
+        <v>25.64476214195054</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.88799917875578</v>
+        <v>40.06145833460806</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.02941063553528</v>
+        <v>32.18882985686093</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.10864775852038</v>
+        <v>33.31386797145667</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.97033482693092</v>
+        <v>30.72833003285603</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.16929544197038</v>
+        <v>29.79744524181859</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.69951728734424</v>
+        <v>33.31746100717147</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.17428893495261</v>
+        <v>34.09702603075999</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.82557817840087</v>
+        <v>31.44022129062099</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.38305734686163</v>
+        <v>44.61287818674489</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>58.69058541636275</v>
+        <v>47.79886541617725</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.40835687852408</v>
+        <v>42.76535061321488</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>47.96832461683691</v>
+        <v>42.52789079823622</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.13486229842322</v>
+        <v>46.25366908726363</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>61.94359376391243</v>
+        <v>49.76416468709455</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>52.60296267665902</v>
+        <v>44.61387345728335</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>51.18030475953695</v>
+        <v>43.28272051194956</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>56.25888073634601</v>
+        <v>46.28504859127643</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.58231811833045</v>
+        <v>41.05582618703653</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.75728516649793</v>
+        <v>39.59557860082283</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>53.69237038654012</v>
+        <v>44.64503906138011</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>59.01362744665843</v>
+        <v>47.82228058440296</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.98989099082074</v>
+        <v>42.9389212006929</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.6412583634323</v>
+        <v>41.17691637693886</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.00216483585378</v>
+        <v>44.34891683588414</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.96641113987444</v>
+        <v>40.1811199573542</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.66757466201912</v>
+        <v>43.77693091684026</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.82999734633658</v>
+        <v>45.82310302856131</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>61.98125156772549</v>
+        <v>49.51309735387116</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>51.57714737964208</v>
+        <v>43.95391274721548</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.60569946279267</v>
+        <v>30.22191371777063</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.74950055333197</v>
+        <v>26.0623269302993</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.33212511739961</v>
+        <v>27.25456819934791</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.58993371599175</v>
+        <v>23.2138904421853</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.61286885593981</v>
+        <v>30.74256079281581</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.15278718896461</v>
+        <v>33.66741025476951</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.81264999026377</v>
+        <v>30.99761597169416</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.59294233517068</v>
+        <v>32.30109857629468</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.28678992542981</v>
+        <v>23.86348200612644</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>46.34799389785829</v>
+        <v>41.24525743209435</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.12689364709853</v>
+        <v>34.76212082462678</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.95632089052571</v>
+        <v>33.52156252846043</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.45460814565386</v>
+        <v>34.66779868526891</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.82649169674261</v>
+        <v>24.98407786364497</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.61575585073783</v>
+        <v>41.51305577662349</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.50198721893111</v>
+        <v>38.09938707784792</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.58606445865482</v>
+        <v>34.56793196373368</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.79493959868328</v>
+        <v>36.14460181664244</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>18.25412174978764</v>
+        <v>25.35789147993478</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.70762299090192</v>
+        <v>41.25460870620564</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.91395482500925</v>
+        <v>34.29698186173873</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>38.94774951427848</v>
+        <v>35.94539789934922</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.73287079578576</v>
+        <v>32.33374537721717</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.18839251560608</v>
+        <v>31.78011823652719</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.42323354018881</v>
+        <v>34.47245462433036</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>38.68584641653058</v>
+        <v>35.68007369469103</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.94734199497737</v>
+        <v>31.78857515467786</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.62763271031345</v>
+        <v>44.22897750708997</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.16577810302819</v>
+        <v>47.5536910431013</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>48.32732549580069</v>
+        <v>42.22700260522811</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.79228865193988</v>
+        <v>41.56154128645719</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>54.51720382836525</v>
+        <v>45.30505202743824</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>60.23796393290495</v>
+        <v>48.75038547682723</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>50.92806640318099</v>
+        <v>43.71243975694271</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>51.50628288347419</v>
+        <v>43.52286535054083</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>57.29478010906716</v>
+        <v>46.9137960625593</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>46.46489255269157</v>
+        <v>41.21292030371954</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>48.13819154619129</v>
+        <v>41.94849128544801</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>55.61602137044508</v>
+        <v>45.85931701863908</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>61.54687592612743</v>
+        <v>49.42416807006089</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>51.44018910294481</v>
+        <v>43.96404436804265</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>49.45890924242477</v>
+        <v>42.34129549732017</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>55.04424187334808</v>
+        <v>45.59139130986343</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>46.1701577486057</v>
+        <v>41.0957465975415</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>50.23745502108498</v>
+        <v>43.04462214491595</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>54.45700830703763</v>
+        <v>45.13643010652579</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>60.36880185412564</v>
+        <v>48.64285493485936</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.25234860300157</v>
+        <v>42.8980616777605</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>13.57876262671056</v>
+        <v>18.841916911023</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.30613228429527</v>
+        <v>22.99645316350357</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.22156015287158</v>
+        <v>22.82342533769401</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.44749091165406</v>
+        <v>22.61755885227576</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.7402275750925</v>
+        <v>23.09015226075304</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17.47967134720774</v>
+        <v>21.5442014357552</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.34614368975397</v>
+        <v>26.24496341707158</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.22508010942656</v>
+        <v>26.59041934397069</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.11730715736292</v>
+        <v>25.21147405955684</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.61212253654693</v>
+        <v>32.76208220130371</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.07755957650631</v>
+        <v>19.08582933932979</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.86958136801001</v>
+        <v>23.63045374281142</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.1238562030801</v>
+        <v>23.5335661703404</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.71065370511598</v>
+        <v>21.52655112912561</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.78285869151794</v>
+        <v>32.49431032712586</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.34607826896586</v>
+        <v>18.45772159898584</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.51683727811885</v>
+        <v>22.33941380345237</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.76495077326122</v>
+        <v>22.19705911973245</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.40149790337893</v>
+        <v>20.86696817091774</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.47296815445981</v>
+        <v>30.67828688673543</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.98724826847428</v>
+        <v>27.69617816098953</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.08718617940946</v>
+        <v>28.21522951145449</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.19073979684281</v>
+        <v>26.47799004129776</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.59795337973682</v>
+        <v>22.76132285341752</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.49737401208836</v>
+        <v>28.13972471333365</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.10223001700634</v>
+        <v>28.37349103353578</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.79274251280092</v>
+        <v>26.3037164124438</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.26735602790041</v>
+        <v>35.34447337379466</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.05216471749851</v>
+        <v>37.45370090050331</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.79658797608154</v>
+        <v>33.77394569281778</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.42199128506396</v>
+        <v>38.84233354832239</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.44059552734941</v>
+        <v>42.13946413965231</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>54.29967963321531</v>
+        <v>45.07068927925955</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.87910402511126</v>
+        <v>41.11979495722769</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.09491989746145</v>
+        <v>35.34401137125241</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.93009137974384</v>
+        <v>36.94483808781616</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.07439867944734</v>
+        <v>34.06076121181697</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.75645403771426</v>
+        <v>39.0665063531623</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.54709519365113</v>
+        <v>42.3907776863587</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.31636934649789</v>
+        <v>45.20163926408051</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.73095329060853</v>
+        <v>41.31480352719569</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.76160232301476</v>
+        <v>31.94580066342252</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.22393033566119</v>
+        <v>33.26811489455955</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.67094339052312</v>
+        <v>31.05522922082501</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.22643491351882</v>
+        <v>40.34710785134236</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>50.70342461699452</v>
+        <v>43.02693104011831</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>55.63757625785462</v>
+        <v>45.95966501279695</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>46.92285261164108</v>
+        <v>41.39778201133917</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>9.489397507630848</v>
+        <v>15.62126436243164</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>13.90664013039541</v>
+        <v>20.48823399182334</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.00700774797866</v>
+        <v>20.34365472353545</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.77758457291992</v>
+        <v>20.6232875294495</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.88822795349524</v>
+        <v>16.05735494487386</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>13.3270634671197</v>
+        <v>18.59699985824709</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.13098743771338</v>
+        <v>22.50053056225619</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.82706745823184</v>
+        <v>22.72701754060574</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.27447304919765</v>
+        <v>22.23188341078436</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.58070260778953</v>
+        <v>21.57632883100856</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>12.3585361683735</v>
+        <v>17.77824024410799</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>15.93191331320897</v>
+        <v>21.78745263501506</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.66481578195867</v>
+        <v>22.02017597129761</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.3225823386798</v>
+        <v>21.69557790310584</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.18023629290603</v>
+        <v>22.18491436811104</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.168124270203034</v>
+        <v>15.3464895381933</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.92878422892665</v>
+        <v>19.45089533647064</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>12.08026636650296</v>
+        <v>19.34169599803246</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.47458212688106</v>
+        <v>19.53795462303015</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.91460433179797</v>
+        <v>16.99454619613664</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>17.97874471266357</v>
+        <v>22.8224658501262</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.43793934627569</v>
+        <v>22.32027027238259</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.16594958399102</v>
+        <v>21.42072657595468</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.68832071852271</v>
+        <v>15.77075465734701</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.06944125367785</v>
+        <v>22.99659001740399</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.48662985286884</v>
+        <v>22.49090503447588</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.58384331532533</v>
+        <v>21.20109698858183</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.18797791362739</v>
+        <v>26.78995253977519</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.92091108370358</v>
+        <v>27.06344305215334</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.82303285358194</v>
+        <v>24.55811945777579</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.73831688035958</v>
+        <v>31.62798452515388</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.45446771027001</v>
+        <v>34.83935146133579</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.42848942669633</v>
+        <v>35.94197719836016</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.06924470397624</v>
+        <v>32.16386404958589</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.68653749089412</v>
+        <v>25.44634144572464</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.76890589665996</v>
+        <v>25.33203571510184</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.40163430453896</v>
+        <v>23.30380556387751</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.73601050081154</v>
+        <v>30.19023832666979</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.73750118061325</v>
+        <v>31.62920110309341</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.49157996054247</v>
+        <v>31.73367459096741</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.84503592667865</v>
+        <v>27.3055674836516</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>13.93713282190551</v>
+        <v>20.5984546726861</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.97003970823809</v>
+        <v>20.43145669612165</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.66981174703571</v>
+        <v>20.10415514147034</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.61551292151985</v>
+        <v>30.93577650046462</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.03367608885654</v>
+        <v>32.36469144609344</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.14815319133516</v>
+        <v>32.28428286346698</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.37221173090544</v>
+        <v>28.98719692453131</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.09716660498775</v>
+        <v>34.36891590496753</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.56803675175004</v>
+        <v>31.67081847201556</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.88445403421808</v>
+        <v>32.96714299758419</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.67344037362317</v>
+        <v>31.6376777221031</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.08984805074005</v>
+        <v>25.08460133969605</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.38082115721247</v>
+        <v>38.99693109539677</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.89568590092263</v>
+        <v>40.88564902919263</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.17675557197681</v>
+        <v>43.57666616649649</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.02106485846597</v>
+        <v>39.81318724984518</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.24676198254338</v>
+        <v>34.93830898620645</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.41052115359869</v>
+        <v>39.14266841014444</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>44.53121408438686</v>
+        <v>39.39038633387526</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>48.45653749039619</v>
+        <v>41.64437438033725</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.71239820753413</v>
+        <v>36.03556812346689</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.02466100374086</v>
+        <v>35.27809949674161</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.46772562804876</v>
+        <v>37.55371832778133</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>41.21063264245391</v>
+        <v>37.28539525777409</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>44.35591349934187</v>
+        <v>38.98219259397032</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.07865576680597</v>
+        <v>33.82594023237331</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.08584155222255</v>
+        <v>32.18665158238485</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.63212311124819</v>
+        <v>29.17454601896732</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.59484782532219</v>
+        <v>30.08418505283068</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.11596105366505</v>
+        <v>27.65445669577319</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.93974751525165</v>
+        <v>30.75050193912244</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.41218805607696</v>
+        <v>32.66994461202351</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.14561259495899</v>
+        <v>33.56510551139036</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.82673750857259</v>
+        <v>30.47172463780528</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.73613638894849</v>
+        <v>37.48355909946983</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>45.85579631255226</v>
+        <v>39.88967192622729</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.75162795053707</v>
+        <v>36.16559549558442</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>46.39375066926657</v>
+        <v>41.1353288633453</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.55563874376938</v>
+        <v>42.93768331315878</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>55.60512112041344</v>
+        <v>45.95052749943307</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.981237392808</v>
+        <v>41.35663478389363</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>41.15331046673293</v>
+        <v>37.27600878111552</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>45.17430139925419</v>
+        <v>39.58987460180496</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.75182742080741</v>
+        <v>35.76361378716754</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>48.49529072656117</v>
+        <v>42.29265434004426</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>52.83732418201487</v>
+        <v>44.40124512179811</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>58.27241582894791</v>
+        <v>47.62613152235765</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>49.19321163786421</v>
+        <v>42.83903164476698</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.06452588370968</v>
+        <v>33.49636356361563</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.74293542015849</v>
+        <v>35.46165289266227</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.83516090011751</v>
+        <v>32.67468595605865</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>47.67359702421596</v>
+        <v>41.19690488243369</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>51.33889271751119</v>
+        <v>43.36796356460516</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>56.83207843273694</v>
+        <v>46.62676941830185</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.54595353294228</v>
+        <v>41.82810024492456</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.899210615904909</v>
+        <v>16.49110619505546</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.49109896077602</v>
+        <v>20.6498665026815</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>13.12052330797686</v>
+        <v>20.29742511688908</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.99814273516485</v>
+        <v>20.63084663849564</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>11.220980571246</v>
+        <v>16.75112064331853</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.28214502355762</v>
+        <v>19.39946518250713</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.20743259931743</v>
+        <v>23.82606083800457</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.80856323897979</v>
+        <v>23.97836292836153</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.93241020864156</v>
+        <v>23.31104038550625</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.19721942147486</v>
+        <v>30.21774939136915</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.99313929445889</v>
+        <v>19.1508003991028</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.91621913228623</v>
+        <v>23.09257867414323</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.17642517188438</v>
+        <v>23.09508663449233</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>15.90247573244658</v>
+        <v>22.10628703167637</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.14455349389229</v>
+        <v>26.89840977958972</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.63573340474571</v>
+        <v>17.49613260689701</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>15.09290140200354</v>
+        <v>21.45801023187289</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.35069597372038</v>
+        <v>21.36672402723561</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.20110925109781</v>
+        <v>21.20510989461142</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.64040513577803</v>
+        <v>22.29031124274271</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.88521890559889</v>
+        <v>21.75261813327304</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>15.82207291132462</v>
+        <v>21.44485265363908</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.42304792853491</v>
+        <v>20.65770431122527</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.78130213041069</v>
+        <v>17.69815671291296</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.20438834344851</v>
+        <v>22.68163705859522</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.42556520752559</v>
+        <v>22.64910116629541</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.76534289160825</v>
+        <v>22.04490218024117</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.05152493279127</v>
+        <v>33.07225986953753</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.84476237371003</v>
+        <v>34.72141191478126</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.746877774678</v>
+        <v>31.46869273293437</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>39.97239760032724</v>
+        <v>36.2595553973916</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>48.08281375436734</v>
+        <v>41.52386773066003</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.52631578620985</v>
+        <v>43.66140344926974</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>44.94888074036371</v>
+        <v>40.23296573552849</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.56790468007602</v>
+        <v>29.36264984912866</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.35025146776544</v>
+        <v>29.63674092673194</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.57204905694217</v>
+        <v>28.10357186184958</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.15691354541602</v>
+        <v>35.17375365037203</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>43.54969887172436</v>
+        <v>38.53009078215876</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>45.34215431731241</v>
+        <v>39.52503317350679</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.8955951043507</v>
+        <v>36.30292477345236</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.22896437535555</v>
+        <v>23.52115384727498</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>18.37959556276005</v>
+        <v>23.39836680882183</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.68297724180958</v>
+        <v>23.55601578002043</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.18099248340758</v>
+        <v>33.65040788240298</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.64776471666192</v>
+        <v>35.64378683644667</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.2482126087296</v>
+        <v>36.54976118866453</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.90585808017254</v>
+        <v>33.325115693306</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5.75380791217809</v>
+        <v>12.87967215173385</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>8.350369781383019</v>
+        <v>17.09442328664676</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.802188411795729</v>
+        <v>16.56275877596399</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.855505739716584</v>
+        <v>17.54941267056502</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.68887349955035</v>
+        <v>25.36451657231253</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>6.677276268077478</v>
+        <v>13.84848684509891</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.84802674932882</v>
+        <v>18.68128247808257</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.57227717121728</v>
+        <v>18.26112202891554</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>10.2506984908319</v>
+        <v>18.52736779231649</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.16428006080692</v>
+        <v>34.16368699513374</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>10.20936483485544</v>
+        <v>15.93677733280232</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>14.8891589869884</v>
+        <v>21.10355668100829</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.26957846979583</v>
+        <v>20.52558712109833</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.99395198110238</v>
+        <v>19.6382975897626</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.85901225703586</v>
+        <v>34.51914772194287</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.16336443320091</v>
+        <v>16.93533680400901</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.27242029881602</v>
+        <v>20.73477723649741</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>13.83439906674659</v>
+        <v>20.25907287587037</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>13.18048740490861</v>
+        <v>20.37045551756254</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.72242922122679</v>
+        <v>32.84643436322339</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.37208443616169</v>
+        <v>28.97529549282615</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.76123050361409</v>
+        <v>29.70556122087659</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.58839642290144</v>
+        <v>27.79383585172616</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.0488638646965</v>
+        <v>27.07434180131483</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.65789634552948</v>
+        <v>30.31877178259589</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.63827456572545</v>
+        <v>30.76164564398283</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.88591401816729</v>
+        <v>27.90740030003582</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.19487137077704</v>
+        <v>36.63044082851796</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.1118895516917</v>
+        <v>38.88006405749695</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.20386149557726</v>
+        <v>35.28531859430574</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>46.32301659237865</v>
+        <v>41.02744849201301</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.52828295342333</v>
+        <v>43.46871692920805</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>57.02723159116884</v>
+        <v>46.76232520013161</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>47.52823522612888</v>
+        <v>41.61990046111777</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.90894423506082</v>
+        <v>36.98691180783655</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>44.79035790919671</v>
+        <v>39.20932964240787</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.41625699601412</v>
+        <v>35.44583408103941</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.44371811259762</v>
+        <v>41.71601786108846</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.02880856372244</v>
+        <v>44.35292095021139</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>58.66842583054422</v>
+        <v>47.69764379773539</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.72042844802186</v>
+        <v>42.34908508466502</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.91050901389349</v>
+        <v>34.07115461538402</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>39.59055782335087</v>
+        <v>36.09944707511707</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.32576074597585</v>
+        <v>33.11411191266035</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.76085877420463</v>
+        <v>41.71949317508504</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>53.28357152781359</v>
+        <v>44.61589847579865</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>59.04353783981115</v>
+        <v>48.04461422523936</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.67935455361776</v>
+        <v>42.53010148664757</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.63897619163633</v>
+        <v>18.44908545646594</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.99821809401829</v>
+        <v>22.63363437606164</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.85930476705632</v>
+        <v>22.40230329932797</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.02347543796304</v>
+        <v>22.32343992320306</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>9.060847924846783</v>
+        <v>15.13008939194142</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.73716055673433</v>
+        <v>21.80997551033332</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.73279764538204</v>
+        <v>25.95331936133626</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.72659050366311</v>
+        <v>26.39440123591819</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.24213531536705</v>
+        <v>25.32095277923703</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.36510569778927</v>
+        <v>24.6609493699483</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.02011518832215</v>
+        <v>22.44281079182295</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.26730704996513</v>
+        <v>25.73743626929392</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.84413303883792</v>
+        <v>25.96466777728435</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.02580620217915</v>
+        <v>24.1601426878343</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.64215111244111</v>
+        <v>22.95941072341646</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.84418899138366</v>
+        <v>20.30091394296658</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.33516632238871</v>
+        <v>23.39168934463833</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.91319945441028</v>
+        <v>23.51347613627032</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.53079573443041</v>
+        <v>22.63951998679131</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.76788476601079</v>
+        <v>19.51598949674602</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.35921002833082</v>
+        <v>20.35732732241618</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.03984365975743</v>
+        <v>19.93213202959773</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.71597849590724</v>
+        <v>19.6191787892398</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.98434117484612</v>
+        <v>21.6017600653034</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.29459479415083</v>
+        <v>25.29857962907235</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.03324341748938</v>
+        <v>25.56789499267066</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.49655477681191</v>
+        <v>24.65297281467369</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.41526725088661</v>
+        <v>28.18326436139989</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.44309377833102</v>
+        <v>28.64779425472519</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.61556289006901</v>
+        <v>27.49211316186693</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.3137191165333</v>
+        <v>32.73986844721137</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>40.86689552846548</v>
+        <v>36.96051422967629</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.28518522062443</v>
+        <v>38.40014746339661</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>37.58679318562488</v>
+        <v>35.35741428415287</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.15004701717432</v>
+        <v>25.7027498691752</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.45828467239149</v>
+        <v>25.69539505730526</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.81090846191538</v>
+        <v>24.70064397503458</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.79545597088675</v>
+        <v>32.8381033532091</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>39.67997666459755</v>
+        <v>36.27605155807468</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>42.13528142127028</v>
+        <v>37.68838052017372</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.37370411343819</v>
+        <v>33.57888507589487</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.49053022921087</v>
+        <v>21.60083084306309</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.5396542536644</v>
+        <v>21.38959989315325</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.52849178271549</v>
+        <v>21.3895750836667</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.45637801087571</v>
+        <v>30.67056702957852</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.93747301991196</v>
+        <v>33.58089179337759</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.87531209448873</v>
+        <v>35.14266910144462</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.68867383371484</v>
+        <v>31.63479883940348</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>5.586742048935506</v>
+        <v>13.26825666910666</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>8.793923460320748</v>
+        <v>17.58336491705643</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.264719160946612</v>
+        <v>17.06887174360791</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>9.063771213208877</v>
+        <v>17.98368150197714</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>5.352421667959906</v>
+        <v>12.71645302504199</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.562734502174361</v>
+        <v>15.28547397448605</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.00827550163505</v>
+        <v>19.52496323258706</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.9440702992347</v>
+        <v>19.24363536600499</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.46278727508327</v>
+        <v>19.38011766570239</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>8.056542136649114</v>
+        <v>14.75200330979613</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.982411133807517</v>
+        <v>16.11178753663893</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.13795352264909</v>
+        <v>20.68320593319176</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.01125205890828</v>
+        <v>20.3876119330112</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>13.14633195660513</v>
+        <v>20.31457122574248</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>7.302210078868892</v>
+        <v>14.28064157762756</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.48516702725756</v>
+        <v>15.08209336089079</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>11.34089674130825</v>
+        <v>19.13863650364526</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>11.1469667006988</v>
+        <v>18.72263135737919</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>11.3113328212101</v>
+        <v>19.39480963869072</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.455220711617311</v>
+        <v>13.8196977419036</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>8.948331920305009</v>
+        <v>17.4816335349094</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>8.397046509705977</v>
+        <v>16.91538950061452</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.036329409704301</v>
+        <v>17.7171135860759</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.57126342490193</v>
+        <v>18.99994493418045</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.92352981150196</v>
+        <v>22.47410778450252</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.20496780469739</v>
+        <v>22.46679547962413</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.35824351164706</v>
+        <v>22.32220373763401</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>11.21091744732466</v>
+        <v>18.92197781837456</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.05026187606498</v>
+        <v>18.57520910516289</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.92481295756039</v>
+        <v>18.97498587585778</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.05327552907171</v>
+        <v>24.65570429866078</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.80981989372592</v>
+        <v>30.14851778844978</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.8621264483458</v>
+        <v>30.69783015791183</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.576839716315</v>
+        <v>29.03634421071941</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.806065067615233</v>
+        <v>18.19903258547486</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>9.450090981817745</v>
+        <v>17.74666104895782</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.593512440267613</v>
+        <v>18.43123010765956</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.1759368036732</v>
+        <v>24.83206814922195</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.79200980213873</v>
+        <v>29.67044634194406</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.94290883647607</v>
+        <v>30.27598269425577</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.55208428989283</v>
+        <v>28.64016391882453</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.683943178096381</v>
+        <v>17.70673721738023</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>8.384839295597327</v>
+        <v>17.27359570207461</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>9.121511775743119</v>
+        <v>18.06023713366626</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.88899153643678</v>
+        <v>25.38617087517509</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.7862425193293</v>
+        <v>28.5533683571754</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.28913860569287</v>
+        <v>29.30924428764956</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.16114560734916</v>
+        <v>27.90038368511195</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.41853657905893</v>
+        <v>23.45247949023811</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.32921944965285</v>
+        <v>25.93089120855194</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.25675736559173</v>
+        <v>26.33040071423065</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.16007995184974</v>
+        <v>25.49965863916153</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>10.67747540201248</v>
+        <v>16.35308011324176</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.98625827076359</v>
+        <v>31.89040907733516</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>40.93692950655752</v>
+        <v>36.93860052671911</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>44.43047153587541</v>
+        <v>38.99779919292645</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.39852906401563</v>
+        <v>36.39988284765072</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.91621542088539</v>
+        <v>24.99742909275741</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.04787577345991</v>
+        <v>33.12141072547542</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>43.2369466011279</v>
+        <v>38.16141244739374</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>46.77506655762667</v>
+        <v>40.29403078666184</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.66662317570901</v>
+        <v>37.69557521534953</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.02405045231569</v>
+        <v>26.97028227928909</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.39147417083719</v>
+        <v>28.88098385678864</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.98776877539371</v>
+        <v>31.76135161191262</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.76993934697349</v>
+        <v>32.70352686334081</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.58100518725778</v>
+        <v>32.53776938275985</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.76962800306175</v>
+        <v>25.77581512355374</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.96475286116701</v>
+        <v>20.7028597627687</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.8246541195206</v>
+        <v>20.48216801924208</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>12.92369791025007</v>
+        <v>20.49428627864711</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.06299380541501</v>
+        <v>20.77394882946303</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.21853159556958</v>
+        <v>24.01798806630876</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.32150199916304</v>
+        <v>23.91462497088997</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.5783427934571</v>
+        <v>22.893527322109</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.1618787132364</v>
+        <v>30.9447813600116</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.49302559881561</v>
+        <v>32.25577645399225</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.73943498573937</v>
+        <v>30.97395158304364</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.32016719376904</v>
+        <v>35.88074819933314</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.35463162277669</v>
+        <v>41.56230457295552</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.48602886654643</v>
+        <v>44.04231272287981</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.64387661624513</v>
+        <v>40.34554024156695</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.15791237721547</v>
+        <v>32.77446031863595</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.42628979223494</v>
+        <v>34.09683882116041</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.03903693932676</v>
+        <v>32.97724749860036</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.17483474182811</v>
+        <v>37.08137695088468</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.64401966254292</v>
+        <v>42.6821225249774</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>54.75062056613834</v>
+        <v>45.20319965277628</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.52397121922509</v>
+        <v>41.33418059054255</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.78744085530627</v>
+        <v>28.53173251314511</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.74653029184493</v>
+        <v>29.55548973195665</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.34010850590706</v>
+        <v>29.22017467867435</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.87755830668079</v>
+        <v>36.35844790887305</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.30519282966626</v>
+        <v>38.52568465025298</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>46.49283257997858</v>
+        <v>40.36750445409928</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.32788154399275</v>
+        <v>36.18686330715816</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.09278425363542</v>
+        <v>32.49635527741636</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.63125443050024</v>
+        <v>32.88941448674111</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.95097898810722</v>
+        <v>34.14980386546029</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.9463532728075</v>
+        <v>30.61079286278172</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.48289403802319</v>
+        <v>23.13993889778103</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.08227376349207</v>
+        <v>37.33348662965761</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.82938181517945</v>
+        <v>40.02157002357114</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.87530637446093</v>
+        <v>42.49763535076815</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.7252267809308</v>
+        <v>38.85209909398891</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.07170649575394</v>
+        <v>35.0983077100951</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.00270376711161</v>
+        <v>35.84983924829513</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.12265273814795</v>
+        <v>37.33438944666575</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.47934475917799</v>
+        <v>39.24201803932698</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.83621559984192</v>
+        <v>34.18709026677666</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.259253283632</v>
+        <v>33.7130291233586</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.40267346920713</v>
+        <v>37.09484594019018</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.40268078140362</v>
+        <v>37.99065205070944</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.12113498370161</v>
+        <v>40.07350395949377</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.75061376148441</v>
+        <v>34.62794458997917</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.30575907331808</v>
+        <v>31.94388594141015</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.80445729874951</v>
+        <v>27.33969126036618</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.15271723964638</v>
+        <v>27.91769118735724</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.32422560671255</v>
+        <v>25.73582095560968</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.82713869208922</v>
+        <v>27.82969736631221</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.2807975635447</v>
+        <v>30.7958731394956</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.29448761558305</v>
+        <v>31.21164544394697</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.43225557468592</v>
+        <v>28.51885628939696</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.17371763399448</v>
+        <v>36.64157994834454</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.22315897467572</v>
+        <v>38.93053816718292</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.38026968874249</v>
+        <v>35.53099873064733</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>43.88987457037352</v>
+        <v>39.19933014315134</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>49.26242924699643</v>
+        <v>42.16185434645436</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.36696708366694</v>
+        <v>45.16624915325627</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>45.33889762839057</v>
+        <v>40.42466418777807</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.12335543455735</v>
+        <v>36.62534616146114</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.67589009405799</v>
+        <v>38.62845360883914</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.56636321246551</v>
+        <v>35.04647427187087</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.43132563725561</v>
+        <v>37.29916785359936</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.17280095936056</v>
+        <v>41.45008532475834</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.52188274798223</v>
+        <v>44.00180886614571</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.01609376573079</v>
+        <v>39.5729960832131</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.72405559700022</v>
+        <v>33.28513594150842</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.75060652564908</v>
+        <v>34.95461066723625</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.38913565848645</v>
+        <v>33.02838134880556</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.53414606246837</v>
+        <v>38.11222662839124</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>47.75675633253554</v>
+        <v>41.02034158026158</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.47965303430017</v>
+        <v>43.16773631687289</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>43.38882219768233</v>
+        <v>38.9493176055932</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.05496124689155</v>
+        <v>35.6186152649882</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.63261237911588</v>
+        <v>31.84757833449653</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.13473216835584</v>
+        <v>33.34755704286989</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.70794155326979</v>
+        <v>31.38495256907057</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.81575658656887</v>
+        <v>23.37716741263529</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.15448382709505</v>
+        <v>37.56963793795813</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.25547623245558</v>
+        <v>38.13779744680872</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>44.91603860381113</v>
+        <v>40.45674723553702</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.0533846101902</v>
+        <v>37.20381038827518</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.31076034385552</v>
+        <v>34.98945639790558</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.71474221586108</v>
+        <v>37.24126161712306</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.5989991993674</v>
+        <v>37.56310305362362</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.91013562163702</v>
+        <v>39.41626561380349</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.6137605611986</v>
+        <v>33.50831720403786</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.52763804378704</v>
+        <v>34.16370931792033</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>40.74928230092169</v>
+        <v>36.64055418122156</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.31879949394721</v>
+        <v>36.61183923777108</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.25726227159095</v>
+        <v>38.13685039406586</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.86071024966553</v>
+        <v>32.29233267418437</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.65323341403131</v>
+        <v>33.93928007744653</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.80527403586992</v>
+        <v>27.17201006365021</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.9184489617626</v>
+        <v>27.59553252964995</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.2401412417784</v>
+        <v>25.51744827902366</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.54511946085788</v>
+        <v>28.17903953798661</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.29658844930609</v>
+        <v>31.15898303735034</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.32131413224459</v>
+        <v>31.62211479129902</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.60606866804819</v>
+        <v>28.84586170885927</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.93254564388521</v>
+        <v>37.68962503650716</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.92106708613929</v>
+        <v>40.06849707490385</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.49560908859438</v>
+        <v>36.73743354279735</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.11269708607227</v>
+        <v>39.02417170206061</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.56218565979508</v>
+        <v>42.30616252086207</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>54.51474199287397</v>
+        <v>45.23754682884866</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.77639392870093</v>
+        <v>40.54170863102476</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.9464720651804</v>
+        <v>36.62413659373765</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>43.7121035912474</v>
+        <v>38.84844700899806</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.52033961543856</v>
+        <v>35.00272062241093</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.61959760432485</v>
+        <v>39.6808080428595</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>49.77885279733093</v>
+        <v>42.48081992421537</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>54.82435903699594</v>
+        <v>45.46025845874632</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.25666495180072</v>
+        <v>40.39496774584718</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.54710917453765</v>
+        <v>34.49413867586416</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.2290867108548</v>
+        <v>36.57481030369895</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.50738840175882</v>
+        <v>33.80998844169201</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>44.78327826712489</v>
+        <v>39.51472228532787</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>49.5240034225418</v>
+        <v>42.31551025201963</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>54.40520700994324</v>
+        <v>45.1713569763664</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>44.79455760323138</v>
+        <v>40.17610367235569</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.8836899428589</v>
+        <v>35.55368269546557</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.99277338056439</v>
+        <v>29.34949878599101</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.39310608786263</v>
+        <v>30.23472164357387</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>23.07144679747534</v>
+        <v>27.11630633057744</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.04982041616547</v>
+        <v>34.56595357774848</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.02204774362554</v>
+        <v>40.21975955428032</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.44550226735079</v>
+        <v>37.58501290326459</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.81698251105294</v>
+        <v>39.63066646178905</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.70360966445283</v>
+        <v>35.00146056776559</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>50.98271447712288</v>
+        <v>43.84425050428796</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.69710307669433</v>
+        <v>40.80385002600556</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.75473918699088</v>
+        <v>38.37702113532919</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.25177176667044</v>
+        <v>40.32070549022964</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.06081555980338</v>
+        <v>34.22550625220436</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>50.90347572304272</v>
+        <v>44.03096394566489</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>47.25128143848282</v>
+        <v>41.59511180538785</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.72625188445173</v>
+        <v>37.98831271776674</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.19673120784113</v>
+        <v>39.86212963833488</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.08954978771736</v>
+        <v>33.32394573470627</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>51.34756292974041</v>
+        <v>44.03726194991509</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.77997074820527</v>
+        <v>30.24317876457059</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.45670214821637</v>
+        <v>30.5312571943004</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.31768800022812</v>
+        <v>28.55795304557207</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.1563674090538</v>
+        <v>39.36134994006418</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.99216743768064</v>
+        <v>34.21876094767763</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.70104555658561</v>
+        <v>34.61837264663182</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.48812247202518</v>
+        <v>31.70427252440101</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.39286349007191</v>
+        <v>39.13818214589937</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.36841648888619</v>
+        <v>40.95808683154532</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.22993350935763</v>
+        <v>38.14653748035581</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>57.0576392186189</v>
+        <v>48.20502126908363</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>54.13018056609584</v>
+        <v>44.89089538542294</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>58.17245568258149</v>
+        <v>47.43889146867951</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>51.21714907586551</v>
+        <v>43.48535553888128</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44.24867558228792</v>
+        <v>39.02026422623842</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.35135927929603</v>
+        <v>40.88941086597611</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.5532285293468</v>
+        <v>37.73478651655324</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>59.19577849517688</v>
+        <v>49.58540911269491</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>55.30071961087214</v>
+        <v>45.70854446367229</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>59.25485809711941</v>
+        <v>48.24815313310299</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>51.49810863539628</v>
+        <v>43.80798484307475</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.36414931046843</v>
+        <v>37.37571282258781</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>44.74573405239769</v>
+        <v>39.37640424046542</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.65111019841985</v>
+        <v>36.77252424694057</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>60.2427594149845</v>
+        <v>50.07713817056133</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>55.50740390844094</v>
+        <v>46.01385507756338</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>59.71012894157508</v>
+        <v>48.73970557039534</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>51.17594601196889</v>
+        <v>43.88572891178546</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.53050707620502</v>
+        <v>24.80094769438995</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.12687660311176</v>
+        <v>26.50026942136095</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.54361797377402</v>
+        <v>27.11603432036608</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.81334511608342</v>
+        <v>25.04870569704874</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.73692523705334</v>
+        <v>20.66202520819757</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.83680001322882</v>
+        <v>37.0856561624386</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>45.16288597279704</v>
+        <v>39.81905028587246</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>49.91952317841549</v>
+        <v>42.66829416363677</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.52186211246767</v>
+        <v>38.35385550826192</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.31994004432471</v>
+        <v>34.46907112869814</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.73873938501549</v>
+        <v>35.0121771586887</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.11709927460131</v>
+        <v>36.79057722114304</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.87491409517126</v>
+        <v>38.88262246595881</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.14950942950615</v>
+        <v>33.32288689011612</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.43212924169472</v>
+        <v>34.49865789726458</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.80545382006153</v>
+        <v>28.57671185825807</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.10497678429164</v>
+        <v>34.1148628302011</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.43243389856081</v>
+        <v>35.33896029627805</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.97174425844363</v>
+        <v>31.66352284496137</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.01027371856075</v>
+        <v>30.10647320988259</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.60121421999807</v>
+        <v>25.3157028969857</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.57794879614561</v>
+        <v>25.64856483423673</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>18.43963386938342</v>
+        <v>23.87518496437087</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.36554274073108</v>
+        <v>23.99070428883378</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.36113637501072</v>
+        <v>28.21082444578336</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.06792222846708</v>
+        <v>28.4440997237752</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.36902327186849</v>
+        <v>26.32572945558734</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.26626469095176</v>
+        <v>36.58301742948452</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.60615879624006</v>
+        <v>39.00811497208289</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.60723831019875</v>
+        <v>35.51925581760887</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.28776707939448</v>
+        <v>38.78066666497493</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.15738246998423</v>
+        <v>41.9628571189096</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.49607046916435</v>
+        <v>45.11161272641828</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.0531989287168</v>
+        <v>40.16243604002472</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.65186311913196</v>
+        <v>36.29060798374803</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.43038133882785</v>
+        <v>38.43249683743049</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.40651718949508</v>
+        <v>34.97173991537935</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>43.53551836979648</v>
+        <v>38.73393422635345</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>49.25567799891098</v>
+        <v>41.93382778968151</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.94789194948554</v>
+        <v>44.69298525466584</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.03749820483478</v>
+        <v>40.13139442865636</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.00879016083486</v>
+        <v>29.36304816484023</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.92824365090278</v>
+        <v>29.67356786243032</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.60064776840209</v>
+        <v>26.972499991765</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.24813046093174</v>
+        <v>35.96274636868035</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.53492665469081</v>
+        <v>39.68052162033835</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>48.7676817285416</v>
+        <v>41.51981023808138</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.71701833607102</v>
+        <v>38.12565121294084</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>13.90689801204709</v>
+        <v>19.2822063234109</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.78556730823923</v>
+        <v>22.76153921591265</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.8139059130114</v>
+        <v>22.67715609527752</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.8376309710933</v>
+        <v>22.37770076537172</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.0680919607876</v>
+        <v>18.04139355576241</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.59603555235978</v>
+        <v>22.80532182090608</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.37378265747713</v>
+        <v>26.87829945164875</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.41099297426375</v>
+        <v>27.31559373597342</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.24000301552886</v>
+        <v>25.88022954241058</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.99564438072932</v>
+        <v>33.4988208084926</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>18.26088778295978</v>
+        <v>21.92149039402126</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.44494332229996</v>
+        <v>25.94976008294161</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.99895471831066</v>
+        <v>26.14277116180221</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.93941506955245</v>
+        <v>24.77642099147078</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.25116973523041</v>
+        <v>29.77960411859777</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>18.50954384574452</v>
+        <v>21.86193590195069</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.32733568821092</v>
+        <v>25.18821451770814</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.98322644499642</v>
+        <v>25.49295365979539</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.3492782004212</v>
+        <v>24.30058113692517</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.031643849673</v>
+        <v>30.24775459869064</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.38232219979159</v>
+        <v>22.6873791655803</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.55513856839805</v>
+        <v>22.54415048492382</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>15.20428523023672</v>
+        <v>21.74814780515921</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.61192363474593</v>
+        <v>18.95992826252878</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>17.76217759717586</v>
+        <v>23.0262012393284</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.99245938016223</v>
+        <v>23.00094193632878</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.1026088232588</v>
+        <v>22.44731873541737</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.99170955181501</v>
+        <v>35.38717104128396</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>41.54301280643666</v>
+        <v>37.51852007471931</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.79659890434526</v>
+        <v>33.95161266723885</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.05056190926308</v>
+        <v>39.4544539418024</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.55123303632156</v>
+        <v>42.22626194718779</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.30236426870788</v>
+        <v>45.06068263751934</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>46.05806126344513</v>
+        <v>40.57350906514267</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.30215347212558</v>
+        <v>32.9597975708163</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.25633889826578</v>
+        <v>34.03527336573288</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.59503942256487</v>
+        <v>31.81956361279934</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>41.95967937118651</v>
+        <v>37.63134423672217</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>46.11159115936381</v>
+        <v>40.22068307200423</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>49.46180843341197</v>
+        <v>42.16830185348293</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>41.80000164259241</v>
+        <v>38.25152718037279</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.19336064309353</v>
+        <v>31.73627981555805</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.6626362487618</v>
+        <v>32.539505318035</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.81906931233852</v>
+        <v>30.74488646810084</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.40850597115399</v>
+        <v>36.33858872296145</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.20039684713983</v>
+        <v>37.26950180261976</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.84421091752196</v>
+        <v>38.17865142612124</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.04804314946169</v>
+        <v>34.21305848844209</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>11.54852406748921</v>
+        <v>17.03119533473659</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>15.05287379175468</v>
+        <v>21.16360730808995</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>14.8659874881087</v>
+        <v>20.85019358783616</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>14.42713455731746</v>
+        <v>20.8978230038064</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.2456954613557</v>
+        <v>18.87826500043184</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.86024392722489</v>
+        <v>24.78460049479546</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.12518783140829</v>
+        <v>30.51915863166766</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.99709543938495</v>
+        <v>31.44095346763148</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>27.87218431564171</v>
+        <v>29.49560433726965</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.47097968616877</v>
+        <v>29.12891487226614</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.30126882190072</v>
+        <v>33.83236647667164</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.83869925884726</v>
+        <v>35.75174815979053</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.52782305217936</v>
+        <v>37.55456570388599</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.12120531865401</v>
+        <v>34.09890817452619</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.56180679446233</v>
+        <v>32.3051601469823</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.65690882928657</v>
+        <v>30.34475225333307</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.35804122212404</v>
+        <v>32.67975190979238</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.93400882863459</v>
+        <v>34.41047731280339</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.32056211620728</v>
+        <v>32.39187298151398</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.59090012437243</v>
+        <v>30.72949356850678</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.70782619926425</v>
+        <v>23.63339934195756</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>18.40473493890848</v>
+        <v>23.27355886076447</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>14.79235278175672</v>
+        <v>21.72805783014159</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>15.86105109188938</v>
+        <v>17.3413937615477</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>17.71095893848448</v>
+        <v>21.3901239494009</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>17.2023036830637</v>
+        <v>20.89402940786315</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.02757170466906</v>
+        <v>19.59372080070504</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.01576610195605</v>
+        <v>33.02544662026823</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>37.12459657500968</v>
+        <v>34.00075354523297</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.29430845290917</v>
+        <v>32.10850063907229</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.23663981543329</v>
+        <v>34.18297446826055</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>44.34792015354738</v>
+        <v>38.85337471375765</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>47.25972254826169</v>
+        <v>40.47096857520015</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>40.79776886410606</v>
+        <v>37.37477306656039</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.4613257314151</v>
+        <v>34.8582609708155</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.02542169615448</v>
+        <v>36.31831590701945</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.97640429404164</v>
+        <v>33.32212554025067</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.33726847519302</v>
+        <v>38.10569249633051</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>45.84474386089824</v>
+        <v>40.39950714492179</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>48.776014677042</v>
+        <v>42.24321994489907</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>40.63385277819243</v>
+        <v>37.73995053299071</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.31977515299545</v>
+        <v>33.002380667082</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.73224348656993</v>
+        <v>34.34078276746126</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.06778147882176</v>
+        <v>32.15300528899328</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.30807254454941</v>
+        <v>34.70032758583325</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>40.75084907874417</v>
+        <v>36.09788060662947</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.07371138141852</v>
+        <v>37.02960125730903</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.17480443145741</v>
+        <v>32.88487331500601</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.59081721440975</v>
+        <v>35.36656923786752</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.03710498373717</v>
+        <v>32.04615715812901</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.41909091000352</v>
+        <v>33.37807453968617</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.53120208244732</v>
+        <v>31.59511654867966</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.95866426309883</v>
+        <v>25.77709537373783</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.5497749381845</v>
+        <v>37.77589204837459</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.68490289961194</v>
+        <v>38.70383353601858</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>46.07651568478261</v>
+        <v>40.82703198239751</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.0389500575184</v>
+        <v>37.2608956692888</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.81662526594414</v>
+        <v>34.48062348200403</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.4051023083737</v>
+        <v>37.37788211504784</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.42472154441134</v>
+        <v>37.27414722411815</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>44.10902674929677</v>
+        <v>38.59821742369264</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.27360158416928</v>
+        <v>32.79423909683287</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.61979739597793</v>
+        <v>35.07209541500618</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>42.75937836315014</v>
+        <v>37.69827037221224</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.42686614771737</v>
+        <v>36.92014051587282</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.09016177863444</v>
+        <v>38.38942473894853</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.58473748284485</v>
+        <v>32.31026993100842</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>37.25307344616078</v>
+        <v>34.39820629129029</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.18990145090062</v>
+        <v>29.96534438018773</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.8947582321526</v>
+        <v>30.88857564406088</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.77950120213298</v>
+        <v>29.03914139974878</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.09085124423239</v>
+        <v>28.4420818508096</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>32.09968278506344</v>
+        <v>31.8443214459219</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.22894637759956</v>
+        <v>32.38606080774181</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>27.62646934377772</v>
+        <v>29.69663641292345</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>41.09155289407649</v>
+        <v>36.83165784415004</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.00035534379737</v>
+        <v>39.11990502997745</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>38.25694620503153</v>
+        <v>35.61502368539138</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>44.31504270933455</v>
+        <v>39.87249252768808</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>49.42097716484163</v>
+        <v>42.18430110343166</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>54.44267702035124</v>
+        <v>45.19942245592153</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>45.9523505398664</v>
+        <v>40.6086279059886</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>41.10001824832818</v>
+        <v>37.01365906295318</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>44.6996773261567</v>
+        <v>39.112739280277</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>37.49135304924089</v>
+        <v>35.35685036754811</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.63266493325303</v>
+        <v>40.29573525052979</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>50.30442200899365</v>
+        <v>42.68906509797038</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>55.18250349305548</v>
+        <v>45.61886837205329</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>46.00390410794036</v>
+        <v>40.64880993053235</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>38.86136899727602</v>
+        <v>35.84240145537967</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>42.81735760492732</v>
+        <v>38.10177652328628</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>35.85150818913657</v>
+        <v>34.61740244147309</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>44.60048469832459</v>
+        <v>39.04881049921323</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>47.31865390205844</v>
+        <v>40.53976919137693</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>51.79279131284096</v>
+        <v>43.10426957118408</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>41.57962360598302</v>
+        <v>37.76706521077303</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.20088788825271</v>
+        <v>21.83154398581664</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>20.75041874315551</v>
+        <v>24.81350892916112</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>21.64063236025557</v>
+        <v>25.14335281534927</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>17.90981945086795</v>
+        <v>23.55101812232597</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.86214087684468</v>
+        <v>23.39891989030297</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.53593383725318</v>
+        <v>36.98965634394264</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>43.92886486008544</v>
+        <v>38.98308630853331</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>48.68466059483042</v>
+        <v>41.74607262013826</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>40.66679112855937</v>
+        <v>37.73386356531486</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.28126207395807</v>
+        <v>34.05235067845911</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>38.76969739658451</v>
+        <v>35.74454508604654</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>39.82876855983903</v>
+        <v>36.58402042039731</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>43.83958265897499</v>
+        <v>38.81888949515029</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.50146574236869</v>
+        <v>33.51907582388796</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>37.58544798087544</v>
+        <v>34.76253050091782</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.77406216479699</v>
+        <v>31.92151272753549</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>35.66041694294447</v>
+        <v>33.82639546645011</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>38.61508473463837</v>
+        <v>35.43937233934217</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.93663935805239</v>
+        <v>31.11413329906249</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.5610506926928</v>
+        <v>31.01012023836886</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>25.19808502085956</v>
+        <v>27.4687250928754</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.3459806655656</v>
+        <v>27.97561878338908</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>22.72358029320895</v>
+        <v>26.38023992925863</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>20.93232817806449</v>
+        <v>23.04425884409603</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>25.28278859591694</v>
+        <v>27.67856601356823</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>25.81901819404504</v>
+        <v>27.88934971972592</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>21.3638109654253</v>
+        <v>25.83556077104915</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>39.96835651513308</v>
+        <v>36.49271890046518</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>44.35377572279909</v>
+        <v>38.89401828182729</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>37.12897148173808</v>
+        <v>35.28803096410737</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>44.94609364219063</v>
+        <v>39.72855235235117</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>48.65552293353437</v>
+        <v>41.73172435689222</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>53.83978276244373</v>
+        <v>44.77874551268908</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>44.46918205865647</v>
+        <v>39.81562881804912</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>40.40971918404605</v>
+        <v>36.87466554339467</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>44.42808801567028</v>
+        <v>39.13789196102063</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>36.51730552824487</v>
+        <v>35.15620244140168</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>44.14601620577982</v>
+        <v>38.93118365264881</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.85843617467911</v>
+        <v>41.35994295000447</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>52.21593247200516</v>
+        <v>43.87491231796253</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>43.10345364341094</v>
+        <v>39.22951646846176</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.73768901352992</v>
+        <v>33.39836423054876</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>37.73840445663442</v>
+        <v>35.01767116424378</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.43953296398428</v>
+        <v>32.59560109247621</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.43432573064108</v>
+        <v>34.77971020566879</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>41.48950066319204</v>
+        <v>37.51659937712188</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>43.88203546324534</v>
+        <v>38.80655608064546</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.39383496943162</v>
+        <v>35.11857839805581</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.519</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.93</v>
+        <v>16.53</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.368</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.056</v>
+        <v>17.187</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.404</v>
+        <v>4.436</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.52336591720866</v>
+        <v>12.25826457352369</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.43302085406858</v>
+        <v>12.90023290991046</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.29073893192017</v>
+        <v>13.47452265412116</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.97319080537481</v>
+        <v>11.61670385013495</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.1197249131229</v>
+        <v>20.91734765941964</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.67342819525718</v>
+        <v>19.01855031410208</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.17808847639911</v>
+        <v>24.68733330600898</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.79998368514216</v>
+        <v>26.94969162805223</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.49742610968339</v>
+        <v>22.3310412801569</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.64400703083437</v>
+        <v>42.60645363821652</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.87547926065806</v>
+        <v>17.81190606024347</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.94728963245265</v>
+        <v>20.86701212297615</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.25353604569372</v>
+        <v>22.88981286238029</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.58816887936361</v>
+        <v>15.87556049491861</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.46908811777843</v>
+        <v>39.21253584989919</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.91837679640282</v>
+        <v>18.71251779664692</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.82635912219797</v>
+        <v>17.51895690719768</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.10990722920207</v>
+        <v>19.15934893672996</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.78457918967913</v>
+        <v>12.51346300808001</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.9800928676861</v>
+        <v>39.81664481867558</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.83814372327812</v>
+        <v>25.3908096000891</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.91428496060499</v>
+        <v>26.38332521410372</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.44774062969039</v>
+        <v>19.79031052922161</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.69049540206225</v>
+        <v>17.04362188800184</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.97033114985781</v>
+        <v>23.74484568301672</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.06090305493439</v>
+        <v>25.13339651390505</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.75903303700436</v>
+        <v>18.42674799670941</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>41.56807348061214</v>
+        <v>51.18217548638553</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.27442232658371</v>
+        <v>55.62835222566679</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40.63441134626177</v>
+        <v>47.60859721448315</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.56707637248676</v>
+        <v>47.72428546388635</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.7641394166891</v>
+        <v>60.63763535050304</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.0423511900886</v>
+        <v>66.65468725524617</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>45.73108818686553</v>
+        <v>57.08395611449322</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.37199441560912</v>
+        <v>45.68475810746432</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>40.01469545403929</v>
+        <v>49.55682537110408</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.02908205974604</v>
+        <v>41.6482116902811</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.43782233422336</v>
+        <v>46.70501596212934</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.54376470327455</v>
+        <v>56.88279046154751</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46.45840964483767</v>
+        <v>62.55200983185988</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.31886765398905</v>
+        <v>51.97808939960865</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35.509311032465</v>
+        <v>39.49467262560394</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.78952556126379</v>
+        <v>42.5978342676101</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.54443808546041</v>
+        <v>36.03608046626608</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.49137384307075</v>
+        <v>48.73355092350332</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.90722891475964</v>
+        <v>55.54506918518568</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>46.79699837510808</v>
+        <v>60.57189860080854</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.43792586937331</v>
+        <v>49.93159824050479</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.02603062360988</v>
+        <v>38.80144251792991</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.90369576417838</v>
+        <v>34.20305028036936</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.6135257696977</v>
+        <v>38.22433331888243</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.20742334557397</v>
+        <v>27.95197157107998</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.20731642919225</v>
+        <v>24.34514521086762</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.09760049125355</v>
+        <v>44.57895915367484</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.43150791226478</v>
+        <v>46.3036697403395</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.36384503348827</v>
+        <v>52.5487146751683</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.79419705588554</v>
+        <v>39.73219608445078</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.39020878397127</v>
+        <v>45.8668518057278</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.55664076311781</v>
+        <v>41.21358809143881</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.02295574653593</v>
+        <v>41.31486941957435</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.29427949480186</v>
+        <v>46.8799501538607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.05480924658692</v>
+        <v>32.10442082782485</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.36128837312469</v>
+        <v>44.07301779184986</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37.79262859364748</v>
+        <v>44.51306131909713</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.29952598041282</v>
+        <v>42.01800331197258</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.74858383744464</v>
+        <v>47.23834365383527</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.66808644908545</v>
+        <v>32.99496152852448</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.28848561175938</v>
+        <v>43.30675931034091</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.2509937820736</v>
+        <v>29.14588072574584</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.18441504102974</v>
+        <v>32.0197530268897</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.18565084755266</v>
+        <v>23.89721356907242</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.66170865072803</v>
+        <v>34.04140791110462</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.68320807731057</v>
+        <v>35.66606152553571</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.71907141037249</v>
+        <v>38.90145968293716</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.68979512686025</v>
+        <v>28.21547668266985</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>41.95675926718975</v>
+        <v>50.67210718321336</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.97535188314077</v>
+        <v>56.36699411921818</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.94795819801419</v>
+        <v>44.87737831177478</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.52011604251096</v>
+        <v>53.51778066419226</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.15864810924705</v>
+        <v>59.7811864791209</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.02149803154457</v>
+        <v>67.1649016510398</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.735440061079</v>
+        <v>52.30842947801348</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.78799611142539</v>
+        <v>47.91728393344884</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.24615211226822</v>
+        <v>52.98326772756749</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>37.92794085182565</v>
+        <v>42.126656555683</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.26679439384056</v>
+        <v>52.47564134436318</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>45.08458277710019</v>
+        <v>58.06843161644706</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>48.57321613315603</v>
+        <v>65.14576552202888</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.78988524298389</v>
+        <v>49.9400769976456</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.94399352087378</v>
+        <v>43.28618512678901</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>39.94400840713912</v>
+        <v>47.46874955234748</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.09225051707997</v>
+        <v>39.47838052224817</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.23749105200083</v>
+        <v>51.91512760170482</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44.40990016610647</v>
+        <v>56.16153910848915</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.3549373378937</v>
+        <v>62.46923686627641</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>42.66332409747384</v>
+        <v>49.24756915782628</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.84462862782545</v>
+        <v>27.97231352553898</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.09673365319251</v>
+        <v>26.08323302368739</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.09609544545851</v>
+        <v>28.96930265941695</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.29837397102521</v>
+        <v>21.03024974691929</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.48365782784863</v>
+        <v>25.86237275439348</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.94480006201481</v>
+        <v>40.3669566710933</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>39.56786825760146</v>
+        <v>45.52683555055795</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.28099706894353</v>
+        <v>50.71148147156686</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.72687463619575</v>
+        <v>40.15054793391992</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.24129972180693</v>
+        <v>46.78983048004568</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.07903890584266</v>
+        <v>37.36807706881594</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.93403857025204</v>
+        <v>40.16212083593684</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.14371529343268</v>
+        <v>44.84591355130113</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.81418354116798</v>
+        <v>31.2786153328071</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.05189164361153</v>
+        <v>46.00962157181057</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>37.71055660868733</v>
+        <v>42.17096910691087</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.93048143906903</v>
+        <v>42.16728434942051</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.50123609557681</v>
+        <v>47.11004605782871</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.38110909193247</v>
+        <v>32.98171313510385</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.53075429946296</v>
+        <v>44.07823776593101</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.04650771066285</v>
+        <v>30.09391604957299</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.99060339464335</v>
+        <v>33.10338852173478</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.02706397004348</v>
+        <v>24.33849181767981</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.3691668031446</v>
+        <v>32.72974818748492</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.86147261641683</v>
+        <v>35.22856800761458</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.85137033439527</v>
+        <v>38.12634925721403</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.1683115296501</v>
+        <v>28.15441192393868</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.53690436459865</v>
+        <v>51.87603086766865</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.45248702685281</v>
+        <v>57.56199796070116</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.39995954445264</v>
+        <v>45.71461628304536</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.32334908283209</v>
+        <v>53.18938372822527</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.50730692162884</v>
+        <v>61.21981995704549</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.92495552026509</v>
+        <v>68.0315811395503</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.55508333116832</v>
+        <v>54.60310380859039</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>41.49142946280448</v>
+        <v>49.98525764567569</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.29544921086643</v>
+        <v>55.33199703393622</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.30310797869795</v>
+        <v>43.54735191686757</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.92038610737192</v>
+        <v>53.00099628363421</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>45.0834695511319</v>
+        <v>60.09540280554538</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>48.56283742696215</v>
+        <v>66.92811212077397</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.77169526005593</v>
+        <v>52.46963801762995</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.11474917959704</v>
+        <v>44.83992166684875</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.84293257417622</v>
+        <v>49.95294386434806</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>37.56573204104298</v>
+        <v>40.11102778264004</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.50285657855476</v>
+        <v>54.42318179491526</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.54836010067469</v>
+        <v>59.57401117010781</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.28329519167497</v>
+        <v>66.46164092174621</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.36053719788358</v>
+        <v>52.33446677092637</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>20.85522872942204</v>
+        <v>16.1854901433484</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.53002958558334</v>
+        <v>25.8648420753981</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.60318152478124</v>
+        <v>28.13071760230677</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>32.45613855816825</v>
+        <v>33.42071152106626</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.30856716641745</v>
+        <v>14.99264840520562</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.27975773440058</v>
+        <v>22.49615424862095</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.73245935849625</v>
+        <v>36.0282543351651</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.45738395901767</v>
+        <v>40.05088510238261</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.40866536179369</v>
+        <v>40.93408277551518</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.887154151196</v>
+        <v>44.66776408646619</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.8015614928031</v>
+        <v>21.39331437366248</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.67527344047983</v>
+        <v>33.0422666849928</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.31500291107101</v>
+        <v>36.89910083898785</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.2174867520776</v>
+        <v>35.75145308590648</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.40516272687552</v>
+        <v>40.0366430136734</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.55748304566206</v>
+        <v>23.42232800254567</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.9980558905844</v>
+        <v>31.69597988722986</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>32.61113605363193</v>
+        <v>35.43958986973684</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>34.12756011803611</v>
+        <v>35.6647002314089</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.43932702134953</v>
+        <v>34.75708670326672</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.49104998333517</v>
+        <v>18.73615806855273</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.34966029280633</v>
+        <v>19.90251933817004</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.90045909376612</v>
+        <v>14.13106301151196</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.73733293394903</v>
+        <v>17.70012514142536</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.91856504706455</v>
+        <v>22.93922752921573</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.1103738506341</v>
+        <v>24.39087478138015</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.34949634136872</v>
+        <v>19.76204494012758</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.44214111771301</v>
+        <v>51.12257059835477</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.26247266499235</v>
+        <v>55.80602202428427</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.69451858474778</v>
+        <v>46.84181384720137</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.09029862941673</v>
+        <v>49.57231923914671</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.92889961344459</v>
+        <v>60.28072031567311</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>50.25195667721988</v>
+        <v>65.89325466722811</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.07010220045525</v>
+        <v>56.03492544797591</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>38.25816206504643</v>
+        <v>45.88400631441017</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>39.99228872806982</v>
+        <v>49.90732679008278</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.64604744070998</v>
+        <v>41.56550239810906</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.52123307766144</v>
+        <v>46.27477534044426</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.97176576326891</v>
+        <v>55.63257967739573</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>46.32448318223821</v>
+        <v>60.56804365059974</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.29479185553667</v>
+        <v>50.26627595158398</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.64523670706183</v>
+        <v>34.59230749305603</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.78168278042685</v>
+        <v>37.86238904131512</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.84490128371961</v>
+        <v>31.65598414930662</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.31845660099908</v>
+        <v>43.71908103915315</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.4856233594184</v>
+        <v>49.15489155886646</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.5127813617301</v>
+        <v>53.54506182481515</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.36797380347346</v>
+        <v>44.54137727477254</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.13323361988485</v>
+        <v>23.45041198380459</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.95012778512843</v>
+        <v>18.73685785348414</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.68457846387366</v>
+        <v>21.16416881051498</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.33937987786492</v>
+        <v>10.5316762024583</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.92713702149507</v>
+        <v>27.73830175974652</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.23376899469209</v>
+        <v>37.39357923636344</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.56516047774881</v>
+        <v>34.74646019681864</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.07927115788538</v>
+        <v>38.87692954899832</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.88772599038303</v>
+        <v>19.80010851638281</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>41.10385087482548</v>
+        <v>46.64170626325974</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.30439281209832</v>
+        <v>38.08834729155001</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.47040738709425</v>
+        <v>33.98794208003606</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.76673243624119</v>
+        <v>38.01559930887082</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.26421618147222</v>
+        <v>15.90521392449342</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.23522469251658</v>
+        <v>45.45931901216977</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.94387134127179</v>
+        <v>42.42050084318342</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.62026736667502</v>
+        <v>33.92642120299066</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.23239421045044</v>
+        <v>38.03143486458448</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.64476214195054</v>
+        <v>16.70779748449015</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.06145833460806</v>
+        <v>46.9841838631007</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.18882985686093</v>
+        <v>34.25972761593607</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.31386797145667</v>
+        <v>37.24273369901326</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.72833003285603</v>
+        <v>29.36801199020879</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.79744524181859</v>
+        <v>29.80778712465072</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.31746100717147</v>
+        <v>34.89019961034812</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.09702603075999</v>
+        <v>37.32558489641815</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.44022129062099</v>
+        <v>29.70358130720281</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.61287818674489</v>
+        <v>56.08442116250885</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.79886541617725</v>
+        <v>61.94402613410014</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.76535061321488</v>
+        <v>50.94051431568251</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>42.52789079823622</v>
+        <v>50.42051547442504</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.25366908726363</v>
+        <v>61.30969448232714</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.76416468709455</v>
+        <v>67.71305052126496</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.61387345728335</v>
+        <v>56.13773047055987</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.28272051194956</v>
+        <v>53.4845477051532</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>46.28504859127643</v>
+        <v>59.17216035844604</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>41.05582618703653</v>
+        <v>47.64901748480916</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>39.59557860082283</v>
+        <v>48.70293763658874</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.64503906138011</v>
+        <v>58.09146891090809</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>47.82228058440296</v>
+        <v>64.32091083150839</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.9389212006929</v>
+        <v>51.5545737009847</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>41.17691637693886</v>
+        <v>49.98782908945989</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.34891683588414</v>
+        <v>55.94384355625847</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.1811199573542</v>
+        <v>45.76804031772824</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.77693091684026</v>
+        <v>55.27559011798078</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.82310302856131</v>
+        <v>61.29015999574135</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>49.51309735387116</v>
+        <v>68.03720430821842</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.95391274721548</v>
+        <v>54.77321876643801</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.22191371777063</v>
+        <v>31.32018955976078</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.0623269302993</v>
+        <v>21.64875073893567</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.25456819934791</v>
+        <v>24.62976647629171</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.2138904421853</v>
+        <v>11.39613106083955</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.74256079281581</v>
+        <v>33.13004435015175</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.66741025476951</v>
+        <v>36.72010353235893</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.99761597169416</v>
+        <v>31.45139306572332</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.30109857629468</v>
+        <v>34.956541165259</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.86348200612644</v>
+        <v>14.44590130233812</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.24525743209435</v>
+        <v>48.29908702820521</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.76212082462678</v>
+        <v>37.46968428769195</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.52156252846043</v>
+        <v>32.4415127838998</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.66779868526891</v>
+        <v>35.81080744823183</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.98407786364497</v>
+        <v>12.06411233808194</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>41.51305577662349</v>
+        <v>47.59866618049882</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.09938707784792</v>
+        <v>43.30954553450452</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.56793196373368</v>
+        <v>35.0318072507818</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.14460181664244</v>
+        <v>39.04322147245455</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.35789147993478</v>
+        <v>14.55251622961501</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.25460870620564</v>
+        <v>49.28419067269371</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.29698186173873</v>
+        <v>37.55573334998023</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.94539789934922</v>
+        <v>41.66469629159236</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.33374537721717</v>
+        <v>32.54433251401051</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.78011823652719</v>
+        <v>34.03905672608322</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.47245462433036</v>
+        <v>37.38152994186963</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.68007369469103</v>
+        <v>40.72847837135241</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.78857515467786</v>
+        <v>30.91531141928338</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>44.22897750708997</v>
+        <v>55.08996155387103</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>47.5536910431013</v>
+        <v>61.53512849492305</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>42.22700260522811</v>
+        <v>49.200126764264</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>41.56154128645719</v>
+        <v>51.23979033478015</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>45.30505202743824</v>
+        <v>59.33456509847559</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>48.75038547682723</v>
+        <v>66.08420548359138</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>43.71243975694271</v>
+        <v>53.09101739102245</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43.52286535054083</v>
+        <v>53.75347587507018</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.9137960625593</v>
+        <v>60.17196901177265</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>41.21292030371954</v>
+        <v>47.51488383627088</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>41.94849128544801</v>
+        <v>52.45712546559395</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>45.85931701863908</v>
+        <v>60.24377555158691</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>49.42416807006089</v>
+        <v>67.09029207155699</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>43.96404436804265</v>
+        <v>53.25267487127801</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.34129549732017</v>
+        <v>51.93873861229967</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>45.59139130986343</v>
+        <v>58.16871114877085</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>41.0957465975415</v>
+        <v>47.39812607051823</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>43.04462214491595</v>
+        <v>53.56667653870433</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>45.13643010652579</v>
+        <v>58.9930717056416</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>48.64285493485936</v>
+        <v>65.62949261185875</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.8980616777605</v>
+        <v>51.70735615679548</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.841916911023</v>
+        <v>10.99104031381193</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.99645316350357</v>
+        <v>12.27510478124108</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.82342533769401</v>
+        <v>12.67278438324018</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.61755885227576</v>
+        <v>10.09545738902716</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.09015226075304</v>
+        <v>19.52852194952511</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.5442014357552</v>
+        <v>15.57416159212597</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.24496341707158</v>
+        <v>20.86662389387143</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.59041934397069</v>
+        <v>22.5964102858631</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.21147405955684</v>
+        <v>17.47674082409165</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.76208220130371</v>
+        <v>36.71136134261246</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.08582933932979</v>
+        <v>13.40665516367604</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.63045374281142</v>
+        <v>16.86396758060351</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.5335661703404</v>
+        <v>18.16766370328969</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.52655112912561</v>
+        <v>11.17855068270375</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.49431032712586</v>
+        <v>35.13530157235775</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>18.45772159898584</v>
+        <v>13.66973088019441</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.33941380345237</v>
+        <v>15.35729177212722</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.19705911973245</v>
+        <v>16.58307933554059</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.86696817091774</v>
+        <v>10.04824805719997</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.67828688673543</v>
+        <v>33.06073327019734</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.69617816098953</v>
+        <v>22.78935309088802</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.21522951145449</v>
+        <v>24.37273559679355</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.47799004129776</v>
+        <v>18.52235061710879</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.76132285341752</v>
+        <v>20.16058805424889</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.13972471333365</v>
+        <v>25.50854197622317</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.37349103353578</v>
+        <v>27.24621167770706</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.3037164124438</v>
+        <v>20.73240451742306</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.34447337379466</v>
+        <v>40.4883541720107</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.45370090050331</v>
+        <v>44.34123986779788</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.77394569281778</v>
+        <v>36.24766001891525</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.84233354832239</v>
+        <v>44.93175673747267</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.13946413965231</v>
+        <v>53.7300821422914</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>45.07068927925955</v>
+        <v>59.04629321203792</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>41.11979495722769</v>
+        <v>49.89427365656458</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.34401137125241</v>
+        <v>37.67062205608057</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.94483808781616</v>
+        <v>41.04639483515127</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.06076121181697</v>
+        <v>33.33716819379843</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.0665063531623</v>
+        <v>46.01365652307154</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.3907776863587</v>
+        <v>53.50452683271021</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>45.20163926408051</v>
+        <v>58.76000260805885</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.31480352719569</v>
+        <v>48.84548383725141</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.94580066342252</v>
+        <v>32.98213064264053</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>33.26811489455955</v>
+        <v>36.03148876974539</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.05522922082501</v>
+        <v>29.72544630437686</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.34710785134236</v>
+        <v>47.52277928267797</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>43.02693104011831</v>
+        <v>53.86697223918023</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.95966501279695</v>
+        <v>59.16456793691469</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>41.39778201133917</v>
+        <v>48.61385626682398</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.62126436243164</v>
+        <v>8.120321397739378</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.48823399182334</v>
+        <v>9.814639070881157</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.34365472353545</v>
+        <v>10.00132340968517</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.6232875294495</v>
+        <v>10.33702015703919</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.05735494487386</v>
+        <v>9.630880179502451</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.59699985824709</v>
+        <v>11.69585194854836</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.50053056225619</v>
+        <v>15.56733223799258</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.72701754060574</v>
+        <v>17.27842351622103</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.23188341078436</v>
+        <v>14.27080941236249</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.57632883100856</v>
+        <v>18.41010944422707</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.77824024410799</v>
+        <v>11.05493263861927</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.78745263501506</v>
+        <v>12.68164115267222</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.02017597129761</v>
+        <v>14.2334444862512</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>21.69557790310584</v>
+        <v>9.403748629662587</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.18491436811104</v>
+        <v>16.84267251732791</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.3464895381933</v>
+        <v>9.528712783466119</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.45089533647064</v>
+        <v>8.897499864186038</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>19.34169599803246</v>
+        <v>9.781892359099629</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.53795462303015</v>
+        <v>6.257439286426145</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16.99454619613664</v>
+        <v>12.24985770803212</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.8224658501262</v>
+        <v>14.64712400712745</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.32027027238259</v>
+        <v>14.1618822027008</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.42072657595468</v>
+        <v>10.17604744777127</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.77075465734701</v>
+        <v>13.86639006443479</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.99659001740399</v>
+        <v>15.71692468242747</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.49090503447588</v>
+        <v>15.17824952853802</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.20109698858183</v>
+        <v>9.022112808050895</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.78995253977519</v>
+        <v>23.85591572231497</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.06344305215334</v>
+        <v>25.43581785226802</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.55811945777579</v>
+        <v>18.49907634742521</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.62798452515388</v>
+        <v>33.82407604730186</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.83935146133579</v>
+        <v>37.25674147985708</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.94197719836016</v>
+        <v>39.92670706635339</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.16386404958589</v>
+        <v>29.46306769876541</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.44634144572464</v>
+        <v>20.06689895484756</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.33203571510184</v>
+        <v>21.19913913543648</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.30380556387751</v>
+        <v>14.33319035997186</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.19023832666979</v>
+        <v>32.64926422366236</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.62920110309341</v>
+        <v>32.51345092345691</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.73367459096741</v>
+        <v>34.40244604429815</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.3055674836516</v>
+        <v>22.79693355568612</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.5984546726861</v>
+        <v>12.27643976057117</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.43145669612165</v>
+        <v>13.16483962037578</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.10415514147034</v>
+        <v>9.585763937848466</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.93577650046462</v>
+        <v>34.20401693378302</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.36469144609344</v>
+        <v>32.2253587629188</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.28428286346698</v>
+        <v>33.49784366847953</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.98719692453131</v>
+        <v>23.05487591163508</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.36891590496753</v>
+        <v>40.03998239441987</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.67081847201556</v>
+        <v>31.51250796191339</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.96714299758419</v>
+        <v>34.7001050550906</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.6376777221031</v>
+        <v>29.36377856601093</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.08460133969605</v>
+        <v>23.20801707977117</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>38.99693109539677</v>
+        <v>48.56470727908234</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.88564902919263</v>
+        <v>50.40196986273544</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.57666616649649</v>
+        <v>55.76678631682979</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.81318724984518</v>
+        <v>46.20782096253162</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.93830898620645</v>
+        <v>40.59354039080022</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.14266841014444</v>
+        <v>46.01702707763112</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.39038633387526</v>
+        <v>46.85685089788259</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.64437438033725</v>
+        <v>51.68013454042553</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.03556812346689</v>
+        <v>38.90304908187694</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.27809949674161</v>
+        <v>39.81720711865171</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.55371832778133</v>
+        <v>47.62853984695244</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>37.28539525777409</v>
+        <v>43.34991354818611</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.98219259397032</v>
+        <v>47.39216608460129</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.82594023237331</v>
+        <v>33.97989813567445</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.18665158238485</v>
+        <v>37.55115702794066</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.17454601896732</v>
+        <v>26.48386685225845</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.08418505283068</v>
+        <v>29.49357453244478</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.65445669577319</v>
+        <v>22.13965043590834</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.75050193912244</v>
+        <v>32.50177712205419</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.66994461202351</v>
+        <v>34.62183497220545</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.56510551139036</v>
+        <v>37.36741526486273</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.47172463780528</v>
+        <v>28.97957074482691</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.48355909946983</v>
+        <v>45.89538821544889</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.88967192622729</v>
+        <v>51.08763751436172</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.16559549558442</v>
+        <v>41.5552427355769</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.1353288633453</v>
+        <v>50.03448641553166</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.93768331315878</v>
+        <v>56.67362537800435</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.95052749943307</v>
+        <v>62.81561801971389</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>41.35663478389363</v>
+        <v>51.74888541335537</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.27600878111552</v>
+        <v>43.99817912787272</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.58987460180496</v>
+        <v>48.88682099426815</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.76361378716754</v>
+        <v>39.25742419011323</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.29265434004426</v>
+        <v>51.14110262216889</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>44.40124512179811</v>
+        <v>56.85368619647727</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>47.62613152235765</v>
+        <v>63.0026125594114</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.83903164476698</v>
+        <v>51.03601877598413</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.49636356361563</v>
+        <v>37.61839198358142</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.46165289266227</v>
+        <v>42.15265107755993</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.67468595605865</v>
+        <v>34.05757944773903</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.19690488243369</v>
+        <v>51.37632527569757</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>43.36796356460516</v>
+        <v>55.8469265953532</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>46.62676941830185</v>
+        <v>61.79709754895451</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.82810024492456</v>
+        <v>49.87391005464013</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.49110619505546</v>
+        <v>6.54565665096958</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.6498665026815</v>
+        <v>8.259639385645595</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.29742511688908</v>
+        <v>8.216233216698157</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.63084663849564</v>
+        <v>6.43063120403637</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.75112064331853</v>
+        <v>9.485305778641511</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.39946518250713</v>
+        <v>14.98342657833126</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.82606083800457</v>
+        <v>19.29373672850125</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.97836292836153</v>
+        <v>20.77192854803668</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.31104038550625</v>
+        <v>16.78657183308525</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.21774939136915</v>
+        <v>31.94528480188343</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.1508003991028</v>
+        <v>12.93710513113983</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.09257867414323</v>
+        <v>15.19770759530345</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.09508663449233</v>
+        <v>16.12930776023595</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.10628703167637</v>
+        <v>10.83491495103151</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.89840977958972</v>
+        <v>27.70271195021655</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.49613260689701</v>
+        <v>10.18305334719575</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.45801023187289</v>
+        <v>11.87489037746397</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.36672402723561</v>
+        <v>12.60507695313732</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.20510989461142</v>
+        <v>8.712828436242823</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.29031124274271</v>
+        <v>19.68033143119881</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.75261813327304</v>
+        <v>12.63111729240332</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.44485265363908</v>
+        <v>13.31504460876967</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.65770431122527</v>
+        <v>9.428358069059183</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.69815671291296</v>
+        <v>10.56877092433045</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.68163705859522</v>
+        <v>15.04058021393902</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.64910116629541</v>
+        <v>15.45164749397734</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.04490218024117</v>
+        <v>12.24097124912922</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.07225986953753</v>
+        <v>34.10662717337128</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.72141191478126</v>
+        <v>37.00842772812676</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.46869273293437</v>
+        <v>30.0210813623556</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.2595553973916</v>
+        <v>42.99054673446929</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.52386773066003</v>
+        <v>50.12083181425857</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.66140344926974</v>
+        <v>53.81827384015985</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.23296573552849</v>
+        <v>45.6701104526788</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.36264984912866</v>
+        <v>28.20391922197024</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.63674092673194</v>
+        <v>30.13018380583011</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.10357186184958</v>
+        <v>24.39121434585092</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.17375365037203</v>
+        <v>40.84324505220708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.53009078215876</v>
+        <v>45.62845173880624</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>39.52503317350679</v>
+        <v>48.38199946082758</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.30292477345236</v>
+        <v>39.80187680460733</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.52115384727498</v>
+        <v>17.25350085890233</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>23.39836680882183</v>
+        <v>18.47270742192407</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.55601578002043</v>
+        <v>15.46661930505546</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.65040788240298</v>
+        <v>38.12218076874691</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.64378683644667</v>
+        <v>40.46686437759896</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.54976118866453</v>
+        <v>42.65360434501279</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.325115693306</v>
+        <v>34.99576253467013</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>12.87967215173385</v>
+        <v>2.298932450206237</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.09442328664676</v>
+        <v>1.951328680208899</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.56275877596399</v>
+        <v>1.51252383384103</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.54941267056502</v>
+        <v>2.010058503484494</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.36451657231253</v>
+        <v>23.47948561217443</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.84848684509891</v>
+        <v>6.194204747061708</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>18.68128247808257</v>
+        <v>9.50979902449971</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.26112202891554</v>
+        <v>10.05513967037532</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>18.52736779231649</v>
+        <v>7.754359299751357</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.16368699513374</v>
+        <v>39.0573244547481</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>15.93677733280232</v>
+        <v>8.497312421762309</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.10355668100829</v>
+        <v>10.19064307916739</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.52558712109833</v>
+        <v>10.29451355486084</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.6382975897626</v>
+        <v>5.530494131882058</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>34.51914772194287</v>
+        <v>39.39779342270481</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.93533680400901</v>
+        <v>11.82748863804524</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.73477723649741</v>
+        <v>12.038407064119</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.25907287587037</v>
+        <v>12.64446285107802</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.37045551756254</v>
+        <v>8.693778822382853</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.84643436322339</v>
+        <v>37.64880991871381</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.97529549282615</v>
+        <v>26.62482927215991</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.70556122087659</v>
+        <v>28.83555483381549</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.79383585172616</v>
+        <v>22.26686573864673</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.07434180131483</v>
+        <v>26.28848214487247</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.31877178259589</v>
+        <v>28.88191074974317</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.76164564398283</v>
+        <v>31.04145140066754</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.90740030003582</v>
+        <v>23.05640435677774</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.63044082851796</v>
+        <v>43.02159829498684</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.88006405749695</v>
+        <v>47.6856136309136</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.28531859430574</v>
+        <v>38.06480276965601</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.02744849201301</v>
+        <v>47.72333666098692</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.46871692920805</v>
+        <v>55.16189938401212</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.76232520013161</v>
+        <v>61.27897373593871</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>41.61990046111777</v>
+        <v>49.33643152799848</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.98691180783655</v>
+        <v>42.70248177021782</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>39.20932964240787</v>
+        <v>47.12117121105911</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.44583408103941</v>
+        <v>37.5382648980227</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.71601786108846</v>
+        <v>50.06365282393525</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.35292095021139</v>
+        <v>57.14595839145785</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>47.69764379773539</v>
+        <v>63.38820458555515</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.34908508466502</v>
+        <v>50.41993973277994</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.07115461538402</v>
+        <v>38.46806484047681</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.09944707511707</v>
+        <v>42.62816308135328</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.11411191266035</v>
+        <v>35.29549092392083</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.71949317508504</v>
+        <v>50.6902395781437</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>44.61589847579865</v>
+        <v>56.48503272187358</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>48.04461422523936</v>
+        <v>62.8906986955074</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.53010148664757</v>
+        <v>50.53890062411583</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.44908545646594</v>
+        <v>10.62147023054962</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.63363437606164</v>
+        <v>13.30956321926209</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.40230329932797</v>
+        <v>13.35918197008358</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.32343992320306</v>
+        <v>12.11374334519288</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>15.13008939194142</v>
+        <v>5.844009582303531</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.80997551033332</v>
+        <v>16.92821362766435</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.95331936133626</v>
+        <v>23.36670948252452</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.39440123591819</v>
+        <v>24.99461425026267</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.32095277923703</v>
+        <v>21.40938894333745</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.6609493699483</v>
+        <v>21.1559051275892</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.44281079182295</v>
+        <v>15.99083319920027</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.73743626929392</v>
+        <v>20.47462347430086</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.96466777728435</v>
+        <v>21.71798355829405</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.1601426878343</v>
+        <v>16.22290156729679</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.95941072341646</v>
+        <v>19.59710107356402</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.30091394296658</v>
+        <v>14.54486568771464</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.39168934463833</v>
+        <v>17.13455239152102</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.51347613627032</v>
+        <v>18.40782713630952</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.63951998679131</v>
+        <v>13.78839569818802</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.51598949674602</v>
+        <v>15.36235613781255</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.35732732241618</v>
+        <v>8.500095550131796</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.93213202959773</v>
+        <v>8.338233904815183</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.6191787892398</v>
+        <v>5.806534311662478</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.6017600653034</v>
+        <v>15.59298006677894</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.29857962907235</v>
+        <v>19.18240921921758</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.56789499267066</v>
+        <v>20.07155926306627</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.65297281467369</v>
+        <v>15.28693329725535</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.18326436139989</v>
+        <v>23.71716397858551</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.64779425472519</v>
+        <v>25.40715565494428</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.49211316186693</v>
+        <v>20.5229981235081</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>32.73986844721137</v>
+        <v>33.65095124550606</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.96051422967629</v>
+        <v>41.57034504433396</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>38.40014746339661</v>
+        <v>45.29993802804027</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.35741428415287</v>
+        <v>36.67211375435856</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.7027498691752</v>
+        <v>21.26966889994017</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.69539505730526</v>
+        <v>22.49795293737999</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.70064397503458</v>
+        <v>17.89908630725076</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.8381033532091</v>
+        <v>33.77030486062915</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.27605155807468</v>
+        <v>40.81614138771248</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.68838052017372</v>
+        <v>44.31853316558237</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.57888507589487</v>
+        <v>34.76128617073787</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.60083084306309</v>
+        <v>14.05688078306212</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.38959989315325</v>
+        <v>15.00502514541316</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.3895750836667</v>
+        <v>11.92214804558066</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.67056702957852</v>
+        <v>32.18774855513129</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.58089179337759</v>
+        <v>36.72115661157635</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.14266910144462</v>
+        <v>40.19233500885937</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.63479883940348</v>
+        <v>31.62417800166231</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.26825666910666</v>
+        <v>3.136999477836667</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.58336491705643</v>
+        <v>5.696282398467844</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.06887174360791</v>
+        <v>5.276396998611528</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>17.98368150197714</v>
+        <v>6.061796864937648</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>12.71645302504199</v>
+        <v>-0.4099468250470188</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.28547397448605</v>
+        <v>5.438893394015256</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.52496323258706</v>
+        <v>10.40021475781289</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.24363536600499</v>
+        <v>10.85440598137951</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.38011766570239</v>
+        <v>9.771374956806682</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.75200330979613</v>
+        <v>6.852182772828357</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.11178753663893</v>
+        <v>5.955292327946694</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.68320593319176</v>
+        <v>9.515013698854222</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.3876119330112</v>
+        <v>9.664690120998277</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.31457122574248</v>
+        <v>7.182959402636623</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>14.28064157762756</v>
+        <v>5.049539835429457</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.08209336089079</v>
+        <v>6.662082980907915</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.13863650364526</v>
+        <v>9.269436848688791</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.72263135737919</v>
+        <v>9.834542937404592</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>19.39480963869072</v>
+        <v>8.167444622441494</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.8196977419036</v>
+        <v>4.027029028772393</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.4816335349094</v>
+        <v>3.008565686846271</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.91538950061452</v>
+        <v>2.524887773244735</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.7171135860759</v>
+        <v>2.399846824797223</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.99994493418045</v>
+        <v>10.57712891361358</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.47410778450252</v>
+        <v>13.96597387157745</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.46679547962413</v>
+        <v>14.14388121277271</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.32220373763401</v>
+        <v>11.94845749578998</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.92197781837456</v>
+        <v>9.316730280542338</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.57520910516289</v>
+        <v>9.971596692475774</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.97498587585778</v>
+        <v>8.217450448921007</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.65570429866078</v>
+        <v>22.8917158263358</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.14851778844978</v>
+        <v>29.8234473617655</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.69783015791183</v>
+        <v>31.95833534855067</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.03634421071941</v>
+        <v>26.92543766344764</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.19903258547486</v>
+        <v>7.00324682981168</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.74666104895782</v>
+        <v>7.166168757211071</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.43123010765956</v>
+        <v>6.175682363420876</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.83206814922195</v>
+        <v>23.21540623829022</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.67044634194406</v>
+        <v>29.41558869123664</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.27598269425577</v>
+        <v>31.24877162599348</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.64016391882453</v>
+        <v>25.72541869235574</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.70673721738023</v>
+        <v>4.756473903852093</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>17.27359570207461</v>
+        <v>5.066945991172734</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>18.06023713366626</v>
+        <v>5.31232744247178</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.38617087517509</v>
+        <v>23.37712376869712</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.5533683571754</v>
+        <v>27.30722352615368</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.30924428764956</v>
+        <v>29.51034624000986</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.90038368511195</v>
+        <v>24.58878620780849</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.45247949023811</v>
+        <v>16.92500259805258</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.93089120855194</v>
+        <v>19.88564816731793</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.33040071423065</v>
+        <v>21.4296017872844</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.49965863916153</v>
+        <v>19.75149730281343</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.35308011324176</v>
+        <v>6.424208597970235</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.89040907733516</v>
+        <v>32.85387318252541</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.93860052671911</v>
+        <v>43.38743047761878</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.99779919292645</v>
+        <v>47.4580434581068</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.39988284765072</v>
+        <v>42.84142284079208</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.99742909275741</v>
+        <v>24.49928263128983</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.12141072547542</v>
+        <v>35.96477715297124</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.16141244739374</v>
+        <v>44.70078002576818</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>40.29403078666184</v>
+        <v>48.69318625104076</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.69557521534953</v>
+        <v>42.27617711856283</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.97028227928909</v>
+        <v>25.93492911630968</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.88098385678864</v>
+        <v>29.16056626688008</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.76135161191262</v>
+        <v>31.92880563028766</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.70352686334081</v>
+        <v>34.63404718474952</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.53776938275985</v>
+        <v>30.36532808411798</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.77581512355374</v>
+        <v>25.45210713190298</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.7028597627687</v>
+        <v>10.35456471732467</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.48216801924208</v>
+        <v>10.76590146435796</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.49428627864711</v>
+        <v>7.92651376958645</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.77394882946303</v>
+        <v>15.43500612111137</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.01798806630876</v>
+        <v>17.98764410222308</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.91462497088997</v>
+        <v>18.85521972823438</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.893527322109</v>
+        <v>13.80301922995685</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.9447813600116</v>
+        <v>33.91419222803713</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.25577645399225</v>
+        <v>37.29942263013687</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.97395158304364</v>
+        <v>32.62039217319075</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.88074819933314</v>
+        <v>42.64292704631084</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.56230457295552</v>
+        <v>52.6194845325339</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.04231272287981</v>
+        <v>57.8148669613114</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.34554024156695</v>
+        <v>49.38099854946675</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.77446031863595</v>
+        <v>33.84549337229948</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.09683882116041</v>
+        <v>36.82941686918051</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.97724749860036</v>
+        <v>32.12022139740102</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.08137695088468</v>
+        <v>44.25291341845286</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.6821225249774</v>
+        <v>52.23562943813383</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.20319965277628</v>
+        <v>57.13461863722912</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.33418059054255</v>
+        <v>47.63641220531458</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.53173251314511</v>
+        <v>26.08728910163916</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.55548973195665</v>
+        <v>28.42311341215479</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.22017467867435</v>
+        <v>25.05165322423332</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.35844790887305</v>
+        <v>42.4540909023189</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.52568465025298</v>
+        <v>45.18070949732994</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>40.36750445409928</v>
+        <v>48.95816859028064</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.18686330715816</v>
+        <v>39.57135752369267</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.49635527741636</v>
+        <v>35.65364319151021</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.88941448674111</v>
+        <v>35.20156405179097</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.14980386546029</v>
+        <v>38.09815084005058</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.61079286278172</v>
+        <v>28.78808179201983</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.13993889778103</v>
+        <v>21.33020950131889</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.33348662965761</v>
+        <v>43.77439746583134</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.02157002357114</v>
+        <v>49.06576826643738</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.49763535076815</v>
+        <v>54.13087531049345</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>38.85209909398891</v>
+        <v>43.92107548503823</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.0983077100951</v>
+        <v>39.01914103614794</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.84983924829513</v>
+        <v>40.88355775511667</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.33438944666575</v>
+        <v>44.18576949098044</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.24201803932698</v>
+        <v>48.6120007896636</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.18709026677666</v>
+        <v>36.68113020973566</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.7130291233586</v>
+        <v>38.06140656132908</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.09484594019018</v>
+        <v>41.9227407044537</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.99065205070944</v>
+        <v>43.50039489472191</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>40.07350395949377</v>
+        <v>47.69931497711639</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.62794458997917</v>
+        <v>35.48933305652756</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.94388594141015</v>
+        <v>36.00012669042736</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.33969126036618</v>
+        <v>24.51013521571932</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.91769118735724</v>
+        <v>26.46762810617979</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.73582095560968</v>
+        <v>20.30551660433625</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.82969736631221</v>
+        <v>28.09618076797316</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.7958731394956</v>
+        <v>30.41644597840052</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.21164544394697</v>
+        <v>32.29819615259745</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.51885628939696</v>
+        <v>24.5284829310247</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.64157994834454</v>
+        <v>42.45533110092855</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.93053816718292</v>
+        <v>46.89433100191012</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.53099873064733</v>
+        <v>38.18659240389236</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>39.19933014315134</v>
+        <v>47.56240987324612</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.16185434645436</v>
+        <v>53.88839151049437</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.16624915325627</v>
+        <v>59.42271604856278</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>40.42466418777807</v>
+        <v>47.93812088767721</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.62534616146114</v>
+        <v>40.83803400086914</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.62845360883914</v>
+        <v>44.74170605654789</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.04647427187087</v>
+        <v>36.33751597124154</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.29916785359936</v>
+        <v>46.02266267421545</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.45008532475834</v>
+        <v>51.47288401328505</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.00180886614571</v>
+        <v>56.68094541342647</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.5729960832131</v>
+        <v>44.61632434763941</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.28513594150842</v>
+        <v>35.85770238945486</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>34.95461066723625</v>
+        <v>39.10009305316869</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.02838134880556</v>
+        <v>32.97583729417549</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.11222662839124</v>
+        <v>46.32558758463503</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>41.02034158026158</v>
+        <v>50.0482183007794</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.16773631687289</v>
+        <v>54.6291129494421</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.9493176055932</v>
+        <v>43.93018671284678</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.6186152649882</v>
+        <v>39.19883101146439</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.84757833449653</v>
+        <v>31.21371437060676</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.34755704286989</v>
+        <v>34.24172662777623</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.38495256907057</v>
+        <v>28.04400969512044</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.37716741263529</v>
+        <v>22.42614446081518</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.56963793795813</v>
+        <v>44.71500942095852</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>38.13779744680872</v>
+        <v>45.00834447829908</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.45674723553702</v>
+        <v>49.85562215768805</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.20381038827518</v>
+        <v>39.98861150092075</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.98945639790558</v>
+        <v>40.09702543844541</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.24126161712306</v>
+        <v>42.74379597780009</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.56310305362362</v>
+        <v>41.34326310124488</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>39.41626561380349</v>
+        <v>45.81786742842733</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.50831720403786</v>
+        <v>32.65828510631889</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.16370931792033</v>
+        <v>38.44171351634421</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.64055418122156</v>
+        <v>45.26458790820674</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.61183923777108</v>
+        <v>38.73065218120286</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.13685039406586</v>
+        <v>42.52588807966617</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.29233267418437</v>
+        <v>29.28878833932943</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.93928007744653</v>
+        <v>39.34812224962079</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.17201006365021</v>
+        <v>24.74016576569169</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.59553252964995</v>
+        <v>26.62026996361806</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.51744827902366</v>
+        <v>19.45582439366903</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.17903953798661</v>
+        <v>28.0658407818913</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.15898303735034</v>
+        <v>29.89218429043549</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.62211479129902</v>
+        <v>31.61572533659712</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.84586170885927</v>
+        <v>23.07927661832298</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.68962503650716</v>
+        <v>46.69987243230202</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.06849707490385</v>
+        <v>51.81200926554165</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.73743354279735</v>
+        <v>42.83762453467496</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.02417170206061</v>
+        <v>47.74055468088862</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.30616252086207</v>
+        <v>55.78754477135746</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.23754682884866</v>
+        <v>61.87256685618152</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.54170863102476</v>
+        <v>50.40624179438639</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.62413659373765</v>
+        <v>43.25536717159945</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.84844700899806</v>
+        <v>48.04094438771159</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.00272062241093</v>
+        <v>38.55071557229466</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.6808080428595</v>
+        <v>47.16018867372264</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.48081992421537</v>
+        <v>53.03025427810515</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.46025845874632</v>
+        <v>58.93518952794409</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.39496774584718</v>
+        <v>46.2127597335428</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.49413867586416</v>
+        <v>37.75257104381377</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.57481030369895</v>
+        <v>41.86520646595181</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.80998844169201</v>
+        <v>34.07157686887646</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>39.51472228532787</v>
+        <v>50.26328352118583</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.31551025201963</v>
+        <v>53.92288920684271</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>45.1713569763664</v>
+        <v>59.30540252581321</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>40.17610367235569</v>
+        <v>46.94672016912109</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.55368269546557</v>
+        <v>37.18187158634035</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.34949878599101</v>
+        <v>26.58414061565151</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.23472164357387</v>
+        <v>28.37983973725835</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.11630633057744</v>
+        <v>21.96172208173568</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.56595357774848</v>
+        <v>38.92862956705356</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.21975955428032</v>
+        <v>46.42124235317571</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.58501290326459</v>
+        <v>43.85800473099679</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.63066646178905</v>
+        <v>47.98571387559148</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.00146056776559</v>
+        <v>37.27989988323161</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>43.84425050428796</v>
+        <v>53.8900798732195</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.80385002600556</v>
+        <v>50.21569440181536</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.37702113532919</v>
+        <v>45.56869455908148</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>40.32070549022964</v>
+        <v>49.99966343036716</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.22550625220436</v>
+        <v>36.03031266110447</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>44.03096394566489</v>
+        <v>55.08522165690426</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.59511180538785</v>
+        <v>49.15909457692035</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.98831271776674</v>
+        <v>39.40313220866601</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.86212963833488</v>
+        <v>43.50975618762747</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.32394573470627</v>
+        <v>30.25914116363492</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.03726194991509</v>
+        <v>55.2455928683794</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.24317876457059</v>
+        <v>29.51967911951661</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.5312571943004</v>
+        <v>30.46651203582043</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.55795304557207</v>
+        <v>24.73806333866619</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.36134994006418</v>
+        <v>43.08844627676067</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.21876094767763</v>
+        <v>36.26978317475093</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.61837264663182</v>
+        <v>37.47039005742334</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.70427252440101</v>
+        <v>30.46634591697743</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.13818214589937</v>
+        <v>48.47467578886513</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.95808683154532</v>
+        <v>52.08245064438442</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.14653748035581</v>
+        <v>45.28709464759589</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.20502126908363</v>
+        <v>61.19346972011689</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.89089538542294</v>
+        <v>60.43041899122438</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.43889146867951</v>
+        <v>65.3683061032027</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.48535553888128</v>
+        <v>56.14217647783144</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.02026422623842</v>
+        <v>47.9652358113818</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.88941086597611</v>
+        <v>51.61871504913293</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.73478651655324</v>
+        <v>43.9366474274146</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>49.58540911269491</v>
+        <v>63.60246929312512</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>45.70854446367229</v>
+        <v>60.12343420939757</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>48.24815313310299</v>
+        <v>65.00703168266678</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.80798484307475</v>
+        <v>54.1624353255389</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.37571282258781</v>
+        <v>43.42875979502008</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>39.37640424046542</v>
+        <v>47.16746722838771</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.77252424694057</v>
+        <v>39.95902554258861</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.07713817056133</v>
+        <v>65.50810911614346</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.01385507756338</v>
+        <v>60.15325664142818</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>48.73970557039534</v>
+        <v>65.01431559520128</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.88572891178546</v>
+        <v>53.72243869479261</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.80094769438995</v>
+        <v>21.22465801744183</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.50026942136095</v>
+        <v>22.78762083080336</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.11603432036608</v>
+        <v>24.96103462810574</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.04870569704874</v>
+        <v>18.60159574495969</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.66202520819757</v>
+        <v>16.87889069345235</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.0856561624386</v>
+        <v>40.79967224116982</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>39.81905028587246</v>
+        <v>47.09130337412955</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.66829416363677</v>
+        <v>52.27620696126193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.35385550826192</v>
+        <v>42.55970375901325</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.46907112869814</v>
+        <v>39.16337552790255</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.0121771586887</v>
+        <v>38.36431032175413</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.79057722114304</v>
+        <v>42.08957238347657</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.88262246595881</v>
+        <v>46.64683128123628</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.32288689011612</v>
+        <v>34.15402061369604</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.49865789726458</v>
+        <v>38.4803593632578</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.57671185825807</v>
+        <v>30.02207575418565</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.1148628302011</v>
+        <v>35.01000628949917</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.33896029627805</v>
+        <v>38.23075646515652</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.66352284496137</v>
+        <v>27.56088595976399</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.10647320988259</v>
+        <v>30.06132612976054</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.3157028969857</v>
+        <v>19.2213921043359</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.64856483423673</v>
+        <v>20.77058010094242</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.87518496437087</v>
+        <v>14.2672182755459</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.99070428883378</v>
+        <v>21.84327901133877</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.21082444578336</v>
+        <v>24.93533446108421</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.4440997237752</v>
+        <v>26.53560384132496</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.32572945558734</v>
+        <v>19.71946895532824</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.58301742948452</v>
+        <v>42.76660559928568</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>39.00811497208289</v>
+        <v>47.50380532124261</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.51925581760887</v>
+        <v>38.16578435943327</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.78066666497493</v>
+        <v>46.90652255015051</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.9628571189096</v>
+        <v>54.64999985801444</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.11161272641828</v>
+        <v>60.56252520065511</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.16243604002472</v>
+        <v>49.52101118793657</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.29060798374803</v>
+        <v>40.56611671603721</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>38.43249683743049</v>
+        <v>44.77583457588136</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.97173991537935</v>
+        <v>35.54724604435943</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.73393422635345</v>
+        <v>46.5076445209541</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.93382778968151</v>
+        <v>52.56656200912972</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.69298525466584</v>
+        <v>58.05818343744747</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.13139442865636</v>
+        <v>46.15497897586621</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.36304816484023</v>
+        <v>27.96717911099933</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.67356786243032</v>
+        <v>30.57626016339264</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.972499991765</v>
+        <v>23.74709460823688</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.96274636868035</v>
+        <v>42.84886629363719</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.68052162033835</v>
+        <v>46.7675841619175</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.51981023808138</v>
+        <v>50.97947152203908</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.12565121294084</v>
+        <v>40.52971509285184</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.2822063234109</v>
+        <v>12.42206832076657</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.76153921591265</v>
+        <v>13.3469275421997</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.67715609527752</v>
+        <v>13.63136981654969</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.37770076537172</v>
+        <v>12.0189053918069</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>18.04139355576241</v>
+        <v>14.09477518832325</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.80532182090608</v>
+        <v>20.08817064978903</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.87829945164875</v>
+        <v>24.59139635475721</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.31559373597342</v>
+        <v>26.40635497351972</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.88022954241058</v>
+        <v>22.0037462575315</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.4988208084926</v>
+        <v>35.71035645220047</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.92149039402126</v>
+        <v>19.69404229853332</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.94976008294161</v>
+        <v>22.44804395248714</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.14277116180221</v>
+        <v>23.92135056541184</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.77642099147078</v>
+        <v>17.94682675849668</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.77960411859777</v>
+        <v>31.34270428743902</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.86193590195069</v>
+        <v>20.06991186665761</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.18821451770814</v>
+        <v>20.52071434862253</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.49295365979539</v>
+        <v>21.57451176023251</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.30058113692517</v>
+        <v>16.30214953654546</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.24775459869064</v>
+        <v>32.80324029009643</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.6873791655803</v>
+        <v>16.73140461092937</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.54415048492382</v>
+        <v>17.76994888163202</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.74814780515921</v>
+        <v>12.8289120768446</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>18.95992826252878</v>
+        <v>14.61159702258985</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.0262012393284</v>
+        <v>15.81435023209484</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.00094193632878</v>
+        <v>16.58077533980744</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.44731873541737</v>
+        <v>11.92584527217237</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.38717104128396</v>
+        <v>39.60354466494931</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.51852007471931</v>
+        <v>43.39950271358903</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.95161266723885</v>
+        <v>35.59367098080875</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.4544539418024</v>
+        <v>45.27388879365272</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>42.22626194718779</v>
+        <v>52.48028481668719</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.06068263751934</v>
+        <v>57.42171819523864</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.57350906514267</v>
+        <v>48.31515806340456</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.9597975708163</v>
+        <v>34.35429800414701</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>34.03527336573288</v>
+        <v>37.25689032761817</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.81956361279934</v>
+        <v>30.390563696359</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.63134423672217</v>
+        <v>44.42118131015999</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>40.22068307200423</v>
+        <v>49.66086584283346</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.16830185348293</v>
+        <v>53.80707879550843</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.25152718037279</v>
+        <v>43.96936443993567</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.73627981555805</v>
+        <v>31.3282145840262</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>32.539505318035</v>
+        <v>33.29560048790459</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.74488646810084</v>
+        <v>27.59370797996836</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.33858872296145</v>
+        <v>42.32166882202126</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>37.26950180261976</v>
+        <v>43.04013945594169</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.17865142612124</v>
+        <v>45.19171572465839</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.21305848844209</v>
+        <v>35.59779540141603</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.03119533473659</v>
+        <v>11.28280871377889</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.16360730808995</v>
+        <v>12.57311256568564</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.85019358783616</v>
+        <v>13.07397987047171</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.8978230038064</v>
+        <v>12.23656212073051</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>18.87826500043184</v>
+        <v>16.01580008497043</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.78460049479546</v>
+        <v>22.64702770715973</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.51915863166766</v>
+        <v>31.11179237759209</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.44095346763148</v>
+        <v>33.92813577028375</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.49560433726965</v>
+        <v>28.61429742548283</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.12891487226614</v>
+        <v>31.47227104369733</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.83236647667164</v>
+        <v>32.97203118249237</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.75174815979053</v>
+        <v>38.09079125808547</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.55456570388599</v>
+        <v>41.4860716813206</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.09890817452619</v>
+        <v>32.69517615026695</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>32.3051601469823</v>
+        <v>35.71992954367268</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.34475225333307</v>
+        <v>32.40770528787309</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.67975190979238</v>
+        <v>32.67140383767486</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.41047731280339</v>
+        <v>35.77955218578701</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.39187298151398</v>
+        <v>28.49558924334841</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.72949356850678</v>
+        <v>35.81820345931837</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.63339934195756</v>
+        <v>16.34929805240107</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.27355886076447</v>
+        <v>16.45853206012873</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>21.72805783014159</v>
+        <v>11.63522562535228</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>17.3413937615477</v>
+        <v>13.63068428327826</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>21.3901239494009</v>
+        <v>14.38775144827633</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>20.89402940786315</v>
+        <v>14.00947022241958</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>19.59372080070504</v>
+        <v>9.230272274171579</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>33.02544662026823</v>
+        <v>36.11273497707151</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>34.00075354523297</v>
+        <v>38.89596796964334</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.10850063907229</v>
+        <v>32.84545718961597</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.18297446826055</v>
+        <v>38.51893555941776</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>38.85337471375765</v>
+        <v>45.59053442628866</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>40.47096857520015</v>
+        <v>49.13367561792062</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.37477306656039</v>
+        <v>41.35560333636712</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.8582609708155</v>
+        <v>38.249757741578</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.31831590701945</v>
+        <v>41.18806109345527</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.32212554025067</v>
+        <v>33.9517926346826</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>38.10569249633051</v>
+        <v>43.57964755643945</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.39950714492179</v>
+        <v>47.25475033784917</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>42.24321994489907</v>
+        <v>50.88637551586821</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.73995053299071</v>
+        <v>41.01906646355081</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.002380667082</v>
+        <v>33.73654159021446</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.34078276746126</v>
+        <v>36.71712598106819</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.15300528899328</v>
+        <v>29.95199049523665</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.70032758583325</v>
+        <v>41.67848929765496</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.09788060662947</v>
+        <v>42.36103789319504</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>37.02960125730903</v>
+        <v>45.48548229657415</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.88487331500601</v>
+        <v>35.75898603633109</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.36656923786752</v>
+        <v>39.29575120990628</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.04615715812901</v>
+        <v>33.29720965552556</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.37807453968617</v>
+        <v>35.75866498394448</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.59511654867966</v>
+        <v>30.211093706588</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.77709537373783</v>
+        <v>24.25389053417284</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.77589204837459</v>
+        <v>45.22359643964441</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>38.70383353601858</v>
+        <v>46.65041809609372</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.82703198239751</v>
+        <v>50.7627960635936</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>37.2608956692888</v>
+        <v>41.23965076831649</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.48062348200403</v>
+        <v>39.43904276338566</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>37.37788211504784</v>
+        <v>43.64255682522608</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>37.27414722411815</v>
+        <v>43.55571421129913</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.59821742369264</v>
+        <v>46.9845152627357</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>32.79423909683287</v>
+        <v>34.40199505017672</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.07209541500618</v>
+        <v>39.20818989882494</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>37.69827037221224</v>
+        <v>45.27389860481694</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.92014051587282</v>
+        <v>42.16266132555637</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.38942473894853</v>
+        <v>45.21217432361264</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.31026993100842</v>
+        <v>32.08077898128244</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.39820629129029</v>
+        <v>39.2833448150292</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.96534438018773</v>
+        <v>27.7321009537376</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.88857564406088</v>
+        <v>30.05400360598589</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.03914139974878</v>
+        <v>23.79133200415194</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.4420818508096</v>
+        <v>27.95523600889132</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.8443214459219</v>
+        <v>31.68327208527352</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>32.38606080774181</v>
+        <v>33.69730493483885</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.69663641292345</v>
+        <v>25.92863188315095</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.83165784415004</v>
+        <v>44.73518895699397</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.11990502997745</v>
+        <v>49.37350187149146</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.61502368539138</v>
+        <v>40.88964978914194</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>39.87249252768808</v>
+        <v>47.12831674063972</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.18430110343166</v>
+        <v>54.25829933409946</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>45.19942245592153</v>
+        <v>59.94935375095357</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>40.6086279059886</v>
+        <v>48.97986792527958</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>37.01365906295318</v>
+        <v>43.19142044852032</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>39.112739280277</v>
+        <v>47.46914322609688</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>35.35685036754811</v>
+        <v>38.70574736129635</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>40.29573525052979</v>
+        <v>48.5761231091026</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>42.68906509797038</v>
+        <v>54.07755268063415</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>45.61886837205329</v>
+        <v>59.54487716673427</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>40.64880993053235</v>
+        <v>47.44641779966815</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>35.84240145537967</v>
+        <v>39.81326080705428</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>38.10177652328628</v>
+        <v>43.96996590018315</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>34.61740244147309</v>
+        <v>35.91783743289291</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>39.04881049921323</v>
+        <v>48.54083882421482</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>40.53976919137693</v>
+        <v>52.49722392827159</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>43.10426957118408</v>
+        <v>57.43485267191505</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.76706521077303</v>
+        <v>45.19869347349771</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>21.83154398581664</v>
+        <v>19.04228793286324</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.81350892916112</v>
+        <v>18.64889860872415</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.14335281534927</v>
+        <v>20.62868467476154</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.55101812232597</v>
+        <v>15.01559822063779</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>23.39891989030297</v>
+        <v>20.2212819429237</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>36.98965634394264</v>
+        <v>40.55131481073688</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.98308630853331</v>
+        <v>45.26453888038169</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>41.74607262013826</v>
+        <v>50.29089563060261</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>37.73386356531486</v>
+        <v>41.06584977499121</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>34.05235067845911</v>
+        <v>39.25386213118677</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>35.74454508604654</v>
+        <v>39.62210117602257</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.58402042039731</v>
+        <v>42.0360246765295</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>38.81888949515029</v>
+        <v>46.63285686657733</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.51907582388796</v>
+        <v>34.5592034238078</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>34.76253050091782</v>
+        <v>38.81361763700522</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.92151272753549</v>
+        <v>33.00937404926118</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>33.82639546645011</v>
+        <v>34.35663597439638</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>35.43937233934217</v>
+        <v>37.78011798995941</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>31.11413329906249</v>
+        <v>27.04680152127759</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>31.01012023836886</v>
+        <v>35.01809757382702</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>27.4687250928754</v>
+        <v>23.84562956150625</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.97561878338908</v>
+        <v>25.81713896321065</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>26.38023992925863</v>
+        <v>19.48255475800196</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>23.04425884409603</v>
+        <v>21.04814744798687</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>27.67856601356823</v>
+        <v>23.08994158383663</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>27.88934971972592</v>
+        <v>24.37706786727901</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>25.83556077104915</v>
+        <v>17.4642889872049</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>36.49271890046518</v>
+        <v>44.4693300160433</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.89401828182729</v>
+        <v>49.51863994079158</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>35.28803096410737</v>
+        <v>40.47484205987212</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>39.72855235235117</v>
+        <v>46.81046445943247</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.73172435689222</v>
+        <v>52.96886183681097</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>44.77874551268908</v>
+        <v>58.60644230429848</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>39.81562881804912</v>
+        <v>47.25766958519355</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>36.87466554339467</v>
+        <v>42.65620953509973</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>39.13789196102063</v>
+        <v>47.24577912285393</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>35.15620244140168</v>
+        <v>38.22423800780983</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>38.93118365264881</v>
+        <v>46.09100167669128</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>41.35994295000447</v>
+        <v>50.60804615231805</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>43.87491231796253</v>
+        <v>55.79854300356875</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>39.22951646846176</v>
+        <v>43.68009838993272</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>33.39836423054876</v>
+        <v>35.21849813819633</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>35.01767116424378</v>
+        <v>38.69848216980812</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.59560109247621</v>
+        <v>31.96139299989721</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>34.77971020566879</v>
+        <v>40.44856933938017</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>37.51659937712188</v>
+        <v>43.0902771582191</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>38.80655608064546</v>
+        <v>46.82453584386824</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>35.11857839805581</v>
+        <v>36.57123962561041</v>
       </c>
     </row>
   </sheetData>
